--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
   <si>
     <t xml:space="preserve">Ancient Middle-East</t>
   </si>
@@ -1882,6 +1882,9 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/IcebergCharts/comments/w8cqi6/declassified_government_documents_iceberg/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Secret King: The Myth and Reality of Nazi Occultism</t>
   </si>
   <si>
     <t xml:space="preserve">A Critique of “Reason” Luke Smith</t>
@@ -50224,6 +50227,11 @@
     </row>
     <row r="22" ht="12.75"/>
     <row r="23" ht="12.75"/>
+    <row r="27" ht="12.75">
+      <c r="A27" t="s">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A21"/>
@@ -50242,14 +50250,14 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="46.140625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="61" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
   <si>
     <t xml:space="preserve">Ancient Middle-East</t>
   </si>
@@ -1885,6 +1885,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Secret King: The Myth and Reality of Nazi Occultism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBI vault - The Protocols of the meeting of the Learned Elders of Zion:</t>
   </si>
   <si>
     <t xml:space="preserve">A Critique of “Reason” Luke Smith</t>
@@ -50232,6 +50235,11 @@
         <v>620</v>
       </c>
     </row>
+    <row r="28" ht="12.75">
+      <c r="A28" t="s">
+        <v>621</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A21"/>
@@ -50257,7 +50265,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="61" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="History, Geography, Non-Fiction" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Religius Texts" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Inteligence Documents" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Internet Age PDFs" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1095">
   <si>
     <t xml:space="preserve">Ancient Middle-East</t>
   </si>
@@ -1891,13 +1892,1429 @@
   </si>
   <si>
     <t xml:space="preserve">A Critique of “Reason” Luke Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinhentismo (século XVI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre José de Anchieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notícias do Brasil, 1555</t>
+  </si>
+  <si>
+    <t>Teatro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pero Vaz de Caminha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Carta de Pero Vaz de Caminha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barroco (século XVII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bento Teixeira</t>
+  </si>
+  <si>
+    <t>Prosopopéia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Botelho de Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesia Completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuno Marques Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compendio narrativo do peregrino da america em que se tratam varios discursos Espirituaes, e moraes, com muitas advertencias, e documentos contra os abusos, que se achão introdusidos pela malicia diabolica no Estado do Brasil. Dedicado à Virgem da Vitória , emperatris do ceo, rainha do mundo, e Senhora da Piedade, Mãy de Deos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frei Vicente do Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História do Brasil: 1500-1627 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregório de Matos Guerra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregório de Matos - Vol. 1: Poemas atribuídos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregório de Matos - Vol. 2: Poemas atribuídos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregório de Matos - Vol. 3: Poemas atribuídos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregório de Matos - Vol. 4: Poemas atribuídos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregório de Matos - Vol. 5: Letrados, manuscritura, retórica, autoria,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obra e público na Bahia dos séculos XVII e XVIII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neoclassicismo ou Arcadismo (século XVIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cláudio Manoel da Costa</t>
+  </si>
+  <si>
+    <t>Sonetos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culto Métrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munúsculo Métrico</t>
+  </si>
+  <si>
+    <t>Epicédio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Poéticas de Glauceste Satúrnio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Parnaso Obsequioso e Obras Poéticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vila Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesias Manuscritas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonetos Inéditos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sousa Caldas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesias Sacras e Profanas do Reverendo António Pereira de Sousa Caldas, com notas e aditamentos do tenente-general Francisco de Borja Garção Stockler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basílio da Gama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epitalâmio às núpcias da Sra. D. Maria Amália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Uraguai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A declamação trágica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Campos Elíseos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenitivo da saudade</t>
+  </si>
+  <si>
+    <t>Quitúbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás Antonio Gonzaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marília de Dirceu Tomo I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marília de Dirceu Tomo II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frei José de Santa Rita Durão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro anmia studiorum instauratione oratio</t>
+  </si>
+  <si>
+    <t>Caramuru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romantismo (século XIX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José de Alencar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de José de Alencar I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de José de Alencar II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de José de Alencar III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de José de Alencar IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de José de Alencar V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de José de Alencar VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalves de Magalhães</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspiros poéticos e saudades, poesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A confederação dos Tamoios, poema épico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os fatos do espírito humano, tratado filosófico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cânticos fúnebres, poesias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentários e pensamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castro Alves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de Castro Alves Volume 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de Castro Alves Volume 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalves Dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeiros Cantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonor de Mendonça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundos Cantos</t>
+  </si>
+  <si>
+    <t>Meditação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Últimos Cantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Tymbiras,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casimiro de Abreu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhores Poemas Casimiro de Abreu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de Casimiro de Abreu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antônio Joaquim Pereira da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não encontramos obras dele para aquisição, nem em PDF. Então, para que não ocorra alguma desfeita, deixemos algumas referências aqui.</t>
+  </si>
+  <si>
+    <t>http://biblioteca.jfpb.jus.br/autores-paraibanos/antonio-joaquim-pereira-da-silva/</t>
+  </si>
+  <si>
+    <t>http://www.paraibacriativa.com.br/artista/antonio-joaquim-pereira-da-silva/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fagundes Varella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantos e Fantasias e Outros Cantos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de Fagundes Varela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvares de Azevedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macário/Noite na taverna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de Álvares de Azevedo: Edição Revista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junqueira Freire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspirações do Claustro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratado de eloqüência nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franklin Távora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de Franklin Távora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um casamento no arrabalde (romance, 1869); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teixeira e Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os três dias de um noivado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Filho do Pescador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O cavaleiro teutônico ou A freira de Mariemburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias Barreto [esse também era filósofo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monografias em Alemão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos de Direito I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos de Direito II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos de Direito III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crítica de Literatura e Arte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crítica Política e Social </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crítica de Religião </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos Alemães </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dias e Noites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos de Filosofia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realismo - Naturalismo (segunda metade do século XIX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machado de Assis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memórias póstumas de Brás Cubas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dom Casmurro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quincas Borba </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O alienista </t>
+  </si>
+  <si>
+    <t>Helena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box Todos os romances e contos consagrados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Completas de Machado de Assis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artur Nabantino Gonçalves de Azevedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhores crônicas Artur Azevedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Otaviano de Almeida Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florilégio brasileiro da infância</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grinalda de flores poéticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosaico poético</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os cantos de Selma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Xavier Ferreira Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A arte de escrever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O feiticeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel de Oliveira Paiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de Manuel de Oliveira Paiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluísio de Azedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluísio Azevedo. Ficção Completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul Pompeia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma Tragédia no Amazonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canções sem Metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Ateneu</t>
+  </si>
+  <si>
+    <t>Contos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Antônio de Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memórias de um Sargento de Milícias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra Completa de Manuel Antônio de Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emília Moncorvo Bandeira de Melo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Luta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teotônio Freire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mais um que não possui obras nem físicas e nem digitais para aquisição. Favor reclamar com a editora mais próxima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parnasianismo (final do século XIX e início do século XX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olavo Bilac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antologia poética;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro: Crônicas da Belle Époque Carioca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pátria Brasileira: História do Brasil para crianças</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 Poemas selecionados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Através do Brasil;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contos Pátrios;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesias (1888);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratado de versificação (1910);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raimundo Correia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeiros Sonhos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versos e Versões</t>
+  </si>
+  <si>
+    <t>Aleluias</t>
+  </si>
+  <si>
+    <t>Poesias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luís Delfino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luís Delfino - Coleção Melhores Poemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A América</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Félix Pacheco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O valor imenso da Biblioteca Brasiliense do Dr. J. Carlos Rodrigues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Batista Cepelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O vil metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os bandeirantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Magalhães de Azeredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baladas e Fantasias, contos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horas Sagradas, poesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Vallombrosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquim Nabuco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vicente de Carvalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ardentias 1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relicário 1888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa, rosa de amor 1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poemas e canções 1908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luizinha, contos 1924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simbolismo (fins do século XIX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cruz e Souza</t>
+  </si>
+  <si>
+    <t>Broquéis</t>
+  </si>
+  <si>
+    <t>Missal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Últimos Sonetos</t>
+  </si>
+  <si>
+    <t>Evocações</t>
+  </si>
+  <si>
+    <t>Faróis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nestor Vítor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cartas à gente nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os de hoje : figuras do movimento modernista brasileiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hora</t>
+  </si>
+  <si>
+    <t>Transfigurações </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Kilkerry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphonsus de Guimaraens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de Alphonsus de Guimaraens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Júlia Lopes de Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Falência </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Intrusa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A (In)Visibilidade de Um Legado. Seleta de Textos Dramatúrgicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inéditos de Júlia Lopes de Almeida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livros das Donas e Donzelas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A viúva Simões </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pré-Modernismo (1902 até 1922)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euclides da Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Sertões - Edição Crítica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensaios e Inéditos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra Completa de Euclides da Cunha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monteiro Lobato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Melhores Aventuras Do Sítio Do Picapau Amarelo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa Monteiro Lobato (Adulto) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contos completos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lima Barreto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra Reunida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contos completos de Lima Barreto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrique Maximiano Coelho Netto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de Coelho Neto [A Conquista, Sertão, Turbilhão]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Às Quintas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compêndio de Literatura Brasileira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bico de Pena (1904)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esfinge, romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fogo Fátuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descoberta da Índia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Pereira da Graça Aranha</t>
+  </si>
+  <si>
+    <t>Canaã</t>
+  </si>
+  <si>
+    <t>Malazarte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Estética da Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Viagem Maravilhosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O meu próprio romance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augusto dos Anjos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toda poesia de Augusto dos Anjos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Simões Lopes Neto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras de João Simões Lopes Neto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modernismo e Neorrealismo (1922 a 1945)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario de Andrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box Obras de Mário de Andrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesias Completas - Caixa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecilia Meireles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesia Completa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassiano Ricardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassiano Ricardo - Coleção Melhores Poemas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oswald de Andrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesias reunidas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O rei da vela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memórias sentimentais de João Miramar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeiro caderno do aluno de poesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neve na manhã de São Paulo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Américo de Almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bagaceira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ano do nego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Érico Veríssimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantoches e outros contos </t>
+  </si>
+  <si>
+    <t>Clarissa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caminhos cruzados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Música ao longe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um lugar ao sol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olhai os lírios do campo </t>
+  </si>
+  <si>
+    <t>Saga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O resto é silêncio – 1943 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tempo e o vento — O continente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tempo e o vento — O retrato </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tempo e o vento — O arquipélago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O senhor embaixador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O prisioneiro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidente em Antares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Geraldo Vieira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Triste Epigrama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mulher que Fugiu de Sodoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ronda do Deslumbramento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Território Humano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Quadragésima Porta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Túnica e os Dados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carta à Minha Filha em Prantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ladeira da Memória </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Albatroz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terreno Baldio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mais que Branca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mário Quintana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Rua dos Cataventos</t>
+  </si>
+  <si>
+    <t>Canções</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Aprendiz de Feiticeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apontamentos de História Sobrenatural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Vaca e o Tipografo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esconderijos do Tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baú de Espantos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Preguiça como Método de Trabalho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cor do Invisível</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velório Sem Defunto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu Passarinho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcântara Machado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">António de Alcântara Machado: antologia de contos: Obra (quase) completa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge de Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anunciação e encontro de Mira-Celi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poemas Negros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invenção de Orfeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antologia Poética</t>
+  </si>
+  <si>
+    <t>Calunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mulher obscura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Bandeira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box Manuel Bandeira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antologia Poética </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhores Crônicas de Manuel Bandeira </t>
+  </si>
+  <si>
+    <t>Libertinagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raul Bopp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesia Completa de Raul Bopp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobra Norato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vida e morte da antropofagia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimentos Modernistas no Brasil: 1922 - 1928 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graciliano Ramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graciliano Ramos. 120 Anos - Caixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linhas tortas </t>
+  </si>
+  <si>
+    <t>Cangaços </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Lins do Rego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Lins Do Rego. Ficção Completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel de Queiroz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O quinze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Miguel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O galo de ouro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lampião / A beata Maria do Egito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Alpendre, uma rede, um açude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial de Maria Moura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não me Deixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Amado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitães da areia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A morte e a morte de Quincas Berro D'água </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Amado: uma biografia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela, Cravo e Canela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terras do sem-fim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenda dos milagres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tocaia grande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tereza Batista cansada de guerra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O país do carnaval </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tieta do agreste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahia de todos-os-santos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com o mar por meio - Uma amizade em cartas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O menino grapiúna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dona flor e seus dois maridos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar morto </t>
+  </si>
+  <si>
+    <t>Suor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinícius de Moraes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra Reunida de Vinícius de Moraes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Drummond de Andrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova reunião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antologia poética </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claro enigma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentimento do mundo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declaração de amor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alguma poesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O amor natural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amar se aprende amando: Poesia de convívio e de humor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rosa do povo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorretrato e outras crônicas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarice Lispector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os Contos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas as Crônicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarice Lispector Todos os Romances - Caixa 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarice Lispector Todos os Romances - Caixa 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hora da Estrela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contos e recontos para crianças</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros Escritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correio para Mulheres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só para mulheres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pós-Modernismo e Contemporaneidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelson Rodrigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O melhor de Nelson Rodrigues: Teatro, contos e crônicas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Box Teatro completo Nelson Rodrigues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Óbvio Ululante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Casamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somos o Brasil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O reacionário </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cabra Vadia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guimarães Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Guimarães Rosa : Ficção completa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo de Melo Mourão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O país dos Mourões </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Peãs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A invenção do saber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Valete de espadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algumas Partituras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invenção do Mar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cânon &amp; fuga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Senador de Pernambuco: Breve Memória de Antônio de Barros Carvalho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Bêbado de Deus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">João Cabral de Melo Neto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morte e Vida Severina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma Faca só Lâmina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Educação pela Pedra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Museu de Tudo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A literatura como turismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O artista inconfessável</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Escola das Facas / Auto do Frade </t>
+  </si>
+  <si>
+    <t>Agrestes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime na Calle Relator / Sevilha Andando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lygia Fagundes Telles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os contos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As meninas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciranda de pedra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antes do baile verde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disciplina do amor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminário dos ratos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invenção e memória </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um coração ardente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariano Suassuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teatro Completo de Ariano Suassuna - Caixa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance da Pedra do Reino e o Príncipe do Sangue do Vai-e-volta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto da Compadecida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romance de Dom Pantero no Palco dos pecadores - Box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciação à Estética (Biblioteca Áurea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As conchambranças de Quaderna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Santo e a Porca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Pena e a Lei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A História do Amor de Fernando e Isaura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferreira Gullar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toda Poesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poema sujo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentro da noite veloz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A luta corporal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na vertigem do dia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adélia Prado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poesia reunida (Capa dura) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solte os Cachorros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cacos para um Vitral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Componentes da Banda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Homem da Mão Seca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuscritos de Filipa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero minha mãe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando eu era pequena </t>
+  </si>
+  <si>
+    <t>Filandras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Tolentino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anulação e outros reparos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As horas de Katharina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os deuses de hoje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os sapos de ontem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A balada do cárcere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O mundo como Ideia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A imitação do amanhecer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otto Lara Resende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca do inferno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O retrato na gaveta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O braço direito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O elo partido e outras histórias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom dia para nascer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O príncipe e o sabiá e outros perfis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A testemunha silenciosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O rio é tão longe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zélia Gattai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarquistas Graças a Deus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Chapéu Para Viagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senhora Dona do Baile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardim de Inverno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chão de Meninos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crônica de Uma Namorada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Casa do Rio Vermelho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cittá di Roma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas e a Sereia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Códigos de Família</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Baiano Romântico e Sensual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memorial do amor e Vacina de sapo </t>
+  </si>
+  <si>
+    <t>APOIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História da Literatura Ocidental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura européia e Idade Média latina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve História da Literatura Brasileira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pequena Bibliografia Crítica Da Literatura Brasileira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muita Retórica Pouca Literatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crítica, Literatura e Narratofobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esquecidos e Superestimados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Uraguai e a Fundação da Literatura Brasileira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O primitivismo em Mario de Andrade, Oswald de Andrade e Raul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bopp: Origem e conformação no universo intelectual brasileiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História Concisa da Literatura Brasileira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Literatura Brasileira Através dos Textos: A Literatura Brasileira Através dos Textos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura Brasileira das Origens aos Nossos Dias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito de literatura brasileira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">História da Inteligência Brasileira - Volume 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">História da Inteligência Brasileira - Volume 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">História da Inteligência Brasileira - Volume 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">História da Inteligência Brasileira - Volume 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Critica Literaria no Brasil </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -1954,6 +3371,28 @@
       <b/>
       <sz val="9.000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Symbol"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="21">
@@ -2097,7 +3536,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2337,6 +3776,29 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
       <alignment wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" indent="3"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" indent="3"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -50274,4 +51736,2776 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A136" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="62" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="63" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="64" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="64" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="63" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="64" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="64" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="63" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="63" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="64" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="64" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="64" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="64" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="64" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="62" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="63" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="64" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="64" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="64" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="64" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="64" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="64" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="64" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="64" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="64" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="63" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="64" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="63" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="64" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="64" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="64" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="64" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="64" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="64" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="63" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="64" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="64" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="63" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="64" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="62" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="63" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="64" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="64" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="64" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="64" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="64" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="64" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="63" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="64" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="64" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="64" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="64" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="64" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="63" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="65" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="64" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="63" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="64" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="64" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="64" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="64" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="64" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="63" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="64" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="64" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="63" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="66" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="35" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="63" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="64" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="64" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="63" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="64" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="64" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="63" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="35" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="35" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="63" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="64" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="64" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="63" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="64" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="64" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="64" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="63" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="64" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="64" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="64" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="64" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="64" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="64" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="64" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="64" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="64" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="64" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="62" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="63" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="64" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="64" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="64" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="64" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="64" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="64" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="64" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="63" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="64" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="63" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="64" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="64" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="64" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="64" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="63" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="64" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="64" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="63" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="64" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="63" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="64" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" ht="15">
+      <c r="A130" s="63" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="64" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="64" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="64" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="64" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="135" ht="15">
+      <c r="A135" s="63" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="64" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="64" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="138" ht="15">
+      <c r="A138" s="63" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="64" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="140" ht="15">
+      <c r="A140" s="63" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="141" ht="15">
+      <c r="A141" s="67" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="142" ht="18">
+      <c r="A142" s="62" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="143" ht="15">
+      <c r="A143" s="63" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="64" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="64" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="64" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="64" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="64" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="64" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="64" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="64" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="152" ht="15">
+      <c r="A152" s="63" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="64" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="64" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="64" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="64" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="157" ht="15">
+      <c r="A157" s="63" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="64" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="64" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="160" ht="15">
+      <c r="A160" s="63" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="64" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="162" ht="15">
+      <c r="A162" s="63" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="64" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="64" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="165" ht="15">
+      <c r="A165" s="63" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="64" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="64" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="64" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="64" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="170" ht="15">
+      <c r="A170" s="63" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="64" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="64" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="64" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="64" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="64" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="176" ht="18">
+      <c r="A176" s="62" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="177" ht="15">
+      <c r="A177" s="63" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="64" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="64" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="64" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="64" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="64" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="183" ht="15">
+      <c r="A183" s="63" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="64" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="64" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="64" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="64" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="188" ht="15">
+      <c r="A188" s="63" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="64" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="190" ht="15">
+      <c r="A190" s="63" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="64" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="192" ht="15">
+      <c r="A192" s="63" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="64" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="64" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="64" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="64" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="64" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="64" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="63" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="63" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="64" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="64" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="64" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="63" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="64" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="64" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="64" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="63" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="64" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="64" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="63" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="64" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="64" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="64" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="64" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="64" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="64" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="64" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="63" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="64" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="64" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="64" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="64" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="64" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="63" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="64" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="63" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="64" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="62" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="63" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="64" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="64" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="63" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="64" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="63" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="64" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="63" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="64" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="64" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="64" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="64" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="64" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="63" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="64" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="64" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="63" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="64" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="64" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="64" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="64" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="64" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="64" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="64" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="64" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="64" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="64" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="64" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="64" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="64" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="64" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="63" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="64" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="64" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="64" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="64" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="64" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="64" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="64" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="64" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="64" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="64" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="64" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="63" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="64" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="64" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="64" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="64" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="64" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="64" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="64" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="64" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="64" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="64" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="64" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="63" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="64" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="63" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="64" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="64" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="64" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="64" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="64" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="64" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="63" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="64" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="64" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="64" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="64" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="63" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="64" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="64" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="64" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="64" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="63" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="64" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="64" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="64" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="63" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="64" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="63" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="64" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="64" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="64" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="64" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="64" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="64" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="64" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="63" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="64" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="64" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="64" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="64" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="64" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="64" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="64" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="64" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="64" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="64" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="64" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="64" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="64" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="64" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="64" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="64" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="63" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="64" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="63" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="64" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="64" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="64" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="64" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="64" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="64" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="64" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="64" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="64" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="64" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="63" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="64" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="64" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="64" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="64" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="64" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="64" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="64" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="64" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="64" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="62" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="63" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="64" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="64" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="64" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="64" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="64" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="64" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="64" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="63" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="64" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="63" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="64" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="64" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="64" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="64" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="64" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="64" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="64" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="64" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="64" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="63" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="64" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="64" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="64" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="64" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="64" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="64" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="64" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="64" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="64" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="63" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="64" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="64" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="64" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="64" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="64" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="64" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="64" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="64" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="64" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="63" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="64" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="64" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="64" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="64" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="64" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="64" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="64" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="64" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="64" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="63" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="64" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="64" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="64" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="64" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="64" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="63" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="64" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="64" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="64" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="64" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="64" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="64" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="64" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="64" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="64" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="63" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="64" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="64" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="64" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="64" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="64" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="64" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="64" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="63" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="64" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="64" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="64" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="64" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="64" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="64" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="64" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="64" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="63" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="64" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="64" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="64" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="64" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="64" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="64" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="64" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="64" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="64" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="64" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="64" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="64" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="63" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="64" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="64" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="64" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="64" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="64" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="64" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="64" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="64" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="64" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="64" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="65" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="64" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="64" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="64" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="64" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="64" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="64" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="64" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="66"/>
+    </row>
+    <row r="476"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A3" tooltip=""/>
+    <hyperlink r:id="rId2" ref="A4" tooltip=""/>
+    <hyperlink r:id="rId3" ref="A6" tooltip=""/>
+    <hyperlink r:id="rId4" ref="A9" tooltip=""/>
+    <hyperlink r:id="rId5" ref="A11" tooltip=""/>
+    <hyperlink r:id="rId6" ref="A13" tooltip=""/>
+    <hyperlink r:id="rId7" ref="A15" tooltip=""/>
+    <hyperlink r:id="rId8" ref="A17" tooltip=""/>
+    <hyperlink r:id="rId9" ref="A18" tooltip=""/>
+    <hyperlink r:id="rId10" ref="A19" tooltip=""/>
+    <hyperlink r:id="rId11" ref="A20" tooltip=""/>
+    <hyperlink r:id="rId12" ref="A21" tooltip=""/>
+    <hyperlink r:id="rId12" ref="A22" tooltip=""/>
+    <hyperlink r:id="rId13" ref="A25" tooltip=""/>
+    <hyperlink r:id="rId14" ref="A26" tooltip=""/>
+    <hyperlink r:id="rId15" ref="A27" tooltip=""/>
+    <hyperlink r:id="rId16" ref="A28" tooltip=""/>
+    <hyperlink r:id="rId17" ref="A29" tooltip=""/>
+    <hyperlink r:id="rId18" ref="A30" tooltip=""/>
+    <hyperlink r:id="rId19" ref="A31" tooltip=""/>
+    <hyperlink r:id="rId20" ref="A32" tooltip=""/>
+    <hyperlink r:id="rId21" ref="A33" tooltip=""/>
+    <hyperlink r:id="rId22" ref="A35" tooltip=""/>
+    <hyperlink r:id="rId23" ref="A37" tooltip=""/>
+    <hyperlink r:id="rId24" ref="A38" tooltip=""/>
+    <hyperlink r:id="rId25" ref="A39" tooltip=""/>
+    <hyperlink r:id="rId26" ref="A40" tooltip=""/>
+    <hyperlink r:id="rId27" ref="A41" tooltip=""/>
+    <hyperlink r:id="rId28" ref="A42" tooltip=""/>
+    <hyperlink r:id="rId29" ref="A44" tooltip=""/>
+    <hyperlink r:id="rId30" ref="A45" tooltip=""/>
+    <hyperlink r:id="rId31" ref="A47" tooltip=""/>
+    <hyperlink r:id="rId32" ref="A48" tooltip=""/>
+    <hyperlink r:id="rId33" ref="A51" tooltip=""/>
+    <hyperlink r:id="rId34" ref="A52" tooltip=""/>
+    <hyperlink r:id="rId35" ref="A53" tooltip=""/>
+    <hyperlink r:id="rId36" ref="A54" tooltip=""/>
+    <hyperlink r:id="rId37" ref="A55" tooltip=""/>
+    <hyperlink r:id="rId38" ref="A56" tooltip=""/>
+    <hyperlink r:id="rId39" ref="A58" tooltip=""/>
+    <hyperlink r:id="rId40" ref="A59" tooltip=""/>
+    <hyperlink r:id="rId41" ref="A60" tooltip=""/>
+    <hyperlink r:id="rId42" ref="A61" tooltip=""/>
+    <hyperlink r:id="rId43" ref="A62" tooltip=""/>
+    <hyperlink r:id="rId44" ref="A65" tooltip=""/>
+    <hyperlink r:id="rId45" ref="A67" tooltip=""/>
+    <hyperlink r:id="rId46" ref="A68" tooltip=""/>
+    <hyperlink r:id="rId47" ref="A69" tooltip=""/>
+    <hyperlink r:id="rId48" ref="A70" tooltip=""/>
+    <hyperlink r:id="rId49" ref="A71" tooltip=""/>
+    <hyperlink r:id="rId50" ref="A72" tooltip=""/>
+    <hyperlink r:id="rId51" ref="A74" tooltip=""/>
+    <hyperlink r:id="rId52" ref="A75" tooltip=""/>
+    <hyperlink r:id="rId53" ref="A78" tooltip=""/>
+    <hyperlink r:id="rId54" ref="A79" tooltip=""/>
+    <hyperlink r:id="rId55" ref="A81" tooltip=""/>
+    <hyperlink r:id="rId56" ref="A82" tooltip=""/>
+    <hyperlink r:id="rId57" ref="A84" tooltip=""/>
+    <hyperlink r:id="rId58" ref="A85" tooltip=""/>
+    <hyperlink r:id="rId59" ref="A87" tooltip=""/>
+    <hyperlink r:id="rId60" ref="A88" tooltip=""/>
+    <hyperlink r:id="rId61" ref="A90" tooltip=""/>
+    <hyperlink r:id="rId62" ref="A91" tooltip=""/>
+    <hyperlink r:id="rId63" ref="A93" tooltip=""/>
+    <hyperlink r:id="rId64" ref="A94" tooltip=""/>
+    <hyperlink r:id="rId65" ref="A95" tooltip=""/>
+    <hyperlink r:id="rId66" ref="A97" tooltip=""/>
+    <hyperlink r:id="rId67" ref="A98" tooltip=""/>
+    <hyperlink r:id="rId68" ref="A99" tooltip=""/>
+    <hyperlink r:id="rId69" ref="A100" tooltip=""/>
+    <hyperlink r:id="rId70" ref="A101" tooltip=""/>
+    <hyperlink r:id="rId71" ref="A102" tooltip=""/>
+    <hyperlink r:id="rId72" ref="A103" tooltip=""/>
+    <hyperlink r:id="rId73" ref="A104" tooltip=""/>
+    <hyperlink r:id="rId74" ref="A105" tooltip=""/>
+    <hyperlink r:id="rId75" ref="A106" tooltip=""/>
+    <hyperlink r:id="rId76" ref="A109" tooltip=""/>
+    <hyperlink r:id="rId77" ref="A110" tooltip=""/>
+    <hyperlink r:id="rId78" ref="A111" tooltip=""/>
+    <hyperlink r:id="rId79" ref="A112" tooltip=""/>
+    <hyperlink r:id="rId80" ref="A113" tooltip=""/>
+    <hyperlink r:id="rId81" ref="A114" tooltip=""/>
+    <hyperlink r:id="rId82" ref="A115" tooltip=""/>
+    <hyperlink r:id="rId83" ref="A117" tooltip=""/>
+    <hyperlink r:id="rId84" ref="A119" tooltip=""/>
+    <hyperlink r:id="rId85" ref="A120" tooltip=""/>
+    <hyperlink r:id="rId86" ref="A121" tooltip=""/>
+    <hyperlink r:id="rId87" ref="A122" tooltip=""/>
+    <hyperlink r:id="rId88" ref="A124" tooltip=""/>
+    <hyperlink r:id="rId89" ref="A125" tooltip=""/>
+    <hyperlink r:id="rId90" ref="A127" tooltip=""/>
+    <hyperlink r:id="rId91" ref="A129" tooltip=""/>
+    <hyperlink r:id="rId92" ref="A131" tooltip=""/>
+    <hyperlink r:id="rId93" ref="A132" tooltip=""/>
+    <hyperlink r:id="rId94" ref="A133" tooltip=""/>
+    <hyperlink r:id="rId95" ref="A134" tooltip=""/>
+    <hyperlink r:id="rId96" ref="A136" tooltip=""/>
+    <hyperlink r:id="rId97" ref="A137" tooltip=""/>
+    <hyperlink r:id="rId98" ref="A139" tooltip=""/>
+    <hyperlink r:id="rId99" ref="A144" tooltip=""/>
+    <hyperlink r:id="rId100" ref="A145" tooltip=""/>
+    <hyperlink r:id="rId101" ref="A146" tooltip=""/>
+    <hyperlink r:id="rId102" ref="A147" tooltip=""/>
+    <hyperlink r:id="rId103" ref="A148" tooltip=""/>
+    <hyperlink r:id="rId104" ref="A149" tooltip=""/>
+    <hyperlink r:id="rId105" ref="A150" tooltip=""/>
+    <hyperlink r:id="rId106" ref="A151" tooltip=""/>
+    <hyperlink r:id="rId107" ref="A153" tooltip=""/>
+    <hyperlink r:id="rId108" ref="A154" tooltip=""/>
+    <hyperlink r:id="rId109" ref="A155" tooltip=""/>
+    <hyperlink r:id="rId110" ref="A156" tooltip=""/>
+    <hyperlink r:id="rId111" ref="A158" tooltip=""/>
+    <hyperlink r:id="rId112" ref="A159" tooltip=""/>
+    <hyperlink r:id="rId113" ref="A161" tooltip=""/>
+    <hyperlink r:id="rId114" ref="A163" tooltip=""/>
+    <hyperlink r:id="rId115" ref="A164" tooltip=""/>
+    <hyperlink r:id="rId116" ref="A166" tooltip=""/>
+    <hyperlink r:id="rId117" ref="A167" tooltip=""/>
+    <hyperlink r:id="rId118" ref="A168" tooltip=""/>
+    <hyperlink r:id="rId119" ref="A169" tooltip=""/>
+    <hyperlink r:id="rId120" ref="A171" tooltip=""/>
+    <hyperlink r:id="rId121" ref="A172" tooltip=""/>
+    <hyperlink r:id="rId122" ref="A173" tooltip=""/>
+    <hyperlink r:id="rId123" ref="A174" tooltip=""/>
+    <hyperlink r:id="rId124" ref="A175" tooltip=""/>
+    <hyperlink r:id="rId125" ref="A178" tooltip=""/>
+    <hyperlink r:id="rId126" ref="A179" tooltip=""/>
+    <hyperlink r:id="rId127" ref="A180" tooltip=""/>
+    <hyperlink r:id="rId128" ref="A181" tooltip=""/>
+    <hyperlink r:id="rId129" ref="A182" tooltip=""/>
+    <hyperlink r:id="rId130" ref="A184" tooltip=""/>
+    <hyperlink r:id="rId131" ref="A185" tooltip=""/>
+    <hyperlink r:id="rId132" ref="A186" tooltip=""/>
+    <hyperlink r:id="rId133" ref="A187" tooltip=""/>
+    <hyperlink r:id="rId134" ref="A189" tooltip=""/>
+    <hyperlink r:id="rId135" ref="A191" tooltip=""/>
+    <hyperlink r:id="rId136" ref="A193" tooltip=""/>
+    <hyperlink r:id="rId137" ref="A194" tooltip=""/>
+    <hyperlink r:id="rId138" ref="A195" tooltip=""/>
+    <hyperlink r:id="rId138" ref="A196" tooltip=""/>
+    <hyperlink r:id="rId139" ref="A197" tooltip=""/>
+    <hyperlink r:id="rId140" ref="A198" tooltip=""/>
+    <hyperlink r:id="rId141" ref="A201" tooltip=""/>
+    <hyperlink r:id="rId142" ref="A202" tooltip=""/>
+    <hyperlink r:id="rId143" ref="A203" tooltip=""/>
+    <hyperlink r:id="rId144" ref="A205" tooltip=""/>
+    <hyperlink r:id="rId145" ref="A206" tooltip=""/>
+    <hyperlink r:id="rId146" ref="A207" tooltip=""/>
+    <hyperlink r:id="rId147" ref="A209" tooltip=""/>
+    <hyperlink r:id="rId148" ref="A210" tooltip=""/>
+    <hyperlink r:id="rId149" ref="A212" tooltip=""/>
+    <hyperlink r:id="rId150" ref="A213" tooltip=""/>
+    <hyperlink r:id="rId151" ref="A214" tooltip=""/>
+    <hyperlink r:id="rId152" ref="A215" tooltip=""/>
+    <hyperlink r:id="rId153" ref="A216" tooltip=""/>
+    <hyperlink r:id="rId154" ref="A217" tooltip=""/>
+    <hyperlink r:id="rId155" ref="A218" tooltip=""/>
+    <hyperlink r:id="rId156" ref="A220" tooltip=""/>
+    <hyperlink r:id="rId157" ref="A221" tooltip=""/>
+    <hyperlink r:id="rId158" ref="A222" tooltip=""/>
+    <hyperlink r:id="rId159" ref="A223" tooltip=""/>
+    <hyperlink r:id="rId160" ref="A224" tooltip=""/>
+    <hyperlink r:id="rId161" ref="A226" tooltip=""/>
+    <hyperlink r:id="rId162" ref="A228" tooltip=""/>
+    <hyperlink r:id="rId163" ref="A231" tooltip=""/>
+    <hyperlink r:id="rId164" ref="A232" tooltip=""/>
+    <hyperlink r:id="rId165" ref="A234" tooltip=""/>
+    <hyperlink r:id="rId166" ref="A236" tooltip=""/>
+    <hyperlink r:id="rId167" ref="A238" tooltip=""/>
+    <hyperlink r:id="rId168" ref="A239" tooltip=""/>
+    <hyperlink r:id="rId169" ref="A240" tooltip=""/>
+    <hyperlink r:id="rId170" ref="A241" tooltip=""/>
+    <hyperlink r:id="rId171" ref="A242" tooltip=""/>
+    <hyperlink r:id="rId172" ref="A244" tooltip=""/>
+    <hyperlink r:id="rId173" ref="A245" tooltip=""/>
+    <hyperlink r:id="rId174" ref="A247" tooltip=""/>
+    <hyperlink r:id="rId175" ref="A248" tooltip=""/>
+    <hyperlink r:id="rId176" ref="A249" tooltip=""/>
+    <hyperlink r:id="rId177" ref="A250" tooltip=""/>
+    <hyperlink r:id="rId178" ref="A251" tooltip=""/>
+    <hyperlink r:id="rId179" ref="A252" tooltip=""/>
+    <hyperlink r:id="rId180" ref="A253" tooltip=""/>
+    <hyperlink r:id="rId181" ref="A254" tooltip=""/>
+    <hyperlink r:id="rId182" ref="A255" tooltip=""/>
+    <hyperlink r:id="rId183" ref="A256" tooltip=""/>
+    <hyperlink r:id="rId184" ref="A257" tooltip=""/>
+    <hyperlink r:id="rId185" ref="A258" tooltip=""/>
+    <hyperlink r:id="rId186" ref="A259" tooltip=""/>
+    <hyperlink r:id="rId187" ref="A260" tooltip=""/>
+    <hyperlink r:id="rId188" ref="A262" tooltip=""/>
+    <hyperlink r:id="rId189" ref="A263" tooltip=""/>
+    <hyperlink r:id="rId188" ref="A264" tooltip=""/>
+    <hyperlink r:id="rId190" ref="A265" tooltip=""/>
+    <hyperlink r:id="rId191" ref="A266" tooltip=""/>
+    <hyperlink r:id="rId192" ref="A267" tooltip=""/>
+    <hyperlink r:id="rId193" ref="A268" tooltip=""/>
+    <hyperlink r:id="rId194" ref="A269" tooltip=""/>
+    <hyperlink r:id="rId195" ref="A270" tooltip=""/>
+    <hyperlink r:id="rId196" ref="A271" tooltip=""/>
+    <hyperlink r:id="rId197" ref="A272" tooltip=""/>
+    <hyperlink r:id="rId198" ref="A274" tooltip=""/>
+    <hyperlink r:id="rId199" ref="A275" tooltip=""/>
+    <hyperlink r:id="rId200" ref="A276" tooltip=""/>
+    <hyperlink r:id="rId201" ref="A277" tooltip=""/>
+    <hyperlink r:id="rId202" ref="A278" tooltip=""/>
+    <hyperlink r:id="rId203" ref="A279" tooltip=""/>
+    <hyperlink r:id="rId204" ref="A280" tooltip=""/>
+    <hyperlink r:id="rId205" ref="A281" tooltip=""/>
+    <hyperlink r:id="rId206" ref="A282" tooltip=""/>
+    <hyperlink r:id="rId207" ref="A283" tooltip=""/>
+    <hyperlink r:id="rId208" ref="A284" tooltip=""/>
+    <hyperlink r:id="rId209" ref="A286" tooltip=""/>
+    <hyperlink r:id="rId210" ref="A288" tooltip=""/>
+    <hyperlink r:id="rId211" ref="A289" tooltip=""/>
+    <hyperlink r:id="rId212" ref="A290" tooltip=""/>
+    <hyperlink r:id="rId213" ref="A291" tooltip=""/>
+    <hyperlink r:id="rId214" ref="A292" tooltip=""/>
+    <hyperlink r:id="rId215" ref="A293" tooltip=""/>
+    <hyperlink r:id="rId216" ref="A295" tooltip=""/>
+    <hyperlink r:id="rId217" ref="A296" tooltip=""/>
+    <hyperlink r:id="rId218" ref="A297" tooltip=""/>
+    <hyperlink r:id="rId219" ref="A298" tooltip=""/>
+    <hyperlink r:id="rId220" ref="A300" tooltip=""/>
+    <hyperlink r:id="rId221" ref="A301" tooltip=""/>
+    <hyperlink r:id="rId222" ref="A302" tooltip=""/>
+    <hyperlink r:id="rId223" ref="A303" tooltip=""/>
+    <hyperlink r:id="rId224" ref="A305" tooltip=""/>
+    <hyperlink r:id="rId225" ref="A306" tooltip=""/>
+    <hyperlink r:id="rId226" ref="A307" tooltip=""/>
+    <hyperlink r:id="rId227" ref="A309" tooltip=""/>
+    <hyperlink r:id="rId228" ref="A311" tooltip=""/>
+    <hyperlink r:id="rId229" ref="A312" tooltip=""/>
+    <hyperlink r:id="rId230" ref="A313" tooltip=""/>
+    <hyperlink r:id="rId231" ref="A314" tooltip=""/>
+    <hyperlink r:id="rId232" ref="A315" tooltip=""/>
+    <hyperlink r:id="rId233" ref="A316" tooltip=""/>
+    <hyperlink r:id="rId234" ref="A317" tooltip=""/>
+    <hyperlink r:id="rId235" ref="A319" tooltip=""/>
+    <hyperlink r:id="rId236" ref="A320" tooltip=""/>
+    <hyperlink r:id="rId237" ref="A321" tooltip=""/>
+    <hyperlink r:id="rId238" ref="A322" tooltip=""/>
+    <hyperlink r:id="rId239" ref="A323" tooltip=""/>
+    <hyperlink r:id="rId240" ref="A324" tooltip=""/>
+    <hyperlink r:id="rId241" ref="A325" tooltip=""/>
+    <hyperlink r:id="rId242" ref="A326" tooltip=""/>
+    <hyperlink r:id="rId243" ref="A327" tooltip=""/>
+    <hyperlink r:id="rId244" ref="A328" tooltip=""/>
+    <hyperlink r:id="rId245" ref="A329" tooltip=""/>
+    <hyperlink r:id="rId246" ref="A330" tooltip=""/>
+    <hyperlink r:id="rId247" ref="A331" tooltip=""/>
+    <hyperlink r:id="rId248" ref="A332" tooltip=""/>
+    <hyperlink r:id="rId249" ref="A333" tooltip=""/>
+    <hyperlink r:id="rId250" ref="A334" tooltip=""/>
+    <hyperlink r:id="rId251" ref="A336" tooltip=""/>
+    <hyperlink r:id="rId252" ref="A338" tooltip=""/>
+    <hyperlink r:id="rId253" ref="A339" tooltip=""/>
+    <hyperlink r:id="rId254" ref="A340" tooltip=""/>
+    <hyperlink r:id="rId255" ref="A341" tooltip=""/>
+    <hyperlink r:id="rId256" ref="A342" tooltip=""/>
+    <hyperlink r:id="rId257" ref="A343" tooltip=""/>
+    <hyperlink r:id="rId258" ref="A344" tooltip=""/>
+    <hyperlink r:id="rId259" ref="A345" tooltip=""/>
+    <hyperlink r:id="rId260" ref="A346" tooltip=""/>
+    <hyperlink r:id="rId261" ref="A347" tooltip=""/>
+    <hyperlink r:id="rId262" ref="A349" tooltip=""/>
+    <hyperlink r:id="rId263" ref="A350" tooltip=""/>
+    <hyperlink r:id="rId264" ref="A351" tooltip=""/>
+    <hyperlink r:id="rId265" ref="A352" tooltip=""/>
+    <hyperlink r:id="rId266" ref="A353" tooltip=""/>
+    <hyperlink r:id="rId267" ref="A354" tooltip=""/>
+    <hyperlink r:id="rId268" ref="A355" tooltip=""/>
+    <hyperlink r:id="rId269" ref="A356" tooltip=""/>
+    <hyperlink r:id="rId270" ref="A357" tooltip=""/>
+    <hyperlink r:id="rId271" ref="A360" tooltip=""/>
+    <hyperlink r:id="rId272" ref="A361" tooltip=""/>
+    <hyperlink r:id="rId273" ref="A362" tooltip=""/>
+    <hyperlink r:id="rId274" ref="A363" tooltip=""/>
+    <hyperlink r:id="rId275" ref="A364" tooltip=""/>
+    <hyperlink r:id="rId276" ref="A365" tooltip=""/>
+    <hyperlink r:id="rId277" ref="A366" tooltip=""/>
+    <hyperlink r:id="rId278" ref="A368" tooltip=""/>
+    <hyperlink r:id="rId279" ref="A370" tooltip=""/>
+    <hyperlink r:id="rId280" ref="A371" tooltip=""/>
+    <hyperlink r:id="rId281" ref="A372" tooltip=""/>
+    <hyperlink r:id="rId282" ref="A373" tooltip=""/>
+    <hyperlink r:id="rId283" ref="A374" tooltip=""/>
+    <hyperlink r:id="rId284" ref="A375" tooltip=""/>
+    <hyperlink r:id="rId285" ref="A376" tooltip=""/>
+    <hyperlink r:id="rId286" ref="A377" tooltip=""/>
+    <hyperlink r:id="rId287" ref="A378" tooltip=""/>
+    <hyperlink r:id="rId288" ref="A380" tooltip=""/>
+    <hyperlink r:id="rId289" ref="A381" tooltip=""/>
+    <hyperlink r:id="rId290" ref="A382" tooltip=""/>
+    <hyperlink r:id="rId291" ref="A383" tooltip=""/>
+    <hyperlink r:id="rId292" ref="A384" tooltip=""/>
+    <hyperlink r:id="rId293" ref="A385" tooltip=""/>
+    <hyperlink r:id="rId294" ref="A386" tooltip=""/>
+    <hyperlink r:id="rId295" ref="A387" tooltip=""/>
+    <hyperlink r:id="rId296" ref="A388" tooltip=""/>
+    <hyperlink r:id="rId297" ref="A390" tooltip=""/>
+    <hyperlink r:id="rId298" ref="A391" tooltip=""/>
+    <hyperlink r:id="rId299" ref="A392" tooltip=""/>
+    <hyperlink r:id="rId300" ref="A393" tooltip=""/>
+    <hyperlink r:id="rId301" ref="A394" tooltip=""/>
+    <hyperlink r:id="rId302" ref="A395" tooltip=""/>
+    <hyperlink r:id="rId303" ref="A396" tooltip=""/>
+    <hyperlink r:id="rId304" ref="A397" tooltip=""/>
+    <hyperlink r:id="rId305" ref="A398" tooltip=""/>
+    <hyperlink r:id="rId306" ref="A400" tooltip=""/>
+    <hyperlink r:id="rId307" ref="A401" tooltip=""/>
+    <hyperlink r:id="rId308" ref="A402" tooltip=""/>
+    <hyperlink r:id="rId309" ref="A403" tooltip=""/>
+    <hyperlink r:id="rId310" ref="A404" tooltip=""/>
+    <hyperlink r:id="rId311" ref="A405" tooltip=""/>
+    <hyperlink r:id="rId312" ref="A406" tooltip=""/>
+    <hyperlink r:id="rId313" ref="A407" tooltip=""/>
+    <hyperlink r:id="rId314" ref="A408" tooltip=""/>
+    <hyperlink r:id="rId315" ref="A410" tooltip=""/>
+    <hyperlink r:id="rId316" ref="A411" tooltip=""/>
+    <hyperlink r:id="rId317" ref="A412" tooltip=""/>
+    <hyperlink r:id="rId318" ref="A413" tooltip=""/>
+    <hyperlink r:id="rId319" ref="A414" tooltip=""/>
+    <hyperlink r:id="rId320" ref="A416" tooltip=""/>
+    <hyperlink r:id="rId321" ref="A417" tooltip=""/>
+    <hyperlink r:id="rId322" ref="A418" tooltip=""/>
+    <hyperlink r:id="rId323" ref="A419" tooltip=""/>
+    <hyperlink r:id="rId324" ref="A420" tooltip=""/>
+    <hyperlink r:id="rId325" ref="A421" tooltip=""/>
+    <hyperlink r:id="rId326" ref="A422" tooltip=""/>
+    <hyperlink r:id="rId327" ref="A423" tooltip=""/>
+    <hyperlink r:id="rId328" ref="A424" tooltip=""/>
+    <hyperlink r:id="rId329" ref="A426" tooltip=""/>
+    <hyperlink r:id="rId330" ref="A427" tooltip=""/>
+    <hyperlink r:id="rId331" ref="A428" tooltip=""/>
+    <hyperlink r:id="rId332" ref="A429" tooltip=""/>
+    <hyperlink r:id="rId333" ref="A430" tooltip=""/>
+    <hyperlink r:id="rId334" ref="A431" tooltip=""/>
+    <hyperlink r:id="rId335" ref="A432" tooltip=""/>
+    <hyperlink r:id="rId336" ref="A434" tooltip=""/>
+    <hyperlink r:id="rId337" ref="A435" tooltip=""/>
+    <hyperlink r:id="rId338" ref="A436" tooltip=""/>
+    <hyperlink r:id="rId339" ref="A437" tooltip=""/>
+    <hyperlink r:id="rId340" ref="A438" tooltip=""/>
+    <hyperlink r:id="rId341" ref="A439" tooltip=""/>
+    <hyperlink r:id="rId342" ref="A440" tooltip=""/>
+    <hyperlink r:id="rId343" ref="A441" tooltip=""/>
+    <hyperlink r:id="rId344" ref="A443" tooltip=""/>
+    <hyperlink r:id="rId345" ref="A444" tooltip=""/>
+    <hyperlink r:id="rId346" ref="A445" tooltip=""/>
+    <hyperlink r:id="rId347" ref="A446" tooltip=""/>
+    <hyperlink r:id="rId348" ref="A447" tooltip=""/>
+    <hyperlink r:id="rId349" ref="A448" tooltip=""/>
+    <hyperlink r:id="rId350" ref="A449" tooltip=""/>
+    <hyperlink r:id="rId351" ref="A450" tooltip=""/>
+    <hyperlink r:id="rId352" ref="A451" tooltip=""/>
+    <hyperlink r:id="rId353" ref="A452" tooltip=""/>
+    <hyperlink r:id="rId354" ref="A453" tooltip=""/>
+    <hyperlink r:id="rId355" ref="A454" tooltip=""/>
+    <hyperlink r:id="rId356" ref="A456" tooltip=""/>
+    <hyperlink r:id="rId357" ref="A457" tooltip=""/>
+    <hyperlink r:id="rId358" ref="A458" tooltip=""/>
+    <hyperlink r:id="rId359" ref="A459" tooltip=""/>
+    <hyperlink r:id="rId360" ref="A460" tooltip=""/>
+    <hyperlink r:id="rId361" ref="A461" tooltip=""/>
+    <hyperlink r:id="rId362" ref="A462" tooltip=""/>
+    <hyperlink r:id="rId363" ref="A463" tooltip=""/>
+    <hyperlink r:id="rId364" ref="A464" tooltip=""/>
+    <hyperlink r:id="rId364" ref="A465" tooltip=""/>
+    <hyperlink r:id="rId365" ref="A466" tooltip=""/>
+    <hyperlink r:id="rId366" ref="A468" tooltip=""/>
+    <hyperlink r:id="rId367" ref="A469" tooltip=""/>
+    <hyperlink r:id="rId368" ref="A470" tooltip=""/>
+    <hyperlink r:id="rId369" ref="A471" tooltip=""/>
+    <hyperlink r:id="rId370" ref="A472" tooltip=""/>
+    <hyperlink r:id="rId371" ref="A473" tooltip=""/>
+    <hyperlink r:id="rId372" ref="A474" tooltip=""/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="History, Geography, Non-Fiction" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Inteligence Documents" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Internet Age PDFs" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Psychedelics" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="1109">
   <si>
     <t xml:space="preserve">Ancient Middle-East</t>
   </si>
@@ -3308,6 +3309,62 @@
   </si>
   <si>
     <t xml:space="preserve">A Critica Literaria no Brasil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychedelics Encyclopedia
+Peter Stafford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science and Romance of Selected Herbs Used in Medicine and Religious Ceremony
+Anthony K. Andoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narcotic Plants
+William A. Emboden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants of the Gods: Their Sacred, Healing, and Hallucinogenic Powers
+Richard Evans Schultes, Albert Hofmann, Christian Rätsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psilocybin: Magic Mushroom Grower’s Guide: A Handbook for Psilocybin Enthusiasts
+O. T. Oss, O. N. Oeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codex Seraphinianus
+Luigi Serafini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Hallucinations: Being an Account of the Author’s Extraordinary Adventures in the Devil’s Paradise
+Terence McKenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Invisible Landscape: Mind, Hallucinogens, and the I Ching
+Terence McKenna, Dennis McKenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food of the Gods: The Search for the Original Tree of Knowledge A Radical History of Plants, Drugs, and Human Evolution
+Terence McKenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Psychedelic Experience: A Manual Based on the Tibetan Book of the Dead (Citadel Underground)
+Timothy Leary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSD My Problem Child: Reflections on Sacred Drugs, Mysticism and Science
+Albert Hofmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Doors of Perception and Heaven and Hell
+Aldous Huxley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Encyclopedia of Psychoactive Plants: Ethnopharmacology and Its Applications
+Christian Ratsch, Albert Hofmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Long Trip: A Prehistory of Psychedelia
+Paul Devereux</t>
   </si>
 </sst>
 </file>
@@ -3375,23 +3432,19 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Open Sans"/>
     </font>
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Symbol"/>
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -8594,6 +8647,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="85.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5">
+      <c r="A1" s="61" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="2" ht="38.25">
+      <c r="A2" s="61" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5">
+      <c r="A3" s="61" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4" ht="51">
+      <c r="A4" s="61" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25">
+      <c r="A5" s="61" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5">
+      <c r="A6" s="61" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" ht="51">
+      <c r="A7" s="61" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25">
+      <c r="A8" s="61" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="9" ht="51">
+      <c r="A9" s="61" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="10" ht="51">
+      <c r="A10" s="61" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25">
+      <c r="A11" s="61" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5">
+      <c r="A12" s="61" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5">
+      <c r="A13" s="61" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5">
+      <c r="A14" s="61" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr filterMode="0">
@@ -51745,7 +51888,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="43.421875"/>
   </cols>

--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -4,7 +4,7 @@
   <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="History, Geography, Non-Fiction" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1118">
   <si>
     <t xml:space="preserve">Ancient Middle-East</t>
   </si>
@@ -243,6 +243,9 @@
     <t xml:space="preserve">History of the Britons</t>
   </si>
   <si>
+    <t xml:space="preserve">The forced War</t>
+  </si>
+  <si>
     <t xml:space="preserve">Snorri Sturluson</t>
   </si>
   <si>
@@ -1209,7 +1212,13 @@
     <t>Tanakh</t>
   </si>
   <si>
-    <t xml:space="preserve">The Babylonian Talmud</t>
+    <t xml:space="preserve">The Babylonian Talmud (Soncino English translation of 1935)</t>
+  </si>
+  <si>
+    <t>https://zinaidabunaser.com/2012/08/10/extreme-quotes-from-judaism/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munich Codex Hebraica 95, Extractiones de Talmud (Latim)</t>
   </si>
   <si>
     <t>Mishna</t>
@@ -4366,7 +4375,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A16" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A76" zoomScale="100" workbookViewId="0">
       <selection activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4815,7 +4824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" ht="13.800000000000001">
+    <row r="65" ht="14.25">
       <c r="A65" s="5"/>
       <c r="B65" s="2" t="s">
         <v>61</v>
@@ -4824,51 +4833,51 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" ht="13.800000000000001">
+    <row r="66" ht="14.25">
       <c r="A66" s="5"/>
       <c r="B66" s="2"/>
     </row>
-    <row r="67" ht="13.800000000000001">
+    <row r="67" ht="14.25">
       <c r="A67" s="5"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" ht="13.800000000000001">
+    <row r="68" ht="14.25">
       <c r="A68" s="5"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" ht="13.800000000000001">
+    <row r="69" ht="14.25">
       <c r="A69" s="5"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" ht="13.800000000000001">
+    <row r="70" ht="14.25">
       <c r="A70" s="5"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" ht="13.800000000000001">
+    <row r="71" ht="14.25">
       <c r="A71" s="5"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" ht="13.800000000000001">
+    <row r="72" ht="14.25">
       <c r="A72" s="5"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" ht="13.800000000000001">
+    <row r="73" ht="14.25">
       <c r="A73" s="5"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" ht="13.800000000000001">
+    <row r="74" ht="14.25">
       <c r="A74" s="5"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" ht="13.800000000000001">
+    <row r="75" ht="14.25">
       <c r="A75" s="5"/>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" ht="13.800000000000001">
+    <row r="76" ht="14.25">
       <c r="A76" s="5"/>
       <c r="B76" s="2"/>
     </row>
-    <row r="77" ht="13.800000000000001">
+    <row r="77" ht="14.25">
       <c r="A77" s="7" t="s">
         <v>63</v>
       </c>
@@ -4879,21 +4888,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" ht="13.800000000000001">
+    <row r="78" ht="14.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="79" ht="13.800000000000001">
+    <row r="79" ht="14.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" ht="26.850000000000001">
+    <row r="80" ht="28.5">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
         <v>68</v>
@@ -4902,7 +4911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" ht="13.800000000000001">
+    <row r="81" ht="14.25">
       <c r="A81" s="7"/>
       <c r="B81" s="2" t="s">
         <v>70</v>
@@ -4917,183 +4926,185 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" ht="13.800000000000001">
+    <row r="84" ht="14.25">
       <c r="A84" s="7"/>
       <c r="B84" s="2"/>
     </row>
-    <row r="85" ht="13.800000000000001">
+    <row r="85" ht="14.25">
       <c r="A85" s="7"/>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" ht="13.800000000000001">
+    <row r="86" ht="14.25">
       <c r="A86" s="7"/>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" ht="13.800000000000001">
+    <row r="87" ht="14.25">
       <c r="A87" s="7"/>
       <c r="B87" s="2"/>
     </row>
-    <row r="88" ht="13.800000000000001">
+    <row r="88" ht="14.25">
       <c r="A88" s="7"/>
       <c r="B88" s="2"/>
     </row>
-    <row r="89" ht="13.800000000000001">
+    <row r="89" ht="14.25">
       <c r="A89" s="7"/>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" ht="13.800000000000001">
+    <row r="90" ht="14.25">
       <c r="A90" s="7"/>
       <c r="B90" s="2"/>
     </row>
-    <row r="91" ht="13.800000000000001">
+    <row r="91" ht="14.25">
       <c r="A91" s="7"/>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" ht="13.800000000000001">
+    <row r="92" ht="14.25">
       <c r="A92" s="7"/>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" ht="13.800000000000001">
+    <row r="93" ht="14.25">
       <c r="A93" s="7"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" ht="13.800000000000001">
+    <row r="94" ht="14.25">
       <c r="A94" s="7"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" ht="13.800000000000001">
+    <row r="95" ht="14.25">
       <c r="A95" s="7"/>
       <c r="B95" s="2"/>
     </row>
-    <row r="96" ht="13.800000000000001">
+    <row r="96" ht="14.25">
       <c r="A96" s="7"/>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" ht="13.800000000000001">
+    <row r="97" ht="14.25">
       <c r="A97" s="7"/>
       <c r="B97" s="2"/>
     </row>
-    <row r="98" ht="13.800000000000001">
+    <row r="98" ht="14.25">
       <c r="A98" s="7"/>
       <c r="B98" s="2"/>
     </row>
-    <row r="99" ht="13.800000000000001">
+    <row r="99" ht="14.25">
       <c r="A99" s="9"/>
       <c r="B99" s="2"/>
     </row>
-    <row r="100" ht="13.800000000000001">
+    <row r="100" ht="14.25">
       <c r="A100" s="9"/>
       <c r="B100" s="2"/>
     </row>
-    <row r="101" ht="13.800000000000001">
+    <row r="101" ht="14.25">
       <c r="A101" s="9"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" ht="13.800000000000001">
+      <c r="B101" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
       <c r="A102" s="9"/>
       <c r="B102" s="2"/>
     </row>
-    <row r="103" ht="13.800000000000001">
+    <row r="103" ht="14.25">
       <c r="A103" s="9"/>
       <c r="B103" s="2"/>
     </row>
-    <row r="104" ht="13.800000000000001">
+    <row r="104" ht="14.25">
       <c r="A104" s="9"/>
       <c r="B104" s="2"/>
     </row>
-    <row r="105" ht="13.800000000000001">
+    <row r="105" ht="14.25">
       <c r="A105" s="9"/>
       <c r="B105" s="2"/>
     </row>
-    <row r="106" ht="13.800000000000001">
+    <row r="106" ht="14.25">
       <c r="A106" s="9"/>
       <c r="B106" s="2"/>
     </row>
-    <row r="107" ht="13.800000000000001">
+    <row r="107" ht="14.25">
       <c r="A107" s="9"/>
       <c r="B107" s="2"/>
     </row>
-    <row r="108" ht="13.800000000000001">
+    <row r="108" ht="14.25">
       <c r="A108" s="9"/>
       <c r="B108" s="2"/>
     </row>
-    <row r="109" ht="13.800000000000001">
+    <row r="109" ht="14.25">
       <c r="A109" s="9"/>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" ht="13.800000000000001">
+    <row r="110" ht="14.25">
       <c r="A110" s="9"/>
       <c r="B110" s="2"/>
     </row>
-    <row r="111" ht="13.800000000000001">
+    <row r="111" ht="14.25">
       <c r="A111" s="9"/>
       <c r="B111" s="2"/>
     </row>
-    <row r="112" ht="13.800000000000001">
+    <row r="112" ht="14.25">
       <c r="A112" s="9"/>
       <c r="B112" s="2"/>
     </row>
-    <row r="113" ht="13.800000000000001">
+    <row r="113" ht="14.25">
       <c r="A113" s="9"/>
       <c r="B113" s="2"/>
     </row>
-    <row r="114" ht="13.800000000000001">
+    <row r="114" ht="14.25">
       <c r="A114" s="9"/>
       <c r="B114" s="2"/>
     </row>
-    <row r="115" ht="13.800000000000001">
+    <row r="115" ht="14.25">
       <c r="A115" s="9"/>
       <c r="B115" s="2"/>
     </row>
-    <row r="116" ht="13.800000000000001">
+    <row r="116" ht="14.25">
       <c r="A116" s="9"/>
       <c r="B116" s="2"/>
     </row>
-    <row r="117" ht="13.800000000000001">
+    <row r="117" ht="14.25">
       <c r="A117" s="9"/>
       <c r="B117" s="2"/>
     </row>
-    <row r="118" ht="13.800000000000001">
+    <row r="118" ht="14.25">
       <c r="A118" s="9"/>
       <c r="B118" s="2"/>
     </row>
-    <row r="119" ht="13.800000000000001">
+    <row r="119" ht="14.25">
       <c r="A119" s="9"/>
       <c r="B119" s="2"/>
     </row>
-    <row r="120" ht="13.800000000000001">
+    <row r="120" ht="14.25">
       <c r="A120" s="9"/>
       <c r="B120" s="2"/>
     </row>
-    <row r="121" ht="13.800000000000001">
+    <row r="121" ht="14.25">
       <c r="A121" s="9"/>
       <c r="B121" s="2"/>
     </row>
-    <row r="122" ht="13.800000000000001">
+    <row r="122" ht="14.25">
       <c r="A122" s="9"/>
       <c r="B122" s="2"/>
     </row>
-    <row r="123" ht="13.800000000000001">
+    <row r="123" ht="14.25">
       <c r="A123" s="9"/>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" ht="13.800000000000001">
+    <row r="124" ht="14.25">
       <c r="A124" s="9"/>
       <c r="B124" s="2"/>
     </row>
-    <row r="125" ht="13.800000000000001">
+    <row r="125" ht="14.25">
       <c r="A125" s="9"/>
       <c r="B125" s="2"/>
     </row>
-    <row r="126" ht="13.800000000000001">
+    <row r="126" ht="14.25">
       <c r="A126" s="9"/>
       <c r="B126" s="2"/>
     </row>
-    <row r="127" ht="13.800000000000001">
+    <row r="127" ht="14.25">
       <c r="A127" s="9"/>
       <c r="B127" s="2"/>
     </row>
-    <row r="128" ht="13.800000000000001">
+    <row r="128" ht="14.25">
       <c r="A128" s="9"/>
       <c r="B128" s="2"/>
     </row>
@@ -8693,2372 +8704,2372 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="64" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="65" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="66" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="64" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="65" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="66" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="65" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="66" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="65" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="66" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="65" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="66" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="65" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="66" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="66" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="66" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="66" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="66" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="66" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="64" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="65" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="66" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="66" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="66" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="66" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="66" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="66" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="66" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="66" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="66" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="65" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="66" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="65" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="66" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="66" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="66" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="66" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="66" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="66" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="65" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="66" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="66" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="65" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="66" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="66" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="64" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="65" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="66" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="66" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="66" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="66" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="66" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="66" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="65" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="66" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="66" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="66" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="66" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="66" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="65" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="67" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="66" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="65" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="66" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="66" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="66" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="66" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="66" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="66" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="65" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="66" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="66" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="65" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="68" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="33" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="35" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="65" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="66" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="66" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="65" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="66" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="66" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="65" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="35" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="35" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="65" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="66" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="66" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="65" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="66" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="66" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="66" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="65" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="66" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="66" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="66" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="66" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="66" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="66" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="66" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="66" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="66" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="66" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="64" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="65" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="66" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="66" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="66" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="66" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="66" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="66" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="66" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="65" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="66" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="65" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="66" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="66" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="66" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="66" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="65" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="66" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="66" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="65" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="66" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="65" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="66" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="130" ht="15">
       <c r="A130" s="65" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="66" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="66" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="66" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="66" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="135" ht="15">
       <c r="A135" s="65" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="66" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="66" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="138" ht="15">
       <c r="A138" s="65" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="66" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="140" ht="15">
       <c r="A140" s="65" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="141" ht="15">
       <c r="A141" s="69" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="142" ht="18">
       <c r="A142" s="64" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="143" ht="15">
       <c r="A143" s="65" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="66" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="66" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="66" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="66" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="66" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="66" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="66" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="66" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="152" ht="15">
       <c r="A152" s="65" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="66" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="66" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="66" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="66" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="157" ht="15">
       <c r="A157" s="65" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="66" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="66" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="160" ht="15">
       <c r="A160" s="65" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="66" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="162" ht="15">
       <c r="A162" s="65" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="66" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="66" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="165" ht="15">
       <c r="A165" s="65" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="66" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="66" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="66" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="66" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="170" ht="15">
       <c r="A170" s="65" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="66" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="66" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="66" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="66" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="66" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="176" ht="18">
       <c r="A176" s="64" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="177" ht="15">
       <c r="A177" s="65" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="66" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="66" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="66" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="66" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="66" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="183" ht="15">
       <c r="A183" s="65" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="66" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="66" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="66" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="66" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="188" ht="15">
       <c r="A188" s="65" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="66" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="190" ht="15">
       <c r="A190" s="65" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="66" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="192" ht="15">
       <c r="A192" s="65" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="66" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="66" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="66" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="66" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="66" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="66" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="65" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="65" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="66" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="66" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="66" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="65" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="66" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="66" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="66" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="65" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="66" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="66" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="65" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="66" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="66" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="66" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="66" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="66" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="66" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="66" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="65" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="66" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="66" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="66" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="66" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="66" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="65" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="66" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="65" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="66" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="64" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="65" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="66" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="66" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="65" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="66" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="65" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="66" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="65" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="66" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="66" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="66" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="66" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="66" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="65" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="66" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="66" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="65" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="66" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="66" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="66" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="66" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="66" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="66" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="66" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="66" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="66" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="66" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="66" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="66" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="66" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="66" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="65" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="66" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="66" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="66" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="66" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="66" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="66" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="66" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="66" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="66" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="66" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="66" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="65" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="66" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="66" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="66" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="66" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="66" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="66" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="66" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="66" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="66" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="66" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="66" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="65" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="66" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="65" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="66" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="66" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="66" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="66" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="66" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="66" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="65" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="66" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="66" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="66" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="66" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="65" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="66" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="66" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="66" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="66" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="65" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="66" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="66" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="66" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="65" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="66" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="65" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="66" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="66" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="66" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="66" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="66" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="66" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="66" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="65" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="66" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="66" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="66" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="66" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="66" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="66" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="66" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="66" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="66" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="66" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="66" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="66" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="66" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="66" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="66" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="66" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="65" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="66" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="65" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="66" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="66" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="66" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="66" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="66" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="66" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="66" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="66" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="66" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="66" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="65" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="66" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="66" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="66" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="66" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="66" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="66" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="66" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="66" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="66" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="64" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="65" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="66" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="66" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="66" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="66" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="66" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="66" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="66" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="65" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="66" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="65" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="66" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="66" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="66" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="66" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="66" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="66" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="66" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="66" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="66" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="65" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="66" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="66" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="66" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="66" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="66" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="66" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="66" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="66" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="66" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="65" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="66" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="66" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="66" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="66" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="66" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="66" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="66" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="66" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="66" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="65" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="66" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="66" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="66" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="66" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="66" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="66" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="66" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="66" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="66" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="65" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="66" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="66" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="66" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="66" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="66" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="65" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="66" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="66" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="66" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="66" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="66" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="66" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="66" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="66" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="66" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="65" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="66" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="66" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="66" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="66" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="66" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="66" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="66" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="65" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="66" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="66" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="66" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="66" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="66" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="66" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="66" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="66" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="65" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="66" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="66" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="66" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="66" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="66" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="66" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="66" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="66" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="66" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="66" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="66" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="66" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="65" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="66" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="66" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="66" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="66" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="66" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="66" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="66" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="66" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="66" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="66" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="66" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="67" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="66" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="66" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="66" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="66" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="66" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="66" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="66" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="475">
@@ -11465,72 +11476,72 @@
   <sheetData>
     <row r="1" ht="25.5">
       <c r="A1" s="63" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="2" ht="25.5">
       <c r="A2" s="63" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" ht="25.5">
       <c r="A3" s="63" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="4" ht="25.5">
       <c r="A4" s="63" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="5" ht="25.5">
       <c r="A5" s="63" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6" ht="25.5">
       <c r="A6" s="63" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" ht="38.25">
       <c r="A7" s="63" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" ht="25.5">
       <c r="A8" s="63" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="9" ht="38.25">
       <c r="A9" s="63" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10" ht="25.5">
       <c r="A10" s="63" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" ht="25.5">
       <c r="A11" s="63" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="12" ht="25.5">
       <c r="A12" s="63" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="13" ht="25.5">
       <c r="A13" s="63" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="14" ht="25.5">
       <c r="A14" s="63" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -11920,26 +11931,26 @@
         <v>63</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="7"/>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" s="7"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" ht="14.25">
@@ -12029,13 +12040,13 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" ht="14.25">
@@ -12137,21 +12148,21 @@
       <c r="A111" s="9"/>
       <c r="B111" s="2"/>
       <c r="C111" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="9"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="9"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" ht="14.25">
@@ -12162,7 +12173,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" ht="14.25">
@@ -12184,686 +12195,686 @@
       <c r="A119" s="9"/>
       <c r="B119" s="2"/>
       <c r="C119" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="9"/>
       <c r="B120" s="2"/>
       <c r="C120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="9"/>
       <c r="B121" s="2"/>
       <c r="C121" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="9"/>
       <c r="B122" s="2"/>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="9"/>
       <c r="B123" s="2"/>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" ht="14.25">
       <c r="A124" s="9"/>
       <c r="B124" s="2"/>
       <c r="C124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="9"/>
       <c r="B125" s="2"/>
       <c r="C125" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="9"/>
       <c r="B126" s="2"/>
       <c r="C126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="9"/>
       <c r="B127" s="2"/>
       <c r="C127" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="9"/>
       <c r="B128" s="2"/>
       <c r="C128" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" ht="13.800000000000001">
       <c r="A129" s="9"/>
       <c r="B129" s="2"/>
       <c r="C129" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" ht="13.800000000000001">
       <c r="A130" s="9"/>
       <c r="B130" s="2"/>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" ht="13.800000000000001">
       <c r="A131" s="9"/>
       <c r="B131" s="2"/>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" ht="13.800000000000001">
       <c r="A132" s="9"/>
       <c r="B132" s="2"/>
       <c r="C132" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" ht="13.800000000000001">
       <c r="A133" s="9"/>
       <c r="B133" s="2"/>
       <c r="C133" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" ht="13.800000000000001">
       <c r="A134" s="9"/>
       <c r="B134" s="2"/>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" ht="13.800000000000001">
       <c r="A135" s="9"/>
       <c r="B135" s="2"/>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" ht="13.800000000000001">
       <c r="A136" s="9"/>
       <c r="B136" s="2"/>
       <c r="C136" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" ht="13.800000000000001">
       <c r="A137" s="9"/>
       <c r="B137" s="2"/>
       <c r="C137" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" ht="13.800000000000001">
       <c r="A138" s="9"/>
       <c r="B138" s="2"/>
       <c r="C138" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" ht="13.800000000000001">
       <c r="A139" s="9"/>
       <c r="B139" s="2"/>
       <c r="C139" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" ht="13.800000000000001">
       <c r="A140" s="9"/>
       <c r="B140" s="2"/>
       <c r="C140" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" ht="13.800000000000001">
       <c r="A141" s="9"/>
       <c r="B141" s="2"/>
       <c r="C141" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" ht="13.800000000000001">
       <c r="A142" s="9"/>
       <c r="B142" s="2"/>
       <c r="C142" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" ht="13.800000000000001">
       <c r="A143" s="9"/>
       <c r="B143" s="2"/>
       <c r="C143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" ht="13.800000000000001">
       <c r="A144" s="9"/>
       <c r="B144" s="2"/>
       <c r="C144" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" ht="13.800000000000001">
       <c r="A145" s="9"/>
       <c r="B145" s="2"/>
       <c r="C145" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" ht="13.800000000000001">
       <c r="A146" s="9"/>
       <c r="B146" s="2"/>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" ht="13.800000000000001">
       <c r="A147" s="9"/>
       <c r="B147" s="2"/>
       <c r="C147" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" ht="13.800000000000001">
       <c r="A148" s="9"/>
       <c r="B148" s="2"/>
       <c r="C148" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" ht="13.800000000000001">
       <c r="A149" s="9"/>
       <c r="B149" s="2"/>
       <c r="C149" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" ht="13.800000000000001">
       <c r="A150" s="9"/>
       <c r="B150" s="2"/>
       <c r="C150" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" ht="13.800000000000001">
       <c r="A151" s="9"/>
       <c r="B151" s="2"/>
       <c r="C151" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" ht="13.800000000000001">
       <c r="A152" s="9"/>
       <c r="B152" s="2"/>
       <c r="C152" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" ht="13.800000000000001">
       <c r="A153" s="9"/>
       <c r="B153" s="2"/>
       <c r="C153" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" ht="13.800000000000001">
       <c r="A154" s="9"/>
       <c r="B154" s="2"/>
       <c r="C154" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" ht="13.800000000000001">
       <c r="A155" s="9"/>
       <c r="B155" s="2"/>
       <c r="C155" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" ht="13.800000000000001">
       <c r="A156" s="9"/>
       <c r="B156" s="2"/>
       <c r="C156" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157" ht="13.800000000000001">
       <c r="A157" s="9"/>
       <c r="B157" s="2"/>
       <c r="C157" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" ht="13.800000000000001">
       <c r="A158" s="9"/>
       <c r="B158" s="2"/>
       <c r="C158" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" ht="13.800000000000001">
       <c r="A159" s="9"/>
       <c r="B159" s="2"/>
       <c r="C159" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" ht="13.800000000000001">
       <c r="A160" s="9"/>
       <c r="B160" s="2"/>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161" ht="13.800000000000001">
       <c r="A161" s="9"/>
       <c r="B161" s="2"/>
       <c r="C161" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" ht="13.800000000000001">
       <c r="A162" s="9"/>
       <c r="B162" s="2"/>
       <c r="C162" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" ht="13.800000000000001">
       <c r="A163" s="9"/>
       <c r="B163" s="2"/>
       <c r="C163" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" ht="13.800000000000001">
       <c r="A164" s="9"/>
       <c r="B164" s="2"/>
       <c r="C164" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" ht="13.800000000000001">
       <c r="A165" s="9"/>
       <c r="B165" s="2"/>
       <c r="C165" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" ht="13.800000000000001">
       <c r="A166" s="9"/>
       <c r="B166" s="2"/>
       <c r="C166" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" ht="13.800000000000001">
       <c r="A167" s="9"/>
       <c r="B167" s="2"/>
       <c r="C167" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" ht="13.800000000000001">
       <c r="A168" s="9"/>
       <c r="B168" s="2"/>
       <c r="C168" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" ht="13.800000000000001">
       <c r="A169" s="9"/>
       <c r="B169" s="2"/>
       <c r="C169" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" ht="13.800000000000001">
       <c r="A170" s="9"/>
       <c r="B170" s="2"/>
       <c r="C170" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171" ht="13.800000000000001">
       <c r="A171" s="9"/>
       <c r="B171" s="2"/>
       <c r="C171" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" ht="13.800000000000001">
       <c r="A172" s="9"/>
       <c r="B172" s="2"/>
       <c r="C172" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" ht="13.800000000000001">
       <c r="A173" s="9"/>
       <c r="B173" s="2"/>
       <c r="C173" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" ht="13.800000000000001">
       <c r="A174" s="9"/>
       <c r="B174" s="2"/>
       <c r="C174" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" ht="13.800000000000001">
       <c r="A175" s="9"/>
       <c r="B175" s="2"/>
       <c r="C175" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" ht="13.800000000000001">
       <c r="A176" s="9"/>
       <c r="B176" s="2"/>
       <c r="C176" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="177" ht="13.800000000000001">
       <c r="A177" s="9"/>
       <c r="B177" s="2"/>
       <c r="C177" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178" ht="13.800000000000001">
       <c r="A178" s="9"/>
       <c r="B178" s="2"/>
       <c r="C178" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" ht="13.800000000000001">
       <c r="A179" s="9"/>
       <c r="B179" s="2"/>
       <c r="C179" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" ht="13.800000000000001">
       <c r="A180" s="9"/>
       <c r="B180" s="2"/>
       <c r="C180" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" ht="13.800000000000001">
       <c r="A181" s="9"/>
       <c r="B181" s="2"/>
       <c r="C181" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" ht="13.800000000000001">
       <c r="A182" s="9"/>
       <c r="B182" s="2"/>
       <c r="C182" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" ht="13.800000000000001">
       <c r="A183" s="9"/>
       <c r="B183" s="2"/>
       <c r="C183" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" ht="13.800000000000001">
       <c r="A184" s="9"/>
       <c r="B184" s="2"/>
       <c r="C184" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" ht="13.800000000000001">
       <c r="A185" s="9"/>
       <c r="B185" s="2"/>
       <c r="C185" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" ht="13.800000000000001">
       <c r="A186" s="9"/>
       <c r="B186" s="2"/>
       <c r="C186" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="187" ht="13.800000000000001">
       <c r="A187" s="9"/>
       <c r="B187" s="2"/>
       <c r="C187" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" ht="13.800000000000001">
       <c r="A188" s="9"/>
       <c r="B188" s="2"/>
       <c r="C188" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" ht="13.800000000000001">
       <c r="A189" s="9"/>
       <c r="B189" s="2"/>
       <c r="C189" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" ht="13.800000000000001">
       <c r="A190" s="9"/>
       <c r="B190" s="2"/>
       <c r="C190" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191" ht="13.800000000000001">
       <c r="A191" s="9"/>
       <c r="B191" s="2"/>
       <c r="C191" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" ht="13.800000000000001">
       <c r="A192" s="9"/>
       <c r="B192" s="2"/>
       <c r="C192" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" ht="13.800000000000001">
       <c r="A193" s="9"/>
       <c r="B193" s="2"/>
       <c r="C193" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194" ht="13.800000000000001">
       <c r="A194" s="9"/>
       <c r="B194" s="2"/>
       <c r="C194" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195" ht="13.800000000000001">
       <c r="A195" s="9"/>
       <c r="B195" s="2"/>
       <c r="C195" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" ht="13.800000000000001">
       <c r="A196" s="9"/>
       <c r="B196" s="2"/>
       <c r="C196" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" ht="13.800000000000001">
       <c r="A197" s="9"/>
       <c r="B197" s="2"/>
       <c r="C197" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" ht="13.800000000000001">
       <c r="A198" s="9"/>
       <c r="B198" s="2"/>
       <c r="C198" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="199" ht="13.800000000000001">
       <c r="A199" s="9"/>
       <c r="B199" s="2"/>
       <c r="C199" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200" ht="13.800000000000001">
       <c r="A200" s="9"/>
       <c r="B200" s="2"/>
       <c r="C200" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201" ht="13.800000000000001">
       <c r="A201" s="9"/>
       <c r="B201" s="2"/>
       <c r="C201" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202" ht="13.800000000000001">
       <c r="A202" s="9"/>
       <c r="B202" s="2"/>
       <c r="C202" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="203" ht="13.800000000000001">
       <c r="A203" s="9"/>
       <c r="B203" s="2"/>
       <c r="C203" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="204" ht="13.800000000000001">
       <c r="A204" s="9"/>
       <c r="B204" s="2"/>
       <c r="C204" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" ht="13.800000000000001">
       <c r="A205" s="9"/>
       <c r="B205" s="2"/>
       <c r="C205" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" ht="13.800000000000001">
       <c r="A206" s="9"/>
       <c r="B206" s="2"/>
       <c r="C206" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207" ht="13.800000000000001">
       <c r="A207" s="9"/>
       <c r="B207" s="2"/>
       <c r="C207" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208" ht="13.800000000000001">
       <c r="A208" s="9"/>
       <c r="B208" s="2"/>
       <c r="C208" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209" ht="13.800000000000001">
       <c r="A209" s="9"/>
       <c r="B209" s="2"/>
       <c r="C209" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" ht="13.800000000000001">
       <c r="A210" s="9"/>
       <c r="B210" s="2"/>
       <c r="C210" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211" ht="13.800000000000001">
       <c r="A211" s="9"/>
       <c r="B211" s="2"/>
       <c r="C211" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" ht="13.800000000000001">
       <c r="A212" s="9"/>
       <c r="B212" s="2"/>
       <c r="C212" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="213" ht="13.800000000000001">
       <c r="A213" s="9"/>
       <c r="B213" s="2"/>
       <c r="C213" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214" ht="13.800000000000001">
       <c r="A214" s="9"/>
       <c r="B214" s="2"/>
       <c r="C214" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="215" ht="13.800000000000001">
       <c r="A215" s="9"/>
       <c r="B215" s="2"/>
       <c r="C215" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="216" ht="13.800000000000001">
       <c r="A216" s="9"/>
       <c r="B216" s="2"/>
       <c r="C216" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="217" ht="13.800000000000001">
@@ -16976,10 +16987,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" ht="13.800000000000001">
@@ -17321,11 +17332,11 @@
     </row>
     <row r="91" ht="14.25">
       <c r="A91" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" ht="14.25">
@@ -21072,7 +21083,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="A187" zoomScale="100" workbookViewId="0">
       <selection activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -21092,90 +21103,90 @@
     </row>
     <row r="2" ht="15">
       <c r="C2" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" ht="15">
       <c r="C3" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" ht="15">
       <c r="C4" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="15">
       <c r="C5" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="15">
       <c r="C6" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" ht="15">
       <c r="C7" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" ht="15">
       <c r="C8" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" ht="15">
       <c r="C9" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="C10" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" ht="15">
       <c r="C11" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="15">
       <c r="C12" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" ht="15">
@@ -21191,7 +21202,7 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D15" s="17"/>
     </row>
@@ -21224,16 +21235,16 @@
     <row r="25" ht="28.350000000000001" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -21259,14 +21270,14 @@
     </row>
     <row r="26" ht="15">
       <c r="A26" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -21295,10 +21306,10 @@
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -21329,13 +21340,13 @@
         <v>1400</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -21363,10 +21374,10 @@
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -21395,10 +21406,10 @@
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -21428,7 +21439,7 @@
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -21458,7 +21469,7 @@
       <c r="B32" s="23"/>
       <c r="C32" s="24"/>
       <c r="D32" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -21487,10 +21498,10 @@
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -21519,10 +21530,10 @@
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -21551,10 +21562,10 @@
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -21583,10 +21594,10 @@
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -21616,7 +21627,7 @@
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -21645,10 +21656,10 @@
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -21677,10 +21688,10 @@
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -21709,10 +21720,10 @@
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -21741,10 +21752,10 @@
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -21773,10 +21784,10 @@
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -21805,10 +21816,10 @@
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -21837,10 +21848,10 @@
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -21869,10 +21880,10 @@
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -21901,10 +21912,10 @@
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -21933,10 +21944,10 @@
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -21965,10 +21976,10 @@
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -21998,7 +22009,7 @@
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
       <c r="D49" s="17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -22027,10 +22038,10 @@
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -22059,7 +22070,7 @@
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="D51" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -22088,10 +22099,10 @@
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -22120,10 +22131,10 @@
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -22152,10 +22163,10 @@
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -22184,10 +22195,10 @@
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -22216,10 +22227,10 @@
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -22248,10 +22259,10 @@
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -22280,10 +22291,10 @@
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -22313,7 +22324,7 @@
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
       <c r="D59" s="17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -22342,10 +22353,10 @@
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -22374,10 +22385,10 @@
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -22406,10 +22417,10 @@
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -22439,7 +22450,7 @@
       <c r="B63" s="23"/>
       <c r="C63" s="24"/>
       <c r="D63" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -22469,7 +22480,7 @@
       <c r="B64" s="23"/>
       <c r="C64" s="24"/>
       <c r="D64" s="17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -22498,10 +22509,10 @@
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -22531,7 +22542,7 @@
       <c r="B66" s="23"/>
       <c r="C66" s="24"/>
       <c r="D66" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -22561,7 +22572,7 @@
       <c r="B67" s="23"/>
       <c r="C67" s="24"/>
       <c r="D67" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -22591,7 +22602,7 @@
       <c r="B68" s="23"/>
       <c r="C68" s="24"/>
       <c r="D68" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -22620,10 +22631,10 @@
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -22653,7 +22664,7 @@
       <c r="B70" s="23"/>
       <c r="C70" s="24"/>
       <c r="D70" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -22683,7 +22694,7 @@
       <c r="B71" s="23"/>
       <c r="C71" s="24"/>
       <c r="D71" s="17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -22713,7 +22724,7 @@
       <c r="B72" s="23"/>
       <c r="C72" s="24"/>
       <c r="D72" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -22743,7 +22754,7 @@
       <c r="B73" s="23"/>
       <c r="C73" s="24"/>
       <c r="D73" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -22773,7 +22784,7 @@
       <c r="B74" s="23"/>
       <c r="C74" s="24"/>
       <c r="D74" s="26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -22803,7 +22814,7 @@
       <c r="B75" s="23"/>
       <c r="C75" s="24"/>
       <c r="D75" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -22833,7 +22844,7 @@
       <c r="B76" s="23"/>
       <c r="C76" s="24"/>
       <c r="D76" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -22863,7 +22874,7 @@
       <c r="B77" s="23"/>
       <c r="C77" s="24"/>
       <c r="D77" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -22893,7 +22904,7 @@
       <c r="B78" s="23"/>
       <c r="C78" s="24"/>
       <c r="D78" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -22923,7 +22934,7 @@
       <c r="B79" s="23"/>
       <c r="C79" s="24"/>
       <c r="D79" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -22953,7 +22964,7 @@
       <c r="B80" s="23"/>
       <c r="C80" s="24"/>
       <c r="D80" s="26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -22983,7 +22994,7 @@
       <c r="B81" s="23"/>
       <c r="C81" s="24"/>
       <c r="D81" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -23013,7 +23024,7 @@
       <c r="B82" s="23"/>
       <c r="C82" s="24"/>
       <c r="D82" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -23043,7 +23054,7 @@
       <c r="B83" s="23"/>
       <c r="C83" s="24"/>
       <c r="D83" s="26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -23073,7 +23084,7 @@
       <c r="B84" s="23"/>
       <c r="C84" s="24"/>
       <c r="D84" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -23103,7 +23114,7 @@
       <c r="B85" s="23"/>
       <c r="C85" s="24"/>
       <c r="D85" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -23133,7 +23144,7 @@
       <c r="B86" s="23"/>
       <c r="C86" s="24"/>
       <c r="D86" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -23163,7 +23174,7 @@
       <c r="B87" s="23"/>
       <c r="C87" s="24"/>
       <c r="D87" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -23193,7 +23204,7 @@
       <c r="B88" s="23"/>
       <c r="C88" s="24"/>
       <c r="D88" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -23223,7 +23234,7 @@
       <c r="B89" s="23"/>
       <c r="C89" s="24"/>
       <c r="D89" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -23253,7 +23264,7 @@
       <c r="B90" s="23"/>
       <c r="C90" s="24"/>
       <c r="D90" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -23283,7 +23294,7 @@
       <c r="B91" s="23"/>
       <c r="C91" s="24"/>
       <c r="D91" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -23313,7 +23324,7 @@
       <c r="B92" s="23"/>
       <c r="C92" s="24"/>
       <c r="D92" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -23343,7 +23354,7 @@
       <c r="B93" s="23"/>
       <c r="C93" s="24"/>
       <c r="D93" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -23373,7 +23384,7 @@
       <c r="B94" s="23"/>
       <c r="C94" s="24"/>
       <c r="D94" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -23403,7 +23414,7 @@
       <c r="B95" s="23"/>
       <c r="C95" s="24"/>
       <c r="D95" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -23433,7 +23444,7 @@
       <c r="B96" s="23"/>
       <c r="C96" s="24"/>
       <c r="D96" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -23463,7 +23474,7 @@
       <c r="B97" s="23"/>
       <c r="C97" s="24"/>
       <c r="D97" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -23493,7 +23504,7 @@
       <c r="B98" s="23"/>
       <c r="C98" s="24"/>
       <c r="D98" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -23523,7 +23534,7 @@
       <c r="B99" s="23"/>
       <c r="C99" s="24"/>
       <c r="D99" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -23553,7 +23564,7 @@
       <c r="B100" s="23"/>
       <c r="C100" s="24"/>
       <c r="D100" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -23583,7 +23594,7 @@
       <c r="B101" s="23"/>
       <c r="C101" s="24"/>
       <c r="D101" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -23613,7 +23624,7 @@
       <c r="B102" s="23"/>
       <c r="C102" s="24"/>
       <c r="D102" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -23643,7 +23654,7 @@
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -23673,7 +23684,7 @@
       <c r="B104" s="23"/>
       <c r="C104" s="24"/>
       <c r="D104" s="26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -23703,7 +23714,7 @@
       <c r="B105" s="23"/>
       <c r="C105" s="24"/>
       <c r="D105" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -23733,7 +23744,7 @@
       <c r="B106" s="23"/>
       <c r="C106" s="24"/>
       <c r="D106" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -23763,7 +23774,7 @@
       <c r="B107" s="23"/>
       <c r="C107" s="24"/>
       <c r="D107" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -23793,7 +23804,7 @@
       <c r="B108" s="23"/>
       <c r="C108" s="24"/>
       <c r="D108" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -23823,7 +23834,7 @@
       <c r="B109" s="23"/>
       <c r="C109" s="24"/>
       <c r="D109" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -23853,7 +23864,7 @@
       <c r="B110" s="23"/>
       <c r="C110" s="24"/>
       <c r="D110" s="26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -23883,7 +23894,7 @@
       <c r="B111" s="23"/>
       <c r="C111" s="24"/>
       <c r="D111" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -23913,7 +23924,7 @@
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
       <c r="D112" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -23943,7 +23954,7 @@
       <c r="B113" s="23"/>
       <c r="C113" s="24"/>
       <c r="D113" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -23973,7 +23984,7 @@
       <c r="B114" s="23"/>
       <c r="C114" s="24"/>
       <c r="D114" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -24003,7 +24014,7 @@
       <c r="B115" s="23"/>
       <c r="C115" s="24"/>
       <c r="D115" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -24033,7 +24044,7 @@
       <c r="B116" s="23"/>
       <c r="C116" s="24"/>
       <c r="D116" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -24063,7 +24074,7 @@
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
       <c r="D117" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -24093,7 +24104,7 @@
       <c r="B118" s="23"/>
       <c r="C118" s="24"/>
       <c r="D118" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -24123,7 +24134,7 @@
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
       <c r="D119" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -24153,7 +24164,7 @@
       <c r="B120" s="23"/>
       <c r="C120" s="24"/>
       <c r="D120" s="26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -24183,7 +24194,7 @@
       <c r="B121" s="23"/>
       <c r="C121" s="24"/>
       <c r="D121" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -24213,7 +24224,7 @@
       <c r="B122" s="23"/>
       <c r="C122" s="24"/>
       <c r="D122" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -24243,7 +24254,7 @@
       <c r="B123" s="23"/>
       <c r="C123" s="24"/>
       <c r="D123" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -24273,7 +24284,7 @@
       <c r="B124" s="23"/>
       <c r="C124" s="24"/>
       <c r="D124" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -24303,7 +24314,7 @@
       <c r="B125" s="23"/>
       <c r="C125" s="24"/>
       <c r="D125" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -24333,7 +24344,7 @@
       <c r="B126" s="23"/>
       <c r="C126" s="24"/>
       <c r="D126" s="26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -24363,7 +24374,7 @@
       <c r="B127" s="23"/>
       <c r="C127" s="24"/>
       <c r="D127" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -24393,7 +24404,7 @@
       <c r="B128" s="23"/>
       <c r="C128" s="24"/>
       <c r="D128" s="26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -24423,7 +24434,7 @@
       <c r="B129" s="23"/>
       <c r="C129" s="24"/>
       <c r="D129" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -24453,7 +24464,7 @@
       <c r="B130" s="23"/>
       <c r="C130" s="24"/>
       <c r="D130" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -24480,12 +24491,12 @@
     </row>
     <row r="131" ht="15">
       <c r="A131" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="24"/>
       <c r="D131" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -24515,7 +24526,7 @@
       <c r="B132" s="23"/>
       <c r="C132" s="24"/>
       <c r="D132" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -24545,7 +24556,7 @@
       <c r="B133" s="23"/>
       <c r="C133" s="24"/>
       <c r="D133" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -24575,7 +24586,7 @@
       <c r="B134" s="23"/>
       <c r="C134" s="24"/>
       <c r="D134" s="26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -24605,7 +24616,7 @@
       <c r="B135" s="23"/>
       <c r="C135" s="24"/>
       <c r="D135" s="26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -24635,7 +24646,7 @@
       <c r="B136" s="23"/>
       <c r="C136" s="24"/>
       <c r="D136" s="26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -24665,7 +24676,7 @@
       <c r="B137" s="23"/>
       <c r="C137" s="24"/>
       <c r="D137" s="26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -24695,7 +24706,7 @@
       <c r="B138" s="23"/>
       <c r="C138" s="24"/>
       <c r="D138" s="26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -24725,7 +24736,7 @@
       <c r="B139" s="23"/>
       <c r="C139" s="24"/>
       <c r="D139" s="26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -24755,7 +24766,7 @@
       <c r="B140" s="23"/>
       <c r="C140" s="24"/>
       <c r="D140" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -24785,7 +24796,7 @@
       <c r="B141" s="23"/>
       <c r="C141" s="24"/>
       <c r="D141" s="26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -24815,7 +24826,7 @@
       <c r="B142" s="23"/>
       <c r="C142" s="24"/>
       <c r="D142" s="26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -24845,7 +24856,7 @@
       <c r="B143" s="23"/>
       <c r="C143" s="24"/>
       <c r="D143" s="26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -24875,7 +24886,7 @@
       <c r="B144" s="23"/>
       <c r="C144" s="24"/>
       <c r="D144" s="26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -24905,7 +24916,7 @@
       <c r="B145" s="23"/>
       <c r="C145" s="24"/>
       <c r="D145" s="26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -24935,7 +24946,7 @@
       <c r="B146" s="23"/>
       <c r="C146" s="24"/>
       <c r="D146" s="26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -24965,7 +24976,7 @@
       <c r="B147" s="23"/>
       <c r="C147" s="24"/>
       <c r="D147" s="26" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -24995,7 +25006,7 @@
       <c r="B148" s="23"/>
       <c r="C148" s="24"/>
       <c r="D148" s="26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -25025,7 +25036,7 @@
       <c r="B149" s="23"/>
       <c r="C149" s="24"/>
       <c r="D149" s="26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -25055,7 +25066,7 @@
       <c r="B150" s="23"/>
       <c r="C150" s="24"/>
       <c r="D150" s="26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -25085,7 +25096,7 @@
       <c r="B151" s="23"/>
       <c r="C151" s="24"/>
       <c r="D151" s="26" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
@@ -25115,7 +25126,7 @@
       <c r="B152" s="23"/>
       <c r="C152" s="24"/>
       <c r="D152" s="26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
@@ -25145,7 +25156,7 @@
       <c r="B153" s="23"/>
       <c r="C153" s="24"/>
       <c r="D153" s="26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
@@ -25175,7 +25186,7 @@
       <c r="B154" s="23"/>
       <c r="C154" s="24"/>
       <c r="D154" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
@@ -25205,7 +25216,7 @@
       <c r="B155" s="23"/>
       <c r="C155" s="24"/>
       <c r="D155" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
@@ -25235,7 +25246,7 @@
       <c r="B156" s="23"/>
       <c r="C156" s="24"/>
       <c r="D156" s="26" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
@@ -25265,7 +25276,7 @@
       <c r="B157" s="23"/>
       <c r="C157" s="24"/>
       <c r="D157" s="26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -25320,11 +25331,11 @@
     </row>
     <row r="159" ht="15">
       <c r="A159" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B159" s="29"/>
       <c r="C159" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D159" s="17"/>
       <c r="E159" s="4"/>
@@ -25355,7 +25366,7 @@
       <c r="B160" s="29"/>
       <c r="C160" s="24"/>
       <c r="D160" s="17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
@@ -25385,7 +25396,7 @@
       <c r="B161" s="29"/>
       <c r="C161" s="24"/>
       <c r="D161" s="17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
@@ -25415,7 +25426,7 @@
       <c r="B162" s="29"/>
       <c r="C162" s="24"/>
       <c r="D162" s="17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -25445,7 +25456,7 @@
       <c r="B163" s="29"/>
       <c r="C163" s="24"/>
       <c r="D163" s="17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
@@ -25475,7 +25486,7 @@
       <c r="B164" s="29"/>
       <c r="C164" s="24"/>
       <c r="D164" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
@@ -25504,21 +25515,21 @@
       <c r="A165" s="28"/>
       <c r="B165" s="29"/>
       <c r="D165" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" ht="12.800000000000001">
       <c r="A166" s="28"/>
       <c r="B166" s="29"/>
       <c r="D166" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" ht="12.800000000000001">
       <c r="A167" s="28"/>
       <c r="B167" s="29"/>
       <c r="D167" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" ht="15">
@@ -25551,12 +25562,12 @@
     </row>
     <row r="169" ht="15">
       <c r="A169" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B169" s="23"/>
       <c r="C169" s="24"/>
       <c r="D169" s="17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
@@ -25585,10 +25596,10 @@
       <c r="A170" s="30"/>
       <c r="B170" s="23"/>
       <c r="C170" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
@@ -25923,12 +25934,12 @@
     </row>
     <row r="182" ht="15">
       <c r="A182" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B182" s="23"/>
       <c r="C182" s="24"/>
       <c r="D182" s="17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
@@ -25958,7 +25969,7 @@
       <c r="B183" s="23"/>
       <c r="C183" s="24"/>
       <c r="D183" s="17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
@@ -25988,7 +25999,7 @@
       <c r="B184" s="23"/>
       <c r="C184" s="24"/>
       <c r="D184" s="17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
@@ -26018,7 +26029,7 @@
       <c r="B185" s="23"/>
       <c r="C185" s="24"/>
       <c r="D185" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
@@ -26048,7 +26059,7 @@
       <c r="B186" s="23"/>
       <c r="C186" s="24"/>
       <c r="D186" s="17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
@@ -26075,14 +26086,14 @@
     </row>
     <row r="187" ht="15">
       <c r="A187" s="32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B187" s="23"/>
       <c r="C187" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
@@ -26641,11 +26652,11 @@
     </row>
     <row r="207" ht="15">
       <c r="A207" s="36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B207" s="23"/>
       <c r="D207" s="17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E207" s="34"/>
       <c r="F207" s="4"/>
@@ -26675,10 +26686,14 @@
       <c r="B208" s="23"/>
       <c r="C208" s="24"/>
       <c r="D208" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="E208" s="35"/>
-      <c r="F208" s="4"/>
+        <v>395</v>
+      </c>
+      <c r="E208" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -26705,7 +26720,7 @@
       <c r="B209" s="23"/>
       <c r="C209" s="24"/>
       <c r="D209" s="17" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E209" s="34"/>
       <c r="F209" s="4"/>
@@ -26735,7 +26750,7 @@
       <c r="B210" s="23"/>
       <c r="C210" s="24"/>
       <c r="D210" s="17" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E210" s="35"/>
       <c r="F210" s="4"/>
@@ -26765,7 +26780,7 @@
       <c r="B211" s="23"/>
       <c r="C211" s="24"/>
       <c r="D211" s="17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E211" s="34"/>
       <c r="F211" s="4"/>
@@ -26795,7 +26810,7 @@
       <c r="B212" s="23"/>
       <c r="C212" s="24"/>
       <c r="D212" s="17" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E212" s="35"/>
       <c r="F212" s="4"/>
@@ -26825,7 +26840,7 @@
       <c r="B213" s="23"/>
       <c r="C213" s="24"/>
       <c r="D213" s="17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E213" s="34"/>
       <c r="F213" s="4"/>
@@ -26855,7 +26870,7 @@
       <c r="B214" s="23"/>
       <c r="C214" s="24"/>
       <c r="D214" s="17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E214" s="35"/>
       <c r="F214" s="4"/>
@@ -26885,7 +26900,7 @@
       <c r="B215" s="23"/>
       <c r="C215" s="24"/>
       <c r="D215" s="17" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E215" s="34"/>
       <c r="F215" s="4"/>
@@ -26915,7 +26930,7 @@
       <c r="B216" s="23"/>
       <c r="C216" s="24"/>
       <c r="D216" s="15" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E216" s="35"/>
       <c r="F216" s="4"/>
@@ -26945,7 +26960,7 @@
       <c r="B217" s="23"/>
       <c r="C217" s="24"/>
       <c r="D217" s="15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E217" s="34"/>
       <c r="F217" s="4"/>
@@ -26975,7 +26990,7 @@
       <c r="B218" s="23"/>
       <c r="C218" s="24"/>
       <c r="D218" s="15" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E218" s="35"/>
       <c r="F218" s="4"/>
@@ -27002,12 +27017,12 @@
     </row>
     <row r="219" ht="15">
       <c r="A219" s="37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B219" s="23"/>
       <c r="C219" s="24"/>
       <c r="D219" s="17" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E219" s="34"/>
       <c r="F219" s="4"/>
@@ -27036,10 +27051,10 @@
       <c r="A220" s="37"/>
       <c r="B220" s="23"/>
       <c r="C220" s="24" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E220" s="35"/>
       <c r="F220" s="4"/>
@@ -27069,7 +27084,7 @@
       <c r="B221" s="23"/>
       <c r="C221" s="24"/>
       <c r="D221" s="17" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E221" s="34"/>
       <c r="F221" s="4"/>
@@ -27099,7 +27114,7 @@
       <c r="B222" s="23"/>
       <c r="C222" s="24"/>
       <c r="D222" s="17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E222" s="35"/>
       <c r="F222" s="4"/>
@@ -27129,7 +27144,7 @@
       <c r="B223" s="23"/>
       <c r="C223" s="24"/>
       <c r="D223" s="17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E223" s="34"/>
       <c r="F223" s="4"/>
@@ -27159,7 +27174,7 @@
       <c r="B224" s="23"/>
       <c r="C224" s="24"/>
       <c r="D224" s="17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E224" s="35"/>
       <c r="F224" s="4"/>
@@ -27188,10 +27203,10 @@
       <c r="A225" s="37"/>
       <c r="B225" s="23"/>
       <c r="C225" s="24" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E225" s="34"/>
       <c r="F225" s="4"/>
@@ -27221,7 +27236,7 @@
       <c r="B226" s="23"/>
       <c r="C226" s="24"/>
       <c r="D226" s="17" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E226" s="35"/>
       <c r="F226" s="4"/>
@@ -27250,10 +27265,10 @@
       <c r="A227" s="37"/>
       <c r="B227" s="23"/>
       <c r="C227" s="24" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E227" s="34"/>
       <c r="F227" s="4"/>
@@ -27283,7 +27298,7 @@
       <c r="B228" s="23"/>
       <c r="C228" s="24"/>
       <c r="D228" s="17" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="E228" s="35"/>
       <c r="F228" s="4"/>
@@ -27313,7 +27328,7 @@
       <c r="B229" s="23"/>
       <c r="C229" s="24"/>
       <c r="D229" s="17" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E229" s="34"/>
       <c r="F229" s="4"/>
@@ -27343,7 +27358,7 @@
       <c r="B230" s="23"/>
       <c r="C230" s="24"/>
       <c r="D230" s="17" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E230" s="35"/>
       <c r="F230" s="4"/>
@@ -27373,7 +27388,7 @@
       <c r="B231" s="23"/>
       <c r="C231" s="24"/>
       <c r="D231" s="17" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E231" s="34"/>
       <c r="F231" s="4"/>
@@ -27402,10 +27417,10 @@
       <c r="A232" s="37"/>
       <c r="B232" s="23"/>
       <c r="C232" s="24" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E232" s="35"/>
       <c r="F232" s="4"/>
@@ -27435,7 +27450,7 @@
       <c r="B233" s="23"/>
       <c r="C233" s="24"/>
       <c r="D233" s="17" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E233" s="34"/>
       <c r="F233" s="4"/>
@@ -27465,7 +27480,7 @@
       <c r="B234" s="23"/>
       <c r="C234" s="24"/>
       <c r="D234" s="17" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E234" s="35"/>
       <c r="F234" s="4"/>
@@ -27495,7 +27510,7 @@
       <c r="B235" s="23"/>
       <c r="C235" s="24"/>
       <c r="D235" s="17" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E235" s="34"/>
       <c r="F235" s="4"/>
@@ -27525,7 +27540,7 @@
       <c r="B236" s="23"/>
       <c r="C236" s="24"/>
       <c r="D236" s="17" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E236" s="35"/>
       <c r="F236" s="4"/>
@@ -27580,12 +27595,12 @@
     </row>
     <row r="238" ht="15">
       <c r="A238" s="38" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B238" s="23"/>
       <c r="C238" s="24"/>
       <c r="D238" s="17" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E238" s="35"/>
       <c r="F238" s="4"/>
@@ -27615,7 +27630,7 @@
       <c r="B239" s="23"/>
       <c r="C239" s="24"/>
       <c r="D239" s="17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E239" s="34"/>
       <c r="F239" s="4"/>
@@ -27625,7 +27640,7 @@
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
       <c r="L239" s="4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
@@ -27647,7 +27662,7 @@
       <c r="B240" s="23"/>
       <c r="C240" s="24"/>
       <c r="D240" s="39" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E240" s="40"/>
       <c r="F240" s="4"/>
@@ -27677,7 +27692,7 @@
       <c r="B241" s="23"/>
       <c r="C241" s="24"/>
       <c r="D241" s="41" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E241" s="42"/>
       <c r="F241" s="4"/>
@@ -27707,7 +27722,7 @@
       <c r="B242" s="23"/>
       <c r="C242" s="24"/>
       <c r="D242" s="41" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E242" s="40"/>
       <c r="F242" s="4"/>
@@ -27737,7 +27752,7 @@
       <c r="B243" s="23"/>
       <c r="C243" s="24"/>
       <c r="D243" s="41" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E243" s="42"/>
       <c r="F243" s="4"/>
@@ -27766,7 +27781,7 @@
       <c r="A244" s="38"/>
       <c r="B244" s="23"/>
       <c r="D244" s="43" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E244" s="40"/>
       <c r="F244" s="4"/>
@@ -27795,7 +27810,7 @@
       <c r="A245" s="38"/>
       <c r="B245" s="23"/>
       <c r="D245" s="44" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E245" s="42"/>
       <c r="F245" s="4"/>
@@ -27824,7 +27839,7 @@
       <c r="A246" s="38"/>
       <c r="B246" s="23"/>
       <c r="D246" s="43" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E246" s="40"/>
       <c r="F246" s="4"/>
@@ -27854,7 +27869,7 @@
       <c r="B247" s="23"/>
       <c r="C247" s="14"/>
       <c r="D247" s="43" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E247" s="42"/>
       <c r="F247" s="4"/>
@@ -27884,7 +27899,7 @@
       <c r="B248" s="23"/>
       <c r="C248" s="14"/>
       <c r="D248" s="43" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E248" s="40"/>
       <c r="F248" s="4"/>
@@ -27914,7 +27929,7 @@
       <c r="B249" s="23"/>
       <c r="C249" s="14"/>
       <c r="D249" s="43" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E249" s="42"/>
       <c r="F249" s="4"/>
@@ -27944,7 +27959,7 @@
       <c r="B250" s="23"/>
       <c r="C250" s="14"/>
       <c r="D250" s="43" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E250" s="40"/>
       <c r="F250" s="4"/>
@@ -27974,7 +27989,7 @@
       <c r="B251" s="23"/>
       <c r="C251" s="14"/>
       <c r="D251" s="43" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E251" s="42"/>
       <c r="F251" s="4"/>
@@ -28004,7 +28019,7 @@
       <c r="B252" s="23"/>
       <c r="C252" s="14"/>
       <c r="D252" s="43" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E252" s="40"/>
       <c r="F252" s="4"/>
@@ -28034,7 +28049,7 @@
       <c r="B253" s="23"/>
       <c r="C253" s="24"/>
       <c r="D253" s="41" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E253" s="42"/>
       <c r="F253" s="4"/>
@@ -28064,7 +28079,7 @@
       <c r="B254" s="23"/>
       <c r="C254" s="24"/>
       <c r="D254" s="41" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E254" s="40"/>
       <c r="F254" s="4"/>
@@ -28094,7 +28109,7 @@
       <c r="B255" s="23"/>
       <c r="C255" s="24"/>
       <c r="D255" s="41" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E255" s="42"/>
       <c r="F255" s="4"/>
@@ -28124,7 +28139,7 @@
       <c r="B256" s="23"/>
       <c r="C256" s="45"/>
       <c r="D256" s="41" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E256" s="40"/>
       <c r="F256" s="4"/>
@@ -28287,12 +28302,12 @@
     </row>
     <row r="262" ht="15">
       <c r="A262" s="47" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B262" s="23"/>
       <c r="C262" s="24"/>
       <c r="D262" s="41" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E262" s="40"/>
       <c r="F262" s="4"/>
@@ -28322,7 +28337,7 @@
       <c r="B263" s="23"/>
       <c r="C263" s="24"/>
       <c r="D263" s="41" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E263" s="42"/>
       <c r="F263" s="4"/>
@@ -28352,7 +28367,7 @@
       <c r="B264" s="23"/>
       <c r="C264" s="24"/>
       <c r="D264" s="41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E264" s="40"/>
       <c r="F264" s="4"/>
@@ -28382,7 +28397,7 @@
       <c r="B265" s="23"/>
       <c r="C265" s="24"/>
       <c r="D265" s="41" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E265" s="42"/>
       <c r="F265" s="4"/>
@@ -28412,7 +28427,7 @@
       <c r="B266" s="23"/>
       <c r="C266" s="24"/>
       <c r="D266" s="41" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E266" s="40"/>
       <c r="F266" s="4"/>
@@ -28442,7 +28457,7 @@
       <c r="B267" s="23"/>
       <c r="C267" s="24"/>
       <c r="D267" s="41" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E267" s="42"/>
       <c r="F267" s="4"/>
@@ -28472,7 +28487,7 @@
       <c r="B268" s="23"/>
       <c r="C268" s="24"/>
       <c r="D268" s="41" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E268" s="40"/>
       <c r="F268" s="4"/>
@@ -28502,7 +28517,7 @@
       <c r="B269" s="23"/>
       <c r="C269" s="24"/>
       <c r="D269" s="41" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E269" s="42"/>
       <c r="F269" s="4"/>
@@ -28532,7 +28547,7 @@
       <c r="B270" s="23"/>
       <c r="C270" s="24"/>
       <c r="D270" s="41" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E270" s="24"/>
       <c r="F270" s="4"/>
@@ -28562,7 +28577,7 @@
       <c r="B271" s="23"/>
       <c r="C271" s="24"/>
       <c r="D271" s="41" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E271" s="24"/>
       <c r="F271" s="4"/>
@@ -28592,7 +28607,7 @@
       <c r="B272" s="23"/>
       <c r="C272" s="24"/>
       <c r="D272" s="41" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="E272" s="24"/>
       <c r="F272" s="4"/>
@@ -28621,10 +28636,10 @@
       <c r="A273" s="47"/>
       <c r="B273" s="23"/>
       <c r="C273" s="24" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D273" s="41" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E273" s="24"/>
       <c r="F273" s="4"/>
@@ -28653,10 +28668,10 @@
       <c r="A274" s="47"/>
       <c r="B274" s="23"/>
       <c r="C274" s="24" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E274" s="24"/>
       <c r="F274" s="4"/>
@@ -28686,7 +28701,7 @@
       <c r="B275" s="23"/>
       <c r="C275" s="24"/>
       <c r="D275" s="41" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E275" s="24"/>
       <c r="F275" s="4"/>
@@ -28716,7 +28731,7 @@
       <c r="B276" s="23"/>
       <c r="C276" s="24"/>
       <c r="D276" s="41" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E276" s="24"/>
       <c r="F276" s="4"/>
@@ -28746,7 +28761,7 @@
       <c r="B277" s="23"/>
       <c r="C277" s="24"/>
       <c r="D277" s="41" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E277" s="24"/>
       <c r="F277" s="4"/>
@@ -28776,7 +28791,7 @@
       <c r="B278" s="23"/>
       <c r="C278" s="24"/>
       <c r="D278" s="41" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E278" s="24"/>
       <c r="F278" s="4"/>
@@ -28805,10 +28820,10 @@
       <c r="A279" s="47"/>
       <c r="B279" s="23"/>
       <c r="C279" s="24" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D279" s="41" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E279" s="24"/>
       <c r="F279" s="4"/>
@@ -28837,10 +28852,10 @@
       <c r="A280" s="47"/>
       <c r="B280" s="23"/>
       <c r="C280" s="24" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D280" s="41" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E280" s="24"/>
       <c r="F280" s="4"/>
@@ -28870,7 +28885,7 @@
       <c r="B281" s="23"/>
       <c r="C281" s="24"/>
       <c r="D281" s="41" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E281" s="24"/>
       <c r="F281" s="4"/>
@@ -28900,7 +28915,7 @@
       <c r="B282" s="23"/>
       <c r="C282" s="24"/>
       <c r="D282" s="41" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E282" s="24"/>
       <c r="F282" s="4"/>
@@ -28930,7 +28945,7 @@
       <c r="B283" s="23"/>
       <c r="C283" s="24"/>
       <c r="D283" s="41" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E283" s="24"/>
       <c r="F283" s="4"/>
@@ -29097,12 +29112,12 @@
     </row>
     <row r="289" ht="15">
       <c r="A289" s="27" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B289" s="23"/>
       <c r="C289" s="24"/>
       <c r="D289" s="41" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E289" s="24"/>
       <c r="F289" s="4"/>
@@ -29132,7 +29147,7 @@
       <c r="B290" s="23"/>
       <c r="C290" s="24"/>
       <c r="D290" s="41" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E290" s="24"/>
       <c r="F290" s="4"/>
@@ -29411,7 +29426,7 @@
     </row>
     <row r="300" ht="15">
       <c r="A300" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B300" s="23"/>
       <c r="C300" s="24"/>
@@ -29446,7 +29461,7 @@
       <c r="B301" s="23"/>
       <c r="C301" s="24"/>
       <c r="D301" s="17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
@@ -29476,7 +29491,7 @@
       <c r="B302" s="23"/>
       <c r="C302" s="24"/>
       <c r="D302" s="17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
@@ -29505,10 +29520,10 @@
       <c r="A303" s="22"/>
       <c r="B303" s="23"/>
       <c r="C303" s="24" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
@@ -29538,7 +29553,7 @@
       <c r="B304" s="23"/>
       <c r="C304" s="24"/>
       <c r="D304" s="17" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
@@ -29567,10 +29582,10 @@
       <c r="A305" s="22"/>
       <c r="B305" s="23"/>
       <c r="C305" s="24" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
@@ -29600,7 +29615,7 @@
       <c r="B306" s="23"/>
       <c r="C306" s="24"/>
       <c r="D306" s="17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
@@ -29630,7 +29645,7 @@
       <c r="B307" s="23"/>
       <c r="C307" s="24"/>
       <c r="D307" s="17" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
@@ -29659,10 +29674,10 @@
       <c r="A308" s="22"/>
       <c r="B308" s="23"/>
       <c r="C308" s="14" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
@@ -29692,7 +29707,7 @@
       <c r="B309" s="23"/>
       <c r="C309" s="24"/>
       <c r="D309" s="17" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
@@ -29722,7 +29737,7 @@
       <c r="B310" s="23"/>
       <c r="C310" s="24"/>
       <c r="D310" s="17" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
@@ -29752,7 +29767,7 @@
       <c r="B311" s="23"/>
       <c r="C311" s="24"/>
       <c r="D311" s="17" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
@@ -29782,7 +29797,7 @@
       <c r="B312" s="23"/>
       <c r="C312" s="24"/>
       <c r="D312" s="17" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
@@ -29811,10 +29826,10 @@
       <c r="A313" s="22"/>
       <c r="B313" s="23"/>
       <c r="C313" s="24" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
@@ -29843,10 +29858,10 @@
       <c r="A314" s="22"/>
       <c r="B314" s="23"/>
       <c r="C314" s="24" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
@@ -29873,7 +29888,7 @@
     </row>
     <row r="315" ht="15">
       <c r="A315" s="48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B315" s="23"/>
       <c r="C315" s="24"/>
@@ -29908,7 +29923,7 @@
       <c r="B316" s="23"/>
       <c r="C316" s="24"/>
       <c r="D316" s="17" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
@@ -29938,7 +29953,7 @@
       <c r="B317" s="23"/>
       <c r="C317" s="24"/>
       <c r="D317" s="17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
@@ -29998,7 +30013,7 @@
       <c r="B319" s="23"/>
       <c r="C319" s="24"/>
       <c r="D319" s="17" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
@@ -30028,7 +30043,7 @@
       <c r="B320" s="23"/>
       <c r="C320" s="24"/>
       <c r="D320" s="17" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -30058,7 +30073,7 @@
       <c r="B321" s="23"/>
       <c r="C321" s="24"/>
       <c r="D321" s="17" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -30088,7 +30103,7 @@
       <c r="B322" s="23"/>
       <c r="C322" s="24"/>
       <c r="D322" s="17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -30115,12 +30130,12 @@
     </row>
     <row r="323" ht="15">
       <c r="A323" s="49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B323" s="23"/>
       <c r="C323" s="24"/>
       <c r="D323" s="17" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -30150,7 +30165,7 @@
       <c r="B324" s="23"/>
       <c r="C324" s="24"/>
       <c r="D324" s="17" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -30345,14 +30360,14 @@
     </row>
     <row r="331" ht="13.800000000000001">
       <c r="A331" s="50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B331" s="23"/>
       <c r="C331" s="14" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
@@ -30381,10 +30396,10 @@
       <c r="A332" s="50"/>
       <c r="B332" s="23"/>
       <c r="C332" s="14" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
@@ -30414,7 +30429,7 @@
       <c r="B333" s="23"/>
       <c r="C333" s="14"/>
       <c r="D333" s="15" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
@@ -30443,10 +30458,10 @@
       <c r="A334" s="50"/>
       <c r="B334" s="23"/>
       <c r="C334" s="24" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
@@ -30475,10 +30490,10 @@
       <c r="A335" s="50"/>
       <c r="B335" s="23"/>
       <c r="C335" s="24" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
@@ -30507,10 +30522,10 @@
       <c r="A336" s="50"/>
       <c r="B336" s="23"/>
       <c r="C336" s="24" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
@@ -30918,12 +30933,12 @@
     </row>
     <row r="351" ht="15">
       <c r="A351" s="51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B351" s="23"/>
       <c r="C351" s="24"/>
       <c r="D351" s="17" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
@@ -30953,7 +30968,7 @@
       <c r="B352" s="23"/>
       <c r="C352" s="24"/>
       <c r="D352" s="17" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
@@ -30983,7 +30998,7 @@
       <c r="B353" s="23"/>
       <c r="C353" s="24"/>
       <c r="D353" s="17" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
@@ -31013,7 +31028,7 @@
       <c r="B354" s="23"/>
       <c r="C354" s="24"/>
       <c r="D354" s="17" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
@@ -31043,7 +31058,7 @@
       <c r="B355" s="23"/>
       <c r="C355" s="24"/>
       <c r="D355" s="17" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
@@ -31072,10 +31087,10 @@
       <c r="A356" s="51"/>
       <c r="B356" s="23"/>
       <c r="C356" s="24" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
@@ -31104,10 +31119,10 @@
       <c r="A357" s="51"/>
       <c r="B357" s="23"/>
       <c r="C357" s="24" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
@@ -31136,10 +31151,10 @@
       <c r="A358" s="51"/>
       <c r="B358" s="23"/>
       <c r="C358" s="24" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
@@ -31169,7 +31184,7 @@
       <c r="B359" s="23"/>
       <c r="C359" s="24"/>
       <c r="D359" s="17" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
@@ -31196,7 +31211,7 @@
     </row>
     <row r="360" ht="15">
       <c r="A360" s="52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B360" s="23"/>
       <c r="C360" s="24"/>
@@ -31229,7 +31244,7 @@
       <c r="B361" s="23"/>
       <c r="C361" s="24"/>
       <c r="D361" s="17" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
@@ -31259,7 +31274,7 @@
       <c r="B362" s="23"/>
       <c r="C362" s="24"/>
       <c r="D362" s="17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
@@ -31288,10 +31303,10 @@
       <c r="A363" s="52"/>
       <c r="B363" s="23"/>
       <c r="C363" s="24" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
@@ -31321,7 +31336,7 @@
       <c r="B364" s="23"/>
       <c r="C364" s="24"/>
       <c r="D364" s="17" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
@@ -31460,12 +31475,12 @@
     </row>
     <row r="369" ht="15">
       <c r="A369" s="53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B369" s="23"/>
       <c r="C369" s="24"/>
       <c r="D369" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
@@ -31495,7 +31510,7 @@
       <c r="B370" s="23"/>
       <c r="C370" s="24"/>
       <c r="D370" s="17" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
@@ -31524,10 +31539,10 @@
       <c r="A371" s="53"/>
       <c r="B371" s="23"/>
       <c r="C371" s="24" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
@@ -31556,10 +31571,10 @@
       <c r="A372" s="53"/>
       <c r="B372" s="23"/>
       <c r="C372" s="24" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
@@ -31588,10 +31603,10 @@
       <c r="A373" s="53"/>
       <c r="B373" s="23"/>
       <c r="C373" s="24" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
@@ -31730,14 +31745,14 @@
     </row>
     <row r="378" ht="15">
       <c r="A378" s="54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B378" s="23"/>
       <c r="C378" s="24" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
@@ -31766,10 +31781,10 @@
       <c r="A379" s="54"/>
       <c r="B379" s="23"/>
       <c r="C379" s="24" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
@@ -31798,10 +31813,10 @@
       <c r="A380" s="54"/>
       <c r="B380" s="23"/>
       <c r="C380" s="24" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
@@ -31830,10 +31845,10 @@
       <c r="A381" s="54"/>
       <c r="B381" s="23"/>
       <c r="C381" s="24" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
@@ -31862,10 +31877,10 @@
       <c r="A382" s="54"/>
       <c r="B382" s="23"/>
       <c r="C382" s="24" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
@@ -31894,10 +31909,10 @@
       <c r="A383" s="54"/>
       <c r="B383" s="23"/>
       <c r="C383" s="24" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
@@ -31926,10 +31941,10 @@
       <c r="A384" s="54"/>
       <c r="B384" s="23"/>
       <c r="C384" s="24" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
@@ -31958,10 +31973,10 @@
       <c r="A385" s="54"/>
       <c r="B385" s="23"/>
       <c r="C385" s="24" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
@@ -31988,14 +32003,14 @@
     </row>
     <row r="386" ht="15">
       <c r="A386" s="55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B386" s="23"/>
       <c r="C386" s="24" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D386" s="15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
@@ -32024,10 +32039,10 @@
       <c r="A387" s="55"/>
       <c r="B387" s="23"/>
       <c r="C387" s="24" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
@@ -32056,10 +32071,10 @@
       <c r="A388" s="55"/>
       <c r="B388" s="23"/>
       <c r="C388" s="24" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
@@ -32088,10 +32103,10 @@
       <c r="A389" s="55"/>
       <c r="B389" s="23"/>
       <c r="C389" s="24" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
@@ -32120,10 +32135,10 @@
       <c r="A390" s="55"/>
       <c r="B390" s="23"/>
       <c r="C390" s="24" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
@@ -32152,10 +32167,10 @@
       <c r="A391" s="55"/>
       <c r="B391" s="23"/>
       <c r="C391" s="24" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
@@ -32184,10 +32199,10 @@
       <c r="A392" s="55"/>
       <c r="B392" s="23"/>
       <c r="C392" s="24" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
@@ -32242,12 +32257,12 @@
     </row>
     <row r="394" ht="15">
       <c r="A394" s="56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B394" s="23"/>
       <c r="C394" s="24"/>
       <c r="D394" s="17" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
@@ -32277,7 +32292,7 @@
       <c r="B395" s="23"/>
       <c r="C395" s="24"/>
       <c r="D395" s="17" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
@@ -32307,7 +32322,7 @@
       <c r="B396" s="23"/>
       <c r="C396" s="24"/>
       <c r="D396" s="17" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
@@ -32337,7 +32352,7 @@
       <c r="B397" s="23"/>
       <c r="C397" s="24"/>
       <c r="D397" s="17" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
@@ -32367,7 +32382,7 @@
       <c r="B398" s="23"/>
       <c r="C398" s="24"/>
       <c r="D398" s="17" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
@@ -32397,7 +32412,7 @@
       <c r="B399" s="23"/>
       <c r="C399" s="24"/>
       <c r="D399" s="17" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
@@ -32427,7 +32442,7 @@
       <c r="B400" s="23"/>
       <c r="C400" s="24"/>
       <c r="D400" s="17" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
@@ -32457,7 +32472,7 @@
       <c r="B401" s="23"/>
       <c r="C401" s="24"/>
       <c r="D401" s="17" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
@@ -32487,7 +32502,7 @@
       <c r="B402" s="23"/>
       <c r="C402" s="24"/>
       <c r="D402" s="17" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
@@ -32517,7 +32532,7 @@
       <c r="B403" s="23"/>
       <c r="C403" s="24"/>
       <c r="D403" s="17" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
@@ -32547,7 +32562,7 @@
       <c r="B404" s="23"/>
       <c r="C404" s="24"/>
       <c r="D404" s="17" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
@@ -32577,7 +32592,7 @@
       <c r="B405" s="23"/>
       <c r="C405" s="24"/>
       <c r="D405" s="17" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
@@ -32607,7 +32622,7 @@
       <c r="B406" s="23"/>
       <c r="C406" s="24"/>
       <c r="D406" s="17" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
@@ -32637,7 +32652,7 @@
       <c r="B407" s="23"/>
       <c r="C407" s="24"/>
       <c r="D407" s="17" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
@@ -32667,7 +32682,7 @@
       <c r="B408" s="23"/>
       <c r="C408" s="24"/>
       <c r="D408" s="17" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
@@ -32697,7 +32712,7 @@
       <c r="B409" s="23"/>
       <c r="C409" s="24"/>
       <c r="D409" s="17" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
@@ -32727,7 +32742,7 @@
       <c r="B410" s="23"/>
       <c r="C410" s="24"/>
       <c r="D410" s="17" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
@@ -32838,14 +32853,14 @@
     </row>
     <row r="414" ht="15">
       <c r="A414" s="57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B414" s="23"/>
       <c r="C414" s="24" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D414" s="17" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
@@ -32875,7 +32890,7 @@
       <c r="B415" s="23"/>
       <c r="C415" s="24"/>
       <c r="D415" s="17" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
@@ -33042,12 +33057,12 @@
     </row>
     <row r="421" ht="15">
       <c r="A421" s="56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B421" s="23"/>
       <c r="C421" s="24"/>
       <c r="D421" s="17" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
@@ -33077,7 +33092,7 @@
       <c r="B422" s="23"/>
       <c r="C422" s="24"/>
       <c r="D422" s="17" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
@@ -33107,7 +33122,7 @@
       <c r="B423" s="23"/>
       <c r="C423" s="24"/>
       <c r="D423" s="17" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
@@ -33136,10 +33151,10 @@
       <c r="A424" s="56"/>
       <c r="B424" s="23"/>
       <c r="C424" s="24" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D424" s="17" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
@@ -33168,10 +33183,10 @@
       <c r="A425" s="56"/>
       <c r="B425" s="23"/>
       <c r="C425" s="24" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D425" s="17" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
@@ -33200,10 +33215,10 @@
       <c r="A426" s="56"/>
       <c r="B426" s="23"/>
       <c r="C426" s="24" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D426" s="17" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
@@ -33233,7 +33248,7 @@
       <c r="B427" s="23"/>
       <c r="C427" s="24"/>
       <c r="D427" s="17" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
@@ -33263,7 +33278,7 @@
       <c r="B428" s="23"/>
       <c r="C428" s="24"/>
       <c r="D428" s="17" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
@@ -33292,10 +33307,10 @@
       <c r="A429" s="56"/>
       <c r="B429" s="23"/>
       <c r="C429" s="24" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D429" s="17" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
@@ -33324,10 +33339,10 @@
       <c r="A430" s="56"/>
       <c r="B430" s="23"/>
       <c r="C430" s="24" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D430" s="17" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
@@ -33413,7 +33428,7 @@
       <c r="B433" s="58"/>
       <c r="C433" s="24"/>
       <c r="D433" s="17" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
@@ -54513,6 +54528,9 @@
     <mergeCell ref="A414:A420"/>
     <mergeCell ref="A421:A431"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E208"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51181102362204689" footer="0.51181102362204689"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -54535,128 +54553,128 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" ht="12.75">
       <c r="A3" s="61" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="A5" s="62" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" ht="12.75">
       <c r="A6" s="62" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="A7" s="62" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="A8" s="62" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" s="62" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="A10" s="62" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="A11" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" ht="12.75">
       <c r="A12" s="62" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" ht="12.75">
       <c r="A13" s="62" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" ht="12.75">
       <c r="A14" s="62" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" ht="12.75">
       <c r="A15" s="62" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" ht="12.75">
       <c r="A16" s="62" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" ht="12.75">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" ht="12.75">
       <c r="A18" s="62" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" ht="12.75">
       <c r="A19" s="62" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" ht="12.75">
       <c r="A20" s="62" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" ht="12.75">
       <c r="A21" s="62" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" ht="12.75">
       <c r="A22" s="35" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" ht="12.75">
       <c r="A23" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" ht="12.75">
       <c r="A24" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" ht="12.75"/>
@@ -54687,17 +54705,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="63" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="A2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" ht="12.75">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -54715,14 +54733,14 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,16 +11,15 @@
     <sheet name="Literature" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Philosophy" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Religius Texts" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Internet Age PDFs" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Brazil" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Psychedelics" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Brazil" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Psychedelics" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="1151">
   <si>
     <t xml:space="preserve">Euclid - Elements</t>
   </si>
@@ -1982,27 +1981,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rosarium Philosophorum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Critique of “Reason” Luke Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaving the Cathedral Ryan Faulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Faulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always the Hoprizon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murdoch Murdoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steelstorm by Thomas777</t>
   </si>
   <si>
     <t>Title</t>
@@ -3635,7 +3613,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3726,9 +3704,6 @@
     </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4519,7 +4494,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="100" workbookViewId="0">
       <selection activeCell="G128" activeCellId="0" sqref="G128"/>
     </sheetView>
   </sheetViews>
@@ -4994,7 +4969,7 @@
       <c r="B48" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -48849,46 +48824,4185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="46.140625"/>
-    <col customWidth="1" min="2" max="2" width="20.8515625"/>
+    <col customWidth="1" min="1" max="1" style="36" width="92.57421875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="35" width="46.2734375"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="35" width="64.04296875"/>
+    <col bestFit="1" min="4" max="4" style="35" width="5.15234375"/>
+    <col min="5" max="16384" style="35" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" ht="14.25">
+      <c r="A1" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="37" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" s="36" t="s">
         <v>656</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="36" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="3" ht="14.25">
+      <c r="A3" s="38" t="s">
         <v>658</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="38" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="4" ht="12.75">
-      <c r="A4" t="s">
+      <c r="B4" s="36" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="13"/>
+      <c r="C4" s="36" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>669</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="38" t="s">
+        <v>677</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="38" t="s">
+        <v>683</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>678</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>689</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>698</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>698</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40" s="38" t="s">
+        <v>710</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="38" t="s">
+        <v>716</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="38" t="s">
+        <v>719</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>718</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="38" t="s">
+        <v>727</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="38" t="s">
+        <v>729</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="38" t="s">
+        <v>735</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="38" t="s">
+        <v>736</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="38" t="s">
+        <v>738</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="38" t="s">
+        <v>739</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="38" t="s">
+        <v>741</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="38" t="s">
+        <v>742</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="38" t="s">
+        <v>745</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="38" t="s">
+        <v>747</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="38" t="s">
+        <v>748</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>746</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="38" t="s">
+        <v>749</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="38" t="s">
+        <v>754</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="38" t="s">
+        <v>755</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="38" t="s">
+        <v>758</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="38" t="s">
+        <v>759</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>750</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="38" t="s">
+        <v>760</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="38" t="s">
+        <v>763</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="38" t="s">
+        <v>764</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="38" t="s">
+        <v>766</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="38" t="s">
+        <v>768</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="38" t="s">
+        <v>769</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="38" t="s">
+        <v>771</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="38" t="s">
+        <v>779</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>782</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="38" t="s">
+        <v>783</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="38" t="s">
+        <v>785</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="38" t="s">
+        <v>786</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="38" t="s">
+        <v>787</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="38" t="s">
+        <v>790</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>789</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="102" ht="15">
+      <c r="A102" s="41"/>
+      <c r="B102" s="36" t="s">
+        <v>793</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="42"/>
+      <c r="B103" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="38" t="s">
+        <v>796</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="38" t="s">
+        <v>797</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="38" t="s">
+        <v>798</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="38" t="s">
+        <v>799</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="38" t="s">
+        <v>800</v>
+      </c>
+      <c r="B108" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="38" t="s">
+        <v>801</v>
+      </c>
+      <c r="B109" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="38" t="s">
+        <v>802</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="B111" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="38" t="s">
+        <v>805</v>
+      </c>
+      <c r="B112" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="38" t="s">
+        <v>806</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="38" t="s">
+        <v>807</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="38" t="s">
+        <v>811</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>812</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="38" t="s">
+        <v>813</v>
+      </c>
+      <c r="B118" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="C118" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="38" t="s">
+        <v>815</v>
+      </c>
+      <c r="B119" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="C119" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="C120" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="38" t="s">
+        <v>818</v>
+      </c>
+      <c r="B121" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="B123" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="C123" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="38" t="s">
+        <v>821</v>
+      </c>
+      <c r="B124" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="C124" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="B125" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="38" t="s">
+        <v>824</v>
+      </c>
+      <c r="B126" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="C126" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="38" t="s">
+        <v>825</v>
+      </c>
+      <c r="B127" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="C127" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="38" t="s">
+        <v>826</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="C129" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="B130" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="C130" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="38" t="s">
+        <v>831</v>
+      </c>
+      <c r="B131" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="38" t="s">
+        <v>833</v>
+      </c>
+      <c r="B133" s="36" t="s">
+        <v>828</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="38" t="s">
+        <v>836</v>
+      </c>
+      <c r="B135" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="C135" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="38" t="s">
+        <v>837</v>
+      </c>
+      <c r="B136" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="38" t="s">
+        <v>838</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="B138" s="36" t="s">
+        <v>840</v>
+      </c>
+      <c r="C138" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="B139" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="C139" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C143" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C144" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="C145" s="36" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="B148" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="C148" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="38" t="s">
+        <v>854</v>
+      </c>
+      <c r="B149" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="C149" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="38" t="s">
+        <v>856</v>
+      </c>
+      <c r="B150" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="C151" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="38" t="s">
+        <v>858</v>
+      </c>
+      <c r="B152" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="C152" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="38" t="s">
+        <v>860</v>
+      </c>
+      <c r="B153" s="36" t="s">
+        <v>859</v>
+      </c>
+      <c r="C153" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="38" t="s">
+        <v>861</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="C154" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="38" t="s">
+        <v>863</v>
+      </c>
+      <c r="B155" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="C155" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="38" t="s">
+        <v>864</v>
+      </c>
+      <c r="B156" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="C156" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="C158" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="38" t="s">
+        <v>867</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="38" t="s">
+        <v>868</v>
+      </c>
+      <c r="B160" s="36" t="s">
+        <v>862</v>
+      </c>
+      <c r="C160" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="38" t="s">
+        <v>869</v>
+      </c>
+      <c r="B161" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="C161" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="38" t="s">
+        <v>871</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="38" t="s">
+        <v>873</v>
+      </c>
+      <c r="B164" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="38" t="s">
+        <v>874</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>870</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="38" t="s">
+        <v>875</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="C166" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>878</v>
+      </c>
+      <c r="C167" s="36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="38" t="s">
+        <v>879</v>
+      </c>
+      <c r="B168" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="C168" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="38" t="s">
+        <v>882</v>
+      </c>
+      <c r="B169" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="C169" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="38" t="s">
+        <v>883</v>
+      </c>
+      <c r="B170" s="36" t="s">
+        <v>884</v>
+      </c>
+      <c r="C170" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="38" t="s">
+        <v>885</v>
+      </c>
+      <c r="B171" s="36" t="s">
+        <v>886</v>
+      </c>
+      <c r="C171" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="38" t="s">
+        <v>887</v>
+      </c>
+      <c r="B172" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="C172" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="38" t="s">
+        <v>889</v>
+      </c>
+      <c r="B173" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="C173" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="38" t="s">
+        <v>890</v>
+      </c>
+      <c r="B174" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="C174" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="38" t="s">
+        <v>891</v>
+      </c>
+      <c r="B175" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="38" t="s">
+        <v>892</v>
+      </c>
+      <c r="B176" s="36" t="s">
+        <v>888</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="38" t="s">
+        <v>893</v>
+      </c>
+      <c r="B177" s="36" t="s">
+        <v>894</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="38" t="s">
+        <v>895</v>
+      </c>
+      <c r="B178" s="36" t="s">
+        <v>894</v>
+      </c>
+      <c r="C178" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="38" t="s">
+        <v>896</v>
+      </c>
+      <c r="B179" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="38" t="s">
+        <v>898</v>
+      </c>
+      <c r="B180" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="38" t="s">
+        <v>899</v>
+      </c>
+      <c r="B181" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="38" t="s">
+        <v>900</v>
+      </c>
+      <c r="B182" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="38" t="s">
+        <v>901</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="38" t="s">
+        <v>902</v>
+      </c>
+      <c r="B184" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C184" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="38" t="s">
+        <v>903</v>
+      </c>
+      <c r="B185" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="38" t="s">
+        <v>904</v>
+      </c>
+      <c r="B186" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="38" t="s">
+        <v>905</v>
+      </c>
+      <c r="B187" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C187" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="38" t="s">
+        <v>906</v>
+      </c>
+      <c r="B188" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C188" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="38" t="s">
+        <v>907</v>
+      </c>
+      <c r="B189" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="38" t="s">
+        <v>908</v>
+      </c>
+      <c r="B190" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C190" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="38" t="s">
+        <v>909</v>
+      </c>
+      <c r="B191" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C191" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="38" t="s">
+        <v>910</v>
+      </c>
+      <c r="B192" s="36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C192" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="B193" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C193" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="38" t="s">
+        <v>913</v>
+      </c>
+      <c r="B194" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C194" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="38" t="s">
+        <v>914</v>
+      </c>
+      <c r="B195" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C195" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="B196" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C196" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="38" t="s">
+        <v>916</v>
+      </c>
+      <c r="B197" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C197" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="38" t="s">
+        <v>917</v>
+      </c>
+      <c r="B198" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C198" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="38" t="s">
+        <v>918</v>
+      </c>
+      <c r="B199" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C199" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="38" t="s">
+        <v>919</v>
+      </c>
+      <c r="B200" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="38" t="s">
+        <v>920</v>
+      </c>
+      <c r="B201" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C201" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="38" t="s">
+        <v>921</v>
+      </c>
+      <c r="B202" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C202" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="38" t="s">
+        <v>922</v>
+      </c>
+      <c r="B203" s="36" t="s">
+        <v>912</v>
+      </c>
+      <c r="C203" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="38" t="s">
+        <v>923</v>
+      </c>
+      <c r="B204" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C204" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="38" t="s">
+        <v>925</v>
+      </c>
+      <c r="B205" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C205" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="38" t="s">
+        <v>926</v>
+      </c>
+      <c r="B206" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C206" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="38" t="s">
+        <v>927</v>
+      </c>
+      <c r="B207" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C207" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="38" t="s">
+        <v>928</v>
+      </c>
+      <c r="B208" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C208" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="38" t="s">
+        <v>929</v>
+      </c>
+      <c r="B209" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C209" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="38" t="s">
+        <v>930</v>
+      </c>
+      <c r="B210" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C210" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="38" t="s">
+        <v>931</v>
+      </c>
+      <c r="B211" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C211" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="38" t="s">
+        <v>932</v>
+      </c>
+      <c r="B212" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C212" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="38" t="s">
+        <v>933</v>
+      </c>
+      <c r="B213" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C213" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="38" t="s">
+        <v>934</v>
+      </c>
+      <c r="B214" s="36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C214" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="38" t="s">
+        <v>935</v>
+      </c>
+      <c r="B215" s="36" t="s">
+        <v>936</v>
+      </c>
+      <c r="C215" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="B216" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="C216" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="B217" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="C217" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="38" t="s">
+        <v>940</v>
+      </c>
+      <c r="B218" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="C218" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="B219" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="C219" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="38" t="s">
+        <v>942</v>
+      </c>
+      <c r="B220" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="C220" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="38" t="s">
+        <v>943</v>
+      </c>
+      <c r="B221" s="36" t="s">
+        <v>938</v>
+      </c>
+      <c r="C221" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="B222" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C222" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="38" t="s">
+        <v>946</v>
+      </c>
+      <c r="B223" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C223" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="B224" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C224" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="B225" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="C225" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="B226" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C226" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="B227" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C227" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="B228" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C228" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="38" t="s">
+        <v>953</v>
+      </c>
+      <c r="B229" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C229" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="38" t="s">
+        <v>954</v>
+      </c>
+      <c r="B230" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="C230" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="38" t="s">
+        <v>956</v>
+      </c>
+      <c r="B231" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="C231" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="B232" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="C232" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="38" t="s">
+        <v>958</v>
+      </c>
+      <c r="B233" s="36" t="s">
+        <v>959</v>
+      </c>
+      <c r="C233" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="B234" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C234" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="B235" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C235" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="38" t="s">
+        <v>963</v>
+      </c>
+      <c r="B236" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C236" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="38" t="s">
+        <v>964</v>
+      </c>
+      <c r="B237" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C237" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="38" t="s">
+        <v>965</v>
+      </c>
+      <c r="B238" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C238" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="B239" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C239" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="38" t="s">
+        <v>967</v>
+      </c>
+      <c r="B240" s="36" t="s">
+        <v>961</v>
+      </c>
+      <c r="C240" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="B241" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C241" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="38" t="s">
+        <v>970</v>
+      </c>
+      <c r="B242" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C242" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="38" t="s">
+        <v>971</v>
+      </c>
+      <c r="B243" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C243" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="38" t="s">
+        <v>972</v>
+      </c>
+      <c r="B244" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C244" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="38" t="s">
+        <v>973</v>
+      </c>
+      <c r="B245" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C245" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="B246" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C246" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="B247" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C247" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="B248" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C248" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="38" t="s">
+        <v>977</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C249" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="38" t="s">
+        <v>978</v>
+      </c>
+      <c r="B250" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C250" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="B251" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C251" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="38" t="s">
+        <v>980</v>
+      </c>
+      <c r="B252" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C252" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="B253" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C253" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="38" t="s">
+        <v>982</v>
+      </c>
+      <c r="B254" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C254" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="38" t="s">
+        <v>983</v>
+      </c>
+      <c r="B255" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C255" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="38" t="s">
+        <v>984</v>
+      </c>
+      <c r="B256" s="36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C256" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="38" t="s">
+        <v>985</v>
+      </c>
+      <c r="B257" s="36" t="s">
+        <v>986</v>
+      </c>
+      <c r="C257" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="B258" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C258" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="38" t="s">
+        <v>989</v>
+      </c>
+      <c r="B259" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C259" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="B260" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C260" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="B261" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C261" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="B262" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C262" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="38" t="s">
+        <v>993</v>
+      </c>
+      <c r="B263" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C263" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="38" t="s">
+        <v>994</v>
+      </c>
+      <c r="B264" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C264" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="B265" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C265" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="B266" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C266" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="B267" s="36" t="s">
+        <v>988</v>
+      </c>
+      <c r="C267" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="B268" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C268" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B269" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C269" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B270" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C270" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B271" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C271" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B272" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C272" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B273" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C273" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B274" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C274" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B275" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C275" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B276" s="36" t="s">
+        <v>999</v>
+      </c>
+      <c r="C276" s="36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B277" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C277" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B278" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C278" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B279" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C279" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="38" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B280" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C280" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="38" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B281" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C281" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="38" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B282" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C282" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B283" s="36" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C283" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B284" s="36" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C284" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B285" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C285" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B286" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C286" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B287" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C287" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B288" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C288" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="38" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B289" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C289" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B290" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C290" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B291" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C291" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="38" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B292" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C292" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B293" s="36" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C293" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B294" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C294" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B295" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C295" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="38" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B296" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C296" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="38" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B297" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C297" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="38" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B298" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C298" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="38" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B299" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C299" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="38" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B300" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C300" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="38" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B301" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C301" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="38" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B302" s="36" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C302" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="38" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B303" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C303" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="38" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B304" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C304" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B305" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C305" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="38" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B306" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C306" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="38" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B307" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C307" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="38" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B308" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C308" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="38" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B309" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C309" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="38" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B310" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C310" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="38" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B311" s="36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C311" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="38" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B312" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C312" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="38" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B313" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C313" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B314" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C314" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="38" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B315" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C315" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B316" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C316" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="38" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B317" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C317" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="38" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B318" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C318" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="38" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B319" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C319" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B320" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C320" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B321" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C321" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B322" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C322" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="38" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B323" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C323" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B324" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C324" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="38" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B325" s="36" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C325" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="38" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B326" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C326" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B327" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C327" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B328" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C328" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B329" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C329" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="38" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B330" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C330" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B331" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C331" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="38" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B332" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C332" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="38" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B333" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C333" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B334" s="36" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C334" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B335" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C335" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="38" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B336" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C336" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="38" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B337" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C337" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="38" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B338" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C338" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="38" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B339" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C339" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="38" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B340" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C340" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="38" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B341" s="36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C341" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="38" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B342" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C342" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="38" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B343" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C343" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="38" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B344" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C344" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B345" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C345" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B346" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C346" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="38" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B347" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C347" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="38" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B348" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C348" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="38" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B349" s="36" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C349" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="38" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B350" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C350" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="38" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B351" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C351" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="38" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B352" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C352" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="38" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B353" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C353" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="38" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B354" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C354" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="38" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B355" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C355" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B356" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C356" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="38" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B357" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C357" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="38" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B358" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C358" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="38" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B359" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C359" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="38" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B360" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C360" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="38" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B361" s="36" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C361" s="36" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B362" s="36"/>
+      <c r="C362" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="38" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B364" s="35"/>
+      <c r="C364" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="38" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B365" s="35"/>
+      <c r="C365" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B366" s="35"/>
+      <c r="C366" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="38" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B367" s="35"/>
+      <c r="C367" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B368" s="35"/>
+      <c r="C368" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B369" s="35"/>
+      <c r="C369" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="38" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C370" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="38" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C371" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="38" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C372" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="38" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B373" s="35"/>
+      <c r="C373" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="38" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C374" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="38" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C375" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="38" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C376" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="38" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C377" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="38" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C378" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="38" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C379" s="36" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="38" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C380" s="35"/>
+    </row>
+    <row r="381" ht="12.75">
+      <c r="C381" s="35"/>
+    </row>
+    <row r="382" ht="12.75">
+      <c r="C382" s="35"/>
+    </row>
+    <row r="383" ht="12.75">
+      <c r="C383" s="35"/>
+    </row>
+    <row r="384" ht="12.75">
+      <c r="C384" s="35"/>
+    </row>
+    <row r="385" ht="12.75">
+      <c r="C385" s="35"/>
+    </row>
+    <row r="386" ht="12.75">
+      <c r="C386" s="35"/>
+    </row>
+    <row r="387" ht="12.75">
+      <c r="C387" s="35"/>
+    </row>
+    <row r="388" ht="12.75">
+      <c r="C388" s="35"/>
+    </row>
+    <row r="389" ht="12.75">
+      <c r="C389" s="35"/>
+    </row>
+    <row r="390" ht="12.75">
+      <c r="C390" s="35"/>
+    </row>
+    <row r="391" ht="12.75">
+      <c r="C391" s="35"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A56"/>
+    <hyperlink r:id="rId2" ref="A57"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -48905,4318 +53019,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="37" width="92.57421875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="36" width="46.2734375"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="36" width="64.04296875"/>
-    <col bestFit="1" min="4" max="4" style="36" width="5.15234375"/>
-    <col min="5" max="16384" style="36" width="9.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="37" t="s">
-        <v>661</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>663</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>663</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="39" t="s">
-        <v>666</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>667</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="40" t="s">
-        <v>668</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="39" t="s">
-        <v>671</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>672</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="39" t="s">
-        <v>673</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>674</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="39" t="s">
-        <v>675</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>676</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="39" t="s">
-        <v>677</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>678</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>678</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>678</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="39" t="s">
-        <v>681</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>678</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="39" t="s">
-        <v>682</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>678</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="39" t="s">
-        <v>683</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>678</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="39" t="s">
-        <v>684</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="39" t="s">
-        <v>687</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="39" t="s">
-        <v>688</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="39" t="s">
-        <v>689</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="39" t="s">
-        <v>690</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="39" t="s">
-        <v>691</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="39" t="s">
-        <v>692</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="39" t="s">
-        <v>693</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="39" t="s">
-        <v>694</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>685</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>696</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="39" t="s">
-        <v>697</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" s="39" t="s">
-        <v>699</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" s="39" t="s">
-        <v>700</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="39" t="s">
-        <v>701</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="39" t="s">
-        <v>702</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="A30" s="39" t="s">
-        <v>703</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="A31" s="39" t="s">
-        <v>704</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25">
-      <c r="A32" s="39" t="s">
-        <v>706</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25">
-      <c r="A33" s="39" t="s">
-        <v>707</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>708</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="39" t="s">
-        <v>709</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>708</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35" s="39" t="s">
-        <v>710</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36" s="39" t="s">
-        <v>713</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37" s="39" t="s">
-        <v>714</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" s="39" t="s">
-        <v>715</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39" s="39" t="s">
-        <v>716</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" s="39" t="s">
-        <v>717</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="39" t="s">
-        <v>718</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="39" t="s">
-        <v>720</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="39" t="s">
-        <v>721</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="39" t="s">
-        <v>722</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="39" t="s">
-        <v>723</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>719</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" s="39" t="s">
-        <v>724</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>725</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" s="39" t="s">
-        <v>726</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>725</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49" s="39" t="s">
-        <v>729</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" s="39" t="s">
-        <v>730</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51" s="39" t="s">
-        <v>731</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52" s="39" t="s">
-        <v>732</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53" s="39" t="s">
-        <v>733</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>728</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>735</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="39" t="s">
-        <v>736</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>735</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="A56" s="41" t="s">
-        <v>737</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>738</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="A57" s="41" t="s">
-        <v>739</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>738</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58" s="39" t="s">
-        <v>740</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>741</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59" s="39" t="s">
-        <v>742</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>741</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="A60" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>744</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="A61" s="39" t="s">
-        <v>745</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>744</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="A62" s="39" t="s">
-        <v>746</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>747</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>747</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>750</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>750</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="39" t="s">
-        <v>755</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>753</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="39" t="s">
-        <v>758</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="39" t="s">
-        <v>759</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="39" t="s">
-        <v>761</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="39" t="s">
-        <v>762</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="39" t="s">
-        <v>763</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="39" t="s">
-        <v>764</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="39" t="s">
-        <v>765</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="39" t="s">
-        <v>766</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>757</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="39" t="s">
-        <v>767</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="39" t="s">
-        <v>770</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="39" t="s">
-        <v>771</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="39" t="s">
-        <v>772</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="39" t="s">
-        <v>773</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="39" t="s">
-        <v>774</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="39" t="s">
-        <v>775</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="39" t="s">
-        <v>776</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>777</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="39" t="s">
-        <v>778</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>779</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="39" t="s">
-        <v>780</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>779</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="39" t="s">
-        <v>781</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>779</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="39" t="s">
-        <v>782</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>779</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="B91" s="37" t="s">
-        <v>784</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="39" t="s">
-        <v>785</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>784</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="39" t="s">
-        <v>786</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>787</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="39" t="s">
-        <v>788</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>789</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="39" t="s">
-        <v>790</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>791</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="39" t="s">
-        <v>792</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>791</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="39" t="s">
-        <v>793</v>
-      </c>
-      <c r="B97" s="37" t="s">
-        <v>791</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="39" t="s">
-        <v>794</v>
-      </c>
-      <c r="B98" s="37" t="s">
-        <v>791</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="39" t="s">
-        <v>795</v>
-      </c>
-      <c r="B99" s="37" t="s">
-        <v>796</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="39" t="s">
-        <v>797</v>
-      </c>
-      <c r="B100" s="37" t="s">
-        <v>796</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="39" t="s">
-        <v>798</v>
-      </c>
-      <c r="B101" s="37" t="s">
-        <v>799</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="102" ht="15">
-      <c r="A102" s="42"/>
-      <c r="B102" s="37" t="s">
-        <v>800</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="43"/>
-      <c r="B103" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="39" t="s">
-        <v>803</v>
-      </c>
-      <c r="B104" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="39" t="s">
-        <v>804</v>
-      </c>
-      <c r="B105" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C105" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="39" t="s">
-        <v>805</v>
-      </c>
-      <c r="B106" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="39" t="s">
-        <v>806</v>
-      </c>
-      <c r="B107" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="39" t="s">
-        <v>807</v>
-      </c>
-      <c r="B108" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="39" t="s">
-        <v>808</v>
-      </c>
-      <c r="B109" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="39" t="s">
-        <v>809</v>
-      </c>
-      <c r="B110" s="37" t="s">
-        <v>801</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="39" t="s">
-        <v>810</v>
-      </c>
-      <c r="B111" s="37" t="s">
-        <v>811</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="39" t="s">
-        <v>812</v>
-      </c>
-      <c r="B112" s="37" t="s">
-        <v>811</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="39" t="s">
-        <v>813</v>
-      </c>
-      <c r="B113" s="37" t="s">
-        <v>811</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="39" t="s">
-        <v>814</v>
-      </c>
-      <c r="B114" s="37" t="s">
-        <v>811</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="39" t="s">
-        <v>815</v>
-      </c>
-      <c r="B115" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B116" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="C116" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="39" t="s">
-        <v>818</v>
-      </c>
-      <c r="B117" s="37" t="s">
-        <v>819</v>
-      </c>
-      <c r="C117" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="39" t="s">
-        <v>820</v>
-      </c>
-      <c r="B118" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="39" t="s">
-        <v>822</v>
-      </c>
-      <c r="B119" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="39" t="s">
-        <v>823</v>
-      </c>
-      <c r="B120" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="C120" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="39" t="s">
-        <v>825</v>
-      </c>
-      <c r="B121" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="39" t="s">
-        <v>826</v>
-      </c>
-      <c r="B122" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="39" t="s">
-        <v>827</v>
-      </c>
-      <c r="B123" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="C123" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="39" t="s">
-        <v>828</v>
-      </c>
-      <c r="B124" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="39" t="s">
-        <v>830</v>
-      </c>
-      <c r="B125" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="39" t="s">
-        <v>831</v>
-      </c>
-      <c r="B126" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="C126" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="39" t="s">
-        <v>832</v>
-      </c>
-      <c r="B127" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="39" t="s">
-        <v>833</v>
-      </c>
-      <c r="B128" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="39" t="s">
-        <v>834</v>
-      </c>
-      <c r="B129" s="37" t="s">
-        <v>835</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="39" t="s">
-        <v>837</v>
-      </c>
-      <c r="B130" s="37" t="s">
-        <v>835</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="39" t="s">
-        <v>838</v>
-      </c>
-      <c r="B131" s="37" t="s">
-        <v>835</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="39" t="s">
-        <v>839</v>
-      </c>
-      <c r="B132" s="37" t="s">
-        <v>835</v>
-      </c>
-      <c r="C132" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="39" t="s">
-        <v>840</v>
-      </c>
-      <c r="B133" s="37" t="s">
-        <v>835</v>
-      </c>
-      <c r="C133" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="B134" s="37" t="s">
-        <v>842</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="39" t="s">
-        <v>843</v>
-      </c>
-      <c r="B135" s="37" t="s">
-        <v>842</v>
-      </c>
-      <c r="C135" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="39" t="s">
-        <v>844</v>
-      </c>
-      <c r="B136" s="37" t="s">
-        <v>842</v>
-      </c>
-      <c r="C136" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="39" t="s">
-        <v>845</v>
-      </c>
-      <c r="B137" s="37" t="s">
-        <v>842</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="39" t="s">
-        <v>846</v>
-      </c>
-      <c r="B138" s="37" t="s">
-        <v>847</v>
-      </c>
-      <c r="C138" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="39" t="s">
-        <v>815</v>
-      </c>
-      <c r="B139" s="37" t="s">
-        <v>848</v>
-      </c>
-      <c r="C139" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="39" t="s">
-        <v>849</v>
-      </c>
-      <c r="B140" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="C140" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="39" t="s">
-        <v>851</v>
-      </c>
-      <c r="B141" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="C141" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="39" t="s">
-        <v>852</v>
-      </c>
-      <c r="B142" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="C142" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="39" t="s">
-        <v>853</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="39" t="s">
-        <v>854</v>
-      </c>
-      <c r="B144" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="C144" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="39" t="s">
-        <v>855</v>
-      </c>
-      <c r="B145" s="37" t="s">
-        <v>850</v>
-      </c>
-      <c r="C145" s="37" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="39" t="s">
-        <v>856</v>
-      </c>
-      <c r="B146" s="37" t="s">
-        <v>857</v>
-      </c>
-      <c r="C146" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="39" t="s">
-        <v>859</v>
-      </c>
-      <c r="B147" s="37" t="s">
-        <v>857</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="39" t="s">
-        <v>860</v>
-      </c>
-      <c r="B148" s="37" t="s">
-        <v>857</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="39" t="s">
-        <v>861</v>
-      </c>
-      <c r="B149" s="37" t="s">
-        <v>862</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="39" t="s">
-        <v>863</v>
-      </c>
-      <c r="B150" s="37" t="s">
-        <v>862</v>
-      </c>
-      <c r="C150" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="39" t="s">
-        <v>864</v>
-      </c>
-      <c r="B151" s="37" t="s">
-        <v>862</v>
-      </c>
-      <c r="C151" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="39" t="s">
-        <v>865</v>
-      </c>
-      <c r="B152" s="37" t="s">
-        <v>866</v>
-      </c>
-      <c r="C152" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="39" t="s">
-        <v>867</v>
-      </c>
-      <c r="B153" s="37" t="s">
-        <v>866</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="39" t="s">
-        <v>868</v>
-      </c>
-      <c r="B154" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C154" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="39" t="s">
-        <v>870</v>
-      </c>
-      <c r="B155" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C155" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="39" t="s">
-        <v>871</v>
-      </c>
-      <c r="B156" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C156" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="39" t="s">
-        <v>872</v>
-      </c>
-      <c r="B157" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C157" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="39" t="s">
-        <v>873</v>
-      </c>
-      <c r="B158" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C158" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="39" t="s">
-        <v>874</v>
-      </c>
-      <c r="B159" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C159" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="39" t="s">
-        <v>875</v>
-      </c>
-      <c r="B160" s="37" t="s">
-        <v>869</v>
-      </c>
-      <c r="C160" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="39" t="s">
-        <v>876</v>
-      </c>
-      <c r="B161" s="37" t="s">
-        <v>877</v>
-      </c>
-      <c r="C161" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="39" t="s">
-        <v>878</v>
-      </c>
-      <c r="B162" s="37" t="s">
-        <v>877</v>
-      </c>
-      <c r="C162" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="39" t="s">
-        <v>879</v>
-      </c>
-      <c r="B163" s="37" t="s">
-        <v>877</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="B164" s="37" t="s">
-        <v>877</v>
-      </c>
-      <c r="C164" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="39" t="s">
-        <v>881</v>
-      </c>
-      <c r="B165" s="37" t="s">
-        <v>877</v>
-      </c>
-      <c r="C165" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="39" t="s">
-        <v>882</v>
-      </c>
-      <c r="B166" s="37" t="s">
-        <v>883</v>
-      </c>
-      <c r="C166" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="39" t="s">
-        <v>884</v>
-      </c>
-      <c r="B167" s="37" t="s">
-        <v>885</v>
-      </c>
-      <c r="C167" s="37" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="39" t="s">
-        <v>886</v>
-      </c>
-      <c r="B168" s="37" t="s">
-        <v>887</v>
-      </c>
-      <c r="C168" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="39" t="s">
-        <v>889</v>
-      </c>
-      <c r="B169" s="37" t="s">
-        <v>887</v>
-      </c>
-      <c r="C169" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="39" t="s">
-        <v>890</v>
-      </c>
-      <c r="B170" s="37" t="s">
-        <v>891</v>
-      </c>
-      <c r="C170" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="39" t="s">
-        <v>892</v>
-      </c>
-      <c r="B171" s="37" t="s">
-        <v>893</v>
-      </c>
-      <c r="C171" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="39" t="s">
-        <v>894</v>
-      </c>
-      <c r="B172" s="37" t="s">
-        <v>895</v>
-      </c>
-      <c r="C172" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="39" t="s">
-        <v>896</v>
-      </c>
-      <c r="B173" s="37" t="s">
-        <v>895</v>
-      </c>
-      <c r="C173" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="39" t="s">
-        <v>897</v>
-      </c>
-      <c r="B174" s="37" t="s">
-        <v>895</v>
-      </c>
-      <c r="C174" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="39" t="s">
-        <v>898</v>
-      </c>
-      <c r="B175" s="37" t="s">
-        <v>895</v>
-      </c>
-      <c r="C175" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="39" t="s">
-        <v>899</v>
-      </c>
-      <c r="B176" s="37" t="s">
-        <v>895</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="39" t="s">
-        <v>900</v>
-      </c>
-      <c r="B177" s="37" t="s">
-        <v>901</v>
-      </c>
-      <c r="C177" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="39" t="s">
-        <v>902</v>
-      </c>
-      <c r="B178" s="37" t="s">
-        <v>901</v>
-      </c>
-      <c r="C178" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="39" t="s">
-        <v>903</v>
-      </c>
-      <c r="B179" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C179" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="39" t="s">
-        <v>905</v>
-      </c>
-      <c r="B180" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C180" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="39" t="s">
-        <v>906</v>
-      </c>
-      <c r="B181" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C181" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="39" t="s">
-        <v>907</v>
-      </c>
-      <c r="B182" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C182" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="39" t="s">
-        <v>908</v>
-      </c>
-      <c r="B183" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C183" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="39" t="s">
-        <v>909</v>
-      </c>
-      <c r="B184" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C184" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="39" t="s">
-        <v>910</v>
-      </c>
-      <c r="B185" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C185" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="39" t="s">
-        <v>911</v>
-      </c>
-      <c r="B186" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C186" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="39" t="s">
-        <v>912</v>
-      </c>
-      <c r="B187" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C187" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="39" t="s">
-        <v>913</v>
-      </c>
-      <c r="B188" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C188" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="39" t="s">
-        <v>914</v>
-      </c>
-      <c r="B189" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C189" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="39" t="s">
-        <v>915</v>
-      </c>
-      <c r="B190" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C190" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="39" t="s">
-        <v>916</v>
-      </c>
-      <c r="B191" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C191" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="39" t="s">
-        <v>917</v>
-      </c>
-      <c r="B192" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="39" t="s">
-        <v>918</v>
-      </c>
-      <c r="B193" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C193" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="39" t="s">
-        <v>920</v>
-      </c>
-      <c r="B194" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C194" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="39" t="s">
-        <v>921</v>
-      </c>
-      <c r="B195" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C195" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="39" t="s">
-        <v>922</v>
-      </c>
-      <c r="B196" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C196" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="39" t="s">
-        <v>923</v>
-      </c>
-      <c r="B197" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="39" t="s">
-        <v>924</v>
-      </c>
-      <c r="B198" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C198" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="39" t="s">
-        <v>925</v>
-      </c>
-      <c r="B199" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C199" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="39" t="s">
-        <v>926</v>
-      </c>
-      <c r="B200" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C200" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="39" t="s">
-        <v>927</v>
-      </c>
-      <c r="B201" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C201" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="39" t="s">
-        <v>928</v>
-      </c>
-      <c r="B202" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C202" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="39" t="s">
-        <v>929</v>
-      </c>
-      <c r="B203" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="C203" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="39" t="s">
-        <v>930</v>
-      </c>
-      <c r="B204" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C204" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="39" t="s">
-        <v>932</v>
-      </c>
-      <c r="B205" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C205" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="39" t="s">
-        <v>933</v>
-      </c>
-      <c r="B206" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C206" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="39" t="s">
-        <v>934</v>
-      </c>
-      <c r="B207" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C207" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="39" t="s">
-        <v>935</v>
-      </c>
-      <c r="B208" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C208" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="39" t="s">
-        <v>936</v>
-      </c>
-      <c r="B209" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C209" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="39" t="s">
-        <v>937</v>
-      </c>
-      <c r="B210" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C210" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="39" t="s">
-        <v>938</v>
-      </c>
-      <c r="B211" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C211" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="39" t="s">
-        <v>939</v>
-      </c>
-      <c r="B212" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C212" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="39" t="s">
-        <v>940</v>
-      </c>
-      <c r="B213" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C213" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="39" t="s">
-        <v>941</v>
-      </c>
-      <c r="B214" s="37" t="s">
-        <v>931</v>
-      </c>
-      <c r="C214" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="39" t="s">
-        <v>942</v>
-      </c>
-      <c r="B215" s="37" t="s">
-        <v>943</v>
-      </c>
-      <c r="C215" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="39" t="s">
-        <v>944</v>
-      </c>
-      <c r="B216" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C216" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="39" t="s">
-        <v>946</v>
-      </c>
-      <c r="B217" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C217" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="39" t="s">
-        <v>947</v>
-      </c>
-      <c r="B218" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C218" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="39" t="s">
-        <v>948</v>
-      </c>
-      <c r="B219" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C219" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="39" t="s">
-        <v>949</v>
-      </c>
-      <c r="B220" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C220" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="39" t="s">
-        <v>950</v>
-      </c>
-      <c r="B221" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="C221" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="39" t="s">
-        <v>951</v>
-      </c>
-      <c r="B222" s="37" t="s">
-        <v>952</v>
-      </c>
-      <c r="C222" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="39" t="s">
-        <v>953</v>
-      </c>
-      <c r="B223" s="37" t="s">
-        <v>952</v>
-      </c>
-      <c r="C223" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="39" t="s">
-        <v>954</v>
-      </c>
-      <c r="B224" s="37" t="s">
-        <v>952</v>
-      </c>
-      <c r="C224" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="39" t="s">
-        <v>955</v>
-      </c>
-      <c r="B225" s="37" t="s">
-        <v>952</v>
-      </c>
-      <c r="C225" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="39" t="s">
-        <v>956</v>
-      </c>
-      <c r="B226" s="37" t="s">
-        <v>957</v>
-      </c>
-      <c r="C226" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="39" t="s">
-        <v>958</v>
-      </c>
-      <c r="B227" s="37" t="s">
-        <v>957</v>
-      </c>
-      <c r="C227" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="39" t="s">
-        <v>959</v>
-      </c>
-      <c r="B228" s="37" t="s">
-        <v>957</v>
-      </c>
-      <c r="C228" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="39" t="s">
-        <v>960</v>
-      </c>
-      <c r="B229" s="37" t="s">
-        <v>957</v>
-      </c>
-      <c r="C229" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="39" t="s">
-        <v>961</v>
-      </c>
-      <c r="B230" s="37" t="s">
-        <v>962</v>
-      </c>
-      <c r="C230" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="39" t="s">
-        <v>963</v>
-      </c>
-      <c r="B231" s="37" t="s">
-        <v>962</v>
-      </c>
-      <c r="C231" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="39" t="s">
-        <v>964</v>
-      </c>
-      <c r="B232" s="37" t="s">
-        <v>962</v>
-      </c>
-      <c r="C232" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="39" t="s">
-        <v>965</v>
-      </c>
-      <c r="B233" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="C233" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="39" t="s">
-        <v>967</v>
-      </c>
-      <c r="B234" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C234" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="39" t="s">
-        <v>969</v>
-      </c>
-      <c r="B235" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C235" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="39" t="s">
-        <v>970</v>
-      </c>
-      <c r="B236" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C236" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="39" t="s">
-        <v>971</v>
-      </c>
-      <c r="B237" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C237" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="39" t="s">
-        <v>972</v>
-      </c>
-      <c r="B238" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C238" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="39" t="s">
-        <v>973</v>
-      </c>
-      <c r="B239" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C239" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="39" t="s">
-        <v>974</v>
-      </c>
-      <c r="B240" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="C240" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="39" t="s">
-        <v>975</v>
-      </c>
-      <c r="B241" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C241" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="39" t="s">
-        <v>977</v>
-      </c>
-      <c r="B242" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C242" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="39" t="s">
-        <v>978</v>
-      </c>
-      <c r="B243" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C243" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="39" t="s">
-        <v>979</v>
-      </c>
-      <c r="B244" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C244" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="39" t="s">
-        <v>980</v>
-      </c>
-      <c r="B245" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C245" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="39" t="s">
-        <v>981</v>
-      </c>
-      <c r="B246" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C246" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="39" t="s">
-        <v>982</v>
-      </c>
-      <c r="B247" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C247" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="39" t="s">
-        <v>983</v>
-      </c>
-      <c r="B248" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C248" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="B249" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C249" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="39" t="s">
-        <v>985</v>
-      </c>
-      <c r="B250" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C250" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="39" t="s">
-        <v>986</v>
-      </c>
-      <c r="B251" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C251" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="39" t="s">
-        <v>987</v>
-      </c>
-      <c r="B252" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C252" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="39" t="s">
-        <v>988</v>
-      </c>
-      <c r="B253" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C253" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="39" t="s">
-        <v>989</v>
-      </c>
-      <c r="B254" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C254" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="39" t="s">
-        <v>990</v>
-      </c>
-      <c r="B255" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C255" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="39" t="s">
-        <v>991</v>
-      </c>
-      <c r="B256" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C256" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="39" t="s">
-        <v>992</v>
-      </c>
-      <c r="B257" s="37" t="s">
-        <v>993</v>
-      </c>
-      <c r="C257" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="39" t="s">
-        <v>994</v>
-      </c>
-      <c r="B258" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C258" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="39" t="s">
-        <v>996</v>
-      </c>
-      <c r="B259" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C259" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="39" t="s">
-        <v>997</v>
-      </c>
-      <c r="B260" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C260" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="39" t="s">
-        <v>998</v>
-      </c>
-      <c r="B261" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C261" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="39" t="s">
-        <v>999</v>
-      </c>
-      <c r="B262" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C262" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="39" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B263" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C263" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="39" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B264" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C264" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="39" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B265" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C265" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="39" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B266" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C266" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="39" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B267" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="C267" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B268" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C268" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="39" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B269" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C269" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="39" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B270" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C270" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="39" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B271" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C271" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="39" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B272" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C272" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="39" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B273" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C273" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="39" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B274" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C274" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="39" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B275" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C275" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="39" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B276" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C276" s="37" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="39" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B277" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C277" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="39" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B278" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C278" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="39" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B279" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C279" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="39" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B280" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C280" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="39" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B281" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C281" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="39" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B282" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C282" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="39" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B283" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C283" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="39" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B284" s="37" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C284" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="39" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B285" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C285" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="39" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B286" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C286" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="39" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B287" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C287" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="39" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B288" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C288" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="39" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B289" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C289" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="39" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B290" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C290" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="39" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B291" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C291" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="39" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B292" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C292" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="39" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B293" s="37" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C293" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="39" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B294" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C294" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="39" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B295" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C295" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="39" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B296" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C296" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="39" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B297" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C297" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="39" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B298" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C298" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="39" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B299" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C299" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="39" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B300" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C300" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="39" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B301" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C301" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="39" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B302" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C302" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="39" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B303" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C303" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="39" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B304" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C304" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="39" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B305" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C305" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="39" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B306" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C306" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="39" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B307" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C307" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="39" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B308" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C308" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="39" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B309" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C309" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="39" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B310" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C310" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="39" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B311" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C311" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="39" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B312" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C312" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="39" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B313" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C313" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="39" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B314" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C314" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="39" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B315" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C315" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="39" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B316" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C316" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B317" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C317" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B318" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C318" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="39" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B319" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C319" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="39" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B320" s="37" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B321" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C321" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B322" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C322" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B323" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C323" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B324" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C324" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B325" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C325" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B326" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C326" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B327" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C327" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="39" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B328" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C328" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B329" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C329" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="39" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B330" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C330" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B331" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C331" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="39" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B332" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C332" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B333" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C333" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="39" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B334" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C334" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="39" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B335" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C335" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="39" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B336" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C336" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="39" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B337" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C337" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="39" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B338" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C338" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="39" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B339" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C339" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B340" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C340" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="39" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B341" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C341" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="39" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B342" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C342" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="39" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B343" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C343" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="39" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B344" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C344" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="39" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B345" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C345" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="39" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B346" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C346" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="39" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B347" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C347" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="39" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B348" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C348" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="39" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B349" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C349" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="39" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B350" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C350" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="39" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B351" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C351" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="39" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B352" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C352" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="39" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B353" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C353" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="39" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B354" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C354" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="39" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B355" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C355" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="39" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B356" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C356" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="39" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B357" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C357" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="39" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B358" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C358" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="39" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B359" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C359" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="39" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B360" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C360" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="39" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B361" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C361" s="37" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="39" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B362" s="37"/>
-      <c r="C362" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="39" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B363" s="36"/>
-      <c r="C363" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="39" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B364" s="36"/>
-      <c r="C364" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="39" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B365" s="36"/>
-      <c r="C365" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="39" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B366" s="36"/>
-      <c r="C366" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="39" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B367" s="36"/>
-      <c r="C367" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="39" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B368" s="36"/>
-      <c r="C368" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="39" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B369" s="36"/>
-      <c r="C369" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="39" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C370" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="39" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C371" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="39" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C372" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="39" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B373" s="36"/>
-      <c r="C373" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="39" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C374" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="39" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C375" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C376" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C377" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="39" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C378" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="39" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C379" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="39" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C380" s="36"/>
-    </row>
-    <row r="381" ht="12.75">
-      <c r="C381" s="36"/>
-    </row>
-    <row r="382" ht="12.75">
-      <c r="C382" s="36"/>
-    </row>
-    <row r="383" ht="12.75">
-      <c r="C383" s="36"/>
-    </row>
-    <row r="384" ht="12.75">
-      <c r="C384" s="36"/>
-    </row>
-    <row r="385" ht="12.75">
-      <c r="C385" s="36"/>
-    </row>
-    <row r="386" ht="12.75">
-      <c r="C386" s="36"/>
-    </row>
-    <row r="387" ht="12.75">
-      <c r="C387" s="36"/>
-    </row>
-    <row r="388" ht="12.75">
-      <c r="C388" s="36"/>
-    </row>
-    <row r="389" ht="12.75">
-      <c r="C389" s="36"/>
-    </row>
-    <row r="390" ht="12.75">
-      <c r="C390" s="36"/>
-    </row>
-    <row r="391" ht="12.75">
-      <c r="C391" s="36"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A56"/>
-    <hyperlink r:id="rId2" ref="A57"/>
-  </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
     <col customWidth="1" min="1" max="1" width="108.8515625"/>
     <col customWidth="1" min="2" max="2" width="63.28125"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>661</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="2" ht="25.5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5">
+      <c r="A3" s="44" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5">
+      <c r="A4" s="44" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5">
+      <c r="A5" s="44" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B5" t="s">
         <v>1131</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" ht="25.5">
+      <c r="A6" s="44" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="3" ht="25.5">
-      <c r="A3" s="35" t="s">
+      <c r="B6" t="s">
         <v>1133</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="7" ht="25.5">
+      <c r="A7" s="44" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="4" ht="25.5">
-      <c r="A4" s="35" t="s">
+      <c r="B7" t="s">
         <v>1135</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" ht="38.25">
+      <c r="A8" s="44" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="5" ht="25.5">
-      <c r="A5" s="35" t="s">
+      <c r="B8" t="s">
         <v>1137</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" ht="25.5">
+      <c r="A9" s="44" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="6" ht="25.5">
-      <c r="A6" s="35" t="s">
+      <c r="B9" t="s">
         <v>1139</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" ht="38.25">
+      <c r="A10" s="44" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="7" ht="25.5">
-      <c r="A7" s="35" t="s">
+      <c r="B10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5">
+      <c r="A11" s="44" t="s">
         <v>1141</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="8" ht="38.25">
-      <c r="A8" s="35" t="s">
+    <row r="12" ht="25.5">
+      <c r="A12" s="44" t="s">
         <v>1143</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="9" ht="25.5">
-      <c r="A9" s="35" t="s">
+    <row r="13" ht="25.5">
+      <c r="A13" s="44" t="s">
         <v>1145</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="10" ht="38.25">
-      <c r="A10" s="45" t="s">
+    <row r="14" ht="25.5">
+      <c r="A14" s="44" t="s">
         <v>1147</v>
       </c>
-      <c r="B10" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5">
-      <c r="A11" s="35" t="s">
+      <c r="B14" t="s">
         <v>1148</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="15" ht="25.5">
+      <c r="A15" s="44" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="12" ht="25.5">
-      <c r="A12" s="35" t="s">
+      <c r="B15" t="s">
         <v>1150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5">
-      <c r="A13" s="35" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5">
-      <c r="A14" s="35" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5">
-      <c r="A15" s="35" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1157</v>
       </c>
     </row>
   </sheetData>

--- a/Catalog.xlsx
+++ b/Catalog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Math" sheetId="1" state="visible" r:id="rId1"/>
@@ -3406,12 +3406,13 @@
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="10.500000"/>
-      <name val="Consolas"/>
+      <sz val="11.000000"/>
+      <color theme="1" tint="0"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
-      <name val="Consolas"/>
+      <sz val="10.500000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -3421,7 +3422,7 @@
     <font>
       <sz val="10.000000"/>
       <color indexed="2"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3480,7 +3481,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3561,12 +3562,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -23232,7 +23237,7 @@
       <c r="X170" s="4"/>
       <c r="Y170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" ht="14.25">
       <c r="A171" s="15" t="s">
         <v>440</v>
       </c>
@@ -23265,7 +23270,7 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" ht="14.25">
       <c r="A172" s="15" t="s">
         <v>440</v>
       </c>
@@ -23296,7 +23301,7 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" ht="14.25">
       <c r="A173" s="15" t="s">
         <v>440</v>
       </c>
@@ -23329,7 +23334,7 @@
       <c r="X173" s="4"/>
       <c r="Y173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" ht="14.25">
       <c r="A174" s="15" t="s">
         <v>440</v>
       </c>
@@ -23360,7 +23365,7 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" ht="14.25">
       <c r="A175" s="15" t="s">
         <v>440</v>
       </c>
@@ -23391,7 +23396,7 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" ht="14.25">
       <c r="A176" s="15" t="s">
         <v>440</v>
       </c>
@@ -23422,7 +23427,7 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" ht="14.25">
       <c r="A177" s="15" t="s">
         <v>440</v>
       </c>
@@ -23453,7 +23458,7 @@
       <c r="X177" s="4"/>
       <c r="Y177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" ht="14.25">
       <c r="A178" s="15" t="s">
         <v>440</v>
       </c>
@@ -23486,7 +23491,7 @@
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" ht="14.25">
       <c r="A179" s="15" t="s">
         <v>440</v>
       </c>
@@ -23517,7 +23522,7 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" ht="14.25">
       <c r="A180" s="15" t="s">
         <v>440</v>
       </c>
@@ -23548,7 +23553,7 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" ht="14.25">
       <c r="A181" s="15" t="s">
         <v>440</v>
       </c>
@@ -23579,7 +23584,7 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" ht="14.25">
       <c r="A182" s="15" t="s">
         <v>440</v>
       </c>
@@ -23610,7 +23615,7 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" ht="14.25">
       <c r="A183" s="15" t="s">
         <v>465</v>
       </c>
@@ -23641,7 +23646,7 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" ht="14.25">
       <c r="A184" s="15" t="s">
         <v>465</v>
       </c>
@@ -23674,7 +23679,7 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" ht="14.25">
       <c r="A185" s="15" t="s">
         <v>465</v>
       </c>
@@ -23705,7 +23710,7 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" ht="14.25">
       <c r="A186" s="15" t="s">
         <v>465</v>
       </c>
@@ -23736,7 +23741,7 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" ht="14.25">
       <c r="A187" s="15" t="s">
         <v>465</v>
       </c>
@@ -23767,7 +23772,7 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" ht="14.25">
       <c r="A188" s="15" t="s">
         <v>465</v>
       </c>
@@ -23798,7 +23803,7 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" ht="14.25">
       <c r="A189" s="15" t="s">
         <v>465</v>
       </c>
@@ -23828,7 +23833,7 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" ht="14.25">
       <c r="A190" s="15" t="s">
         <v>465</v>
       </c>
@@ -23858,7 +23863,7 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" ht="14.25">
       <c r="A191" s="15" t="s">
         <v>465</v>
       </c>
@@ -23888,7 +23893,7 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" ht="14.25">
       <c r="A192" s="15" t="s">
         <v>465</v>
       </c>
@@ -48648,3992 +48653,4368 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>654</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>655</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>657</v>
       </c>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>658</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>657</v>
       </c>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>659</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>660</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>657</v>
       </c>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>664</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>665</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>666</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>667</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>670</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>672</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="34" t="s">
         <v>673</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>674</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>675</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="34" t="s">
         <v>676</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>671</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>663</v>
       </c>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>677</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>680</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>681</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="34" t="s">
         <v>682</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>683</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>684</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>686</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="34" t="s">
         <v>687</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>678</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="34" t="s">
         <v>688</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>689</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="34" t="s">
         <v>690</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="34" t="s">
         <v>693</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="34" t="s">
         <v>694</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>695</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="34" t="s">
         <v>696</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>691</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="34" t="s">
         <v>697</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>698</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="34" t="s">
         <v>699</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>698</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="34" t="s">
         <v>700</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="34" t="s">
         <v>702</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>701</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>679</v>
       </c>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>703</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="34" t="s">
         <v>706</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>707</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="34" t="s">
         <v>708</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="34" t="s">
         <v>709</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="34" t="s">
         <v>710</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>704</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="34" t="s">
         <v>711</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="34" t="s">
         <v>714</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="34" t="s">
         <v>715</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>712</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="34" t="s">
         <v>717</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="34" t="s">
         <v>719</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>718</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="34" t="s">
         <v>722</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="34" t="s">
         <v>723</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D50" s="32"/>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="34" t="s">
         <v>724</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="34" t="s">
         <v>725</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="34" t="s">
         <v>726</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="34" t="s">
         <v>727</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="31" t="s">
         <v>728</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="34" t="s">
         <v>729</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="31" t="s">
         <v>728</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="36" t="s">
         <v>730</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="34" t="s">
         <v>733</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="34" t="s">
         <v>735</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="34" t="s">
         <v>736</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="31" t="s">
         <v>737</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="34" t="s">
         <v>738</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="31" t="s">
         <v>737</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="34" t="s">
         <v>739</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="31" t="s">
         <v>740</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="34" t="s">
         <v>741</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="31" t="s">
         <v>740</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="34" t="s">
         <v>742</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="34" t="s">
         <v>744</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="32" t="s">
+      <c r="A66" s="34" t="s">
         <v>745</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="34" t="s">
         <v>747</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D67" s="32"/>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="34" t="s">
         <v>748</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="31" t="s">
         <v>746</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="31" t="s">
         <v>705</v>
       </c>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="34" t="s">
         <v>749</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D69" s="32"/>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="34" t="s">
         <v>752</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D70" s="32"/>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="34" t="s">
         <v>753</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="34" t="s">
         <v>754</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="34" t="s">
         <v>755</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="34" t="s">
         <v>756</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="34" t="s">
         <v>758</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D75" s="32"/>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D76" s="32"/>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D77" s="32"/>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="34" t="s">
         <v>762</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D78" s="32"/>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="34" t="s">
         <v>763</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="31" t="s">
         <v>764</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D79" s="32"/>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="34" t="s">
         <v>765</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="31" t="s">
         <v>764</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D80" s="32"/>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="34" t="s">
         <v>766</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="31" t="s">
         <v>767</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D81" s="32"/>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D82" s="32"/>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="34" t="s">
         <v>770</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D83" s="32"/>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="34" t="s">
         <v>772</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D84" s="32"/>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="34" t="s">
         <v>773</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D85" s="32"/>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="34" t="s">
         <v>774</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="C86" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="34" t="s">
         <v>775</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="34" t="s">
         <v>777</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="31" t="s">
         <v>776</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="34" t="s">
         <v>778</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="30" t="s">
+      <c r="A90" s="37"/>
+      <c r="B90" s="31" t="s">
         <v>780</v>
       </c>
-      <c r="C90" s="30" t="s">
+      <c r="C90" s="31" t="s">
         <v>751</v>
       </c>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="34" t="s">
         <v>781</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="C91" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D91" s="32"/>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="32" t="s">
+      <c r="A92" s="34" t="s">
         <v>784</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D92" s="32"/>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="34" t="s">
         <v>785</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D93" s="32"/>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="34" t="s">
         <v>786</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="C94" s="30" t="s">
+      <c r="C94" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D94" s="32"/>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="34" t="s">
         <v>787</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D95" s="32"/>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="34" t="s">
         <v>788</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="C96" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D96" s="32"/>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="34" t="s">
         <v>789</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D97" s="32"/>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="34" t="s">
         <v>790</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="34" t="s">
         <v>792</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D99" s="32"/>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="32" t="s">
+      <c r="A100" s="34" t="s">
         <v>793</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="34" t="s">
         <v>794</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D101" s="32"/>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="34" t="s">
         <v>795</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="31" t="s">
         <v>796</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D102" s="32"/>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="34" t="s">
         <v>797</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="31" t="s">
         <v>796</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D103" s="32"/>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="34" t="s">
         <v>798</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="31" t="s">
         <v>799</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D104" s="32"/>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="34" t="s">
         <v>800</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D105" s="32"/>
     </row>
     <row r="106" ht="14.25">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="34" t="s">
         <v>802</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D106" s="32"/>
     </row>
     <row r="107" ht="14.25">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="34" t="s">
         <v>803</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D107" s="32"/>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="32" t="s">
+      <c r="A108" s="34" t="s">
         <v>805</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D108" s="32"/>
     </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="32" t="s">
+      <c r="A109" s="34" t="s">
         <v>806</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D109" s="32"/>
     </row>
     <row r="110" ht="14.25">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="34" t="s">
         <v>807</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D110" s="32"/>
     </row>
     <row r="111" ht="14.25">
-      <c r="A111" s="32" t="s">
+      <c r="A111" s="34" t="s">
         <v>808</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D111" s="32"/>
     </row>
     <row r="112" ht="14.25">
-      <c r="A112" s="32" t="s">
+      <c r="A112" s="34" t="s">
         <v>810</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D112" s="32"/>
     </row>
     <row r="113" ht="14.25">
-      <c r="A113" s="32" t="s">
+      <c r="A113" s="34" t="s">
         <v>811</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D113" s="32"/>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="32" t="s">
+      <c r="A114" s="34" t="s">
         <v>812</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D114" s="32"/>
     </row>
     <row r="115" ht="14.25">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="34" t="s">
         <v>813</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="31" t="s">
         <v>783</v>
       </c>
+      <c r="D115" s="32"/>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="34" t="s">
         <v>814</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D116" s="32"/>
     </row>
     <row r="117" ht="14.25">
-      <c r="A117" s="32" t="s">
+      <c r="A117" s="34" t="s">
         <v>817</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D117" s="32"/>
     </row>
     <row r="118" ht="14.25">
-      <c r="A118" s="32" t="s">
+      <c r="A118" s="34" t="s">
         <v>818</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D118" s="32"/>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="34" t="s">
         <v>819</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="C119" s="30" t="s">
+      <c r="C119" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D119" s="32"/>
     </row>
     <row r="120" ht="14.25">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="34" t="s">
         <v>820</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D120" s="32"/>
     </row>
     <row r="121" ht="14.25">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="34" t="s">
         <v>821</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="31" t="s">
         <v>822</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D121" s="32"/>
     </row>
     <row r="122" ht="14.25">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="34" t="s">
         <v>823</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="31" t="s">
         <v>822</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D122" s="32"/>
     </row>
     <row r="123" ht="14.25">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="31" t="s">
         <v>822</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D123" s="32"/>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="32" t="s">
+      <c r="A124" s="34" t="s">
         <v>825</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="31" t="s">
         <v>822</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D124" s="32"/>
     </row>
     <row r="125" ht="14.25">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="34" t="s">
         <v>826</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="31" t="s">
         <v>827</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D125" s="32"/>
     </row>
     <row r="126" ht="14.25">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="34" t="s">
         <v>795</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="31" t="s">
         <v>828</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D126" s="32"/>
     </row>
     <row r="127" ht="14.25">
-      <c r="A127" s="32" t="s">
+      <c r="A127" s="34" t="s">
         <v>829</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D127" s="32"/>
     </row>
     <row r="128" ht="14.25">
-      <c r="A128" s="32" t="s">
+      <c r="A128" s="34" t="s">
         <v>831</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="C128" s="30" t="s">
+      <c r="C128" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D128" s="32"/>
     </row>
     <row r="129">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="34" t="s">
         <v>832</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="C129" s="30" t="s">
+      <c r="C129" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D129" s="32"/>
     </row>
     <row r="130">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="34" t="s">
         <v>833</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="C130" s="30" t="s">
+      <c r="C130" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D130" s="32"/>
     </row>
     <row r="131">
-      <c r="A131" s="32" t="s">
+      <c r="A131" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C131" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D131" s="32"/>
     </row>
     <row r="132">
-      <c r="A132" s="32" t="s">
+      <c r="A132" s="34" t="s">
         <v>835</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="31" t="s">
         <v>830</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C132" s="31" t="s">
         <v>816</v>
       </c>
+      <c r="D132" s="32"/>
     </row>
     <row r="133">
-      <c r="A133" s="32" t="s">
+      <c r="A133" s="34" t="s">
         <v>836</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C133" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D133" s="32"/>
     </row>
     <row r="134">
-      <c r="A134" s="32" t="s">
+      <c r="A134" s="34" t="s">
         <v>839</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D134" s="32"/>
     </row>
     <row r="135">
-      <c r="A135" s="32" t="s">
+      <c r="A135" s="34" t="s">
         <v>840</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="31" t="s">
         <v>837</v>
       </c>
-      <c r="C135" s="30" t="s">
+      <c r="C135" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D135" s="32"/>
     </row>
     <row r="136">
-      <c r="A136" s="32" t="s">
+      <c r="A136" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="31" t="s">
         <v>842</v>
       </c>
-      <c r="C136" s="30" t="s">
+      <c r="C136" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D136" s="32"/>
     </row>
     <row r="137">
-      <c r="A137" s="32" t="s">
+      <c r="A137" s="34" t="s">
         <v>843</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="31" t="s">
         <v>842</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="C137" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D137" s="32"/>
     </row>
     <row r="138">
-      <c r="A138" s="32" t="s">
+      <c r="A138" s="34" t="s">
         <v>844</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="31" t="s">
         <v>842</v>
       </c>
-      <c r="C138" s="30" t="s">
+      <c r="C138" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D138" s="32"/>
     </row>
     <row r="139">
-      <c r="A139" s="32" t="s">
+      <c r="A139" s="34" t="s">
         <v>845</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="C139" s="30" t="s">
+      <c r="C139" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D139" s="32"/>
     </row>
     <row r="140">
-      <c r="A140" s="32" t="s">
+      <c r="A140" s="34" t="s">
         <v>847</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C140" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D140" s="32"/>
     </row>
     <row r="141">
-      <c r="A141" s="32" t="s">
+      <c r="A141" s="34" t="s">
         <v>848</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D141" s="32"/>
     </row>
     <row r="142">
-      <c r="A142" s="32" t="s">
+      <c r="A142" s="34" t="s">
         <v>850</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="C142" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D142" s="32"/>
     </row>
     <row r="143">
-      <c r="A143" s="32" t="s">
+      <c r="A143" s="34" t="s">
         <v>851</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="C143" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D143" s="32"/>
     </row>
     <row r="144">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="34" t="s">
         <v>852</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="C144" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D144" s="32"/>
     </row>
     <row r="145">
-      <c r="A145" s="32" t="s">
+      <c r="A145" s="34" t="s">
         <v>853</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C145" s="30" t="s">
+      <c r="C145" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D145" s="32"/>
     </row>
     <row r="146">
-      <c r="A146" s="32" t="s">
+      <c r="A146" s="34" t="s">
         <v>854</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C146" s="30" t="s">
+      <c r="C146" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D146" s="32"/>
     </row>
     <row r="147">
-      <c r="A147" s="32" t="s">
+      <c r="A147" s="34" t="s">
         <v>855</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="31" t="s">
         <v>849</v>
       </c>
-      <c r="C147" s="30" t="s">
+      <c r="C147" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D147" s="32"/>
     </row>
     <row r="148">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="34" t="s">
         <v>856</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="C148" s="30" t="s">
+      <c r="C148" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D148" s="32"/>
     </row>
     <row r="149">
-      <c r="A149" s="32" t="s">
+      <c r="A149" s="34" t="s">
         <v>858</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="C149" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D149" s="32"/>
     </row>
     <row r="150">
-      <c r="A150" s="32" t="s">
+      <c r="A150" s="34" t="s">
         <v>859</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="C150" s="30" t="s">
+      <c r="C150" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D150" s="32"/>
     </row>
     <row r="151">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="34" t="s">
         <v>860</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="C151" s="30" t="s">
+      <c r="C151" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D151" s="32"/>
     </row>
     <row r="152">
-      <c r="A152" s="32" t="s">
+      <c r="A152" s="34" t="s">
         <v>861</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="31" t="s">
         <v>857</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D152" s="32"/>
     </row>
     <row r="153">
-      <c r="A153" s="32" t="s">
+      <c r="A153" s="34" t="s">
         <v>862</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="31" t="s">
         <v>863</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="C153" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D153" s="32"/>
     </row>
     <row r="154">
-      <c r="A154" s="32" t="s">
+      <c r="A154" s="34" t="s">
         <v>864</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="31" t="s">
         <v>865</v>
       </c>
-      <c r="C154" s="30" t="s">
+      <c r="C154" s="31" t="s">
         <v>838</v>
       </c>
+      <c r="D154" s="32"/>
     </row>
     <row r="155">
-      <c r="A155" s="32" t="s">
+      <c r="A155" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="31" t="s">
         <v>867</v>
       </c>
-      <c r="C155" s="30" t="s">
+      <c r="C155" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D155" s="32"/>
     </row>
     <row r="156">
-      <c r="A156" s="32" t="s">
+      <c r="A156" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="31" t="s">
         <v>867</v>
       </c>
-      <c r="C156" s="30" t="s">
+      <c r="C156" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D156" s="32"/>
     </row>
     <row r="157">
-      <c r="A157" s="32" t="s">
+      <c r="A157" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="31" t="s">
         <v>871</v>
       </c>
-      <c r="C157" s="30" t="s">
+      <c r="C157" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D157" s="32"/>
     </row>
     <row r="158">
-      <c r="A158" s="32" t="s">
+      <c r="A158" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="31" t="s">
         <v>873</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="C158" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D158" s="32"/>
     </row>
     <row r="159">
-      <c r="A159" s="32" t="s">
+      <c r="A159" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="31" t="s">
         <v>875</v>
       </c>
-      <c r="C159" s="30" t="s">
+      <c r="C159" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D159" s="32"/>
     </row>
     <row r="160">
-      <c r="A160" s="32" t="s">
+      <c r="A160" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="31" t="s">
         <v>875</v>
       </c>
-      <c r="C160" s="30" t="s">
+      <c r="C160" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D160" s="32"/>
     </row>
     <row r="161">
-      <c r="A161" s="32" t="s">
+      <c r="A161" s="34" t="s">
         <v>877</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="31" t="s">
         <v>875</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="C161" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D161" s="32"/>
     </row>
     <row r="162">
-      <c r="A162" s="32" t="s">
+      <c r="A162" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="31" t="s">
         <v>875</v>
       </c>
-      <c r="C162" s="30" t="s">
+      <c r="C162" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D162" s="32"/>
     </row>
     <row r="163">
-      <c r="A163" s="32" t="s">
+      <c r="A163" s="34" t="s">
         <v>879</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="31" t="s">
         <v>875</v>
       </c>
-      <c r="C163" s="30" t="s">
+      <c r="C163" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D163" s="32"/>
     </row>
     <row r="164">
-      <c r="A164" s="32" t="s">
+      <c r="A164" s="34" t="s">
         <v>880</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="31" t="s">
         <v>881</v>
       </c>
-      <c r="C164" s="30" t="s">
+      <c r="C164" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D164" s="32"/>
     </row>
     <row r="165">
-      <c r="A165" s="32" t="s">
+      <c r="A165" s="34" t="s">
         <v>882</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="31" t="s">
         <v>881</v>
       </c>
-      <c r="C165" s="30" t="s">
+      <c r="C165" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D165" s="32"/>
     </row>
     <row r="166">
-      <c r="A166" s="32" t="s">
+      <c r="A166" s="34" t="s">
         <v>883</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C166" s="30" t="s">
+      <c r="C166" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D166" s="32"/>
     </row>
     <row r="167">
-      <c r="A167" s="32" t="s">
+      <c r="A167" s="34" t="s">
         <v>885</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C167" s="30" t="s">
+      <c r="C167" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D167" s="32"/>
     </row>
     <row r="168">
-      <c r="A168" s="32" t="s">
+      <c r="A168" s="34" t="s">
         <v>886</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C168" s="30" t="s">
+      <c r="C168" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D168" s="32"/>
     </row>
     <row r="169">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="34" t="s">
         <v>887</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C169" s="30" t="s">
+      <c r="C169" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D169" s="32"/>
     </row>
     <row r="170">
-      <c r="A170" s="32" t="s">
+      <c r="A170" s="34" t="s">
         <v>888</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C170" s="30" t="s">
+      <c r="C170" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D170" s="32"/>
     </row>
     <row r="171">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="34" t="s">
         <v>889</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C171" s="30" t="s">
+      <c r="C171" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D171" s="32"/>
     </row>
     <row r="172">
-      <c r="A172" s="32" t="s">
+      <c r="A172" s="34" t="s">
         <v>890</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C172" s="30" t="s">
+      <c r="C172" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D172" s="32"/>
     </row>
     <row r="173">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="34" t="s">
         <v>891</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C173" s="30" t="s">
+      <c r="C173" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D173" s="32"/>
     </row>
     <row r="174">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="34" t="s">
         <v>892</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C174" s="30" t="s">
+      <c r="C174" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D174" s="32"/>
     </row>
     <row r="175">
-      <c r="A175" s="32" t="s">
+      <c r="A175" s="34" t="s">
         <v>893</v>
       </c>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C175" s="30" t="s">
+      <c r="C175" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D175" s="32"/>
     </row>
     <row r="176">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="34" t="s">
         <v>894</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C176" s="30" t="s">
+      <c r="C176" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D176" s="32"/>
     </row>
     <row r="177">
-      <c r="A177" s="32" t="s">
+      <c r="A177" s="34" t="s">
         <v>895</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C177" s="30" t="s">
+      <c r="C177" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D177" s="32"/>
     </row>
     <row r="178">
-      <c r="A178" s="32" t="s">
+      <c r="A178" s="34" t="s">
         <v>896</v>
       </c>
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C178" s="30" t="s">
+      <c r="C178" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D178" s="32"/>
     </row>
     <row r="179">
-      <c r="A179" s="32" t="s">
+      <c r="A179" s="34" t="s">
         <v>897</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C179" s="30" t="s">
+      <c r="C179" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D179" s="32"/>
     </row>
     <row r="180">
-      <c r="A180" s="32" t="s">
+      <c r="A180" s="34" t="s">
         <v>898</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C180" s="30" t="s">
+      <c r="C180" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D180" s="32"/>
     </row>
     <row r="181">
-      <c r="A181" s="32" t="s">
+      <c r="A181" s="34" t="s">
         <v>900</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C181" s="30" t="s">
+      <c r="C181" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D181" s="32"/>
     </row>
     <row r="182">
-      <c r="A182" s="32" t="s">
+      <c r="A182" s="34" t="s">
         <v>901</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C182" s="30" t="s">
+      <c r="C182" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D182" s="32"/>
     </row>
     <row r="183">
-      <c r="A183" s="32" t="s">
+      <c r="A183" s="34" t="s">
         <v>902</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C183" s="30" t="s">
+      <c r="C183" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D183" s="32"/>
     </row>
     <row r="184">
-      <c r="A184" s="32" t="s">
+      <c r="A184" s="34" t="s">
         <v>903</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C184" s="30" t="s">
+      <c r="C184" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D184" s="32"/>
     </row>
     <row r="185">
-      <c r="A185" s="32" t="s">
+      <c r="A185" s="34" t="s">
         <v>904</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C185" s="30" t="s">
+      <c r="C185" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D185" s="32"/>
     </row>
     <row r="186">
-      <c r="A186" s="32" t="s">
+      <c r="A186" s="34" t="s">
         <v>905</v>
       </c>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C186" s="30" t="s">
+      <c r="C186" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D186" s="32"/>
     </row>
     <row r="187">
-      <c r="A187" s="32" t="s">
+      <c r="A187" s="34" t="s">
         <v>906</v>
       </c>
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C187" s="30" t="s">
+      <c r="C187" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D187" s="32"/>
     </row>
     <row r="188">
-      <c r="A188" s="32" t="s">
+      <c r="A188" s="34" t="s">
         <v>907</v>
       </c>
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C188" s="30" t="s">
+      <c r="C188" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D188" s="32"/>
     </row>
     <row r="189">
-      <c r="A189" s="32" t="s">
+      <c r="A189" s="34" t="s">
         <v>908</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C189" s="30" t="s">
+      <c r="C189" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D189" s="32"/>
     </row>
     <row r="190">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="34" t="s">
         <v>909</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="31" t="s">
         <v>899</v>
       </c>
-      <c r="C190" s="30" t="s">
+      <c r="C190" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D190" s="32"/>
     </row>
     <row r="191">
-      <c r="A191" s="32" t="s">
+      <c r="A191" s="34" t="s">
         <v>910</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C191" s="30" t="s">
+      <c r="C191" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D191" s="32"/>
     </row>
     <row r="192">
-      <c r="A192" s="32" t="s">
+      <c r="A192" s="34" t="s">
         <v>912</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C192" s="30" t="s">
+      <c r="C192" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D192" s="32"/>
     </row>
     <row r="193">
-      <c r="A193" s="32" t="s">
+      <c r="A193" s="34" t="s">
         <v>913</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C193" s="30" t="s">
+      <c r="C193" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D193" s="32"/>
     </row>
     <row r="194">
-      <c r="A194" s="32" t="s">
+      <c r="A194" s="34" t="s">
         <v>914</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C194" s="30" t="s">
+      <c r="C194" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D194" s="32"/>
     </row>
     <row r="195">
-      <c r="A195" s="32" t="s">
+      <c r="A195" s="34" t="s">
         <v>915</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C195" s="30" t="s">
+      <c r="C195" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D195" s="32"/>
     </row>
     <row r="196">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="34" t="s">
         <v>916</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C196" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D196" s="32"/>
     </row>
     <row r="197">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="34" t="s">
         <v>917</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C197" s="30" t="s">
+      <c r="C197" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D197" s="32"/>
     </row>
     <row r="198">
-      <c r="A198" s="32" t="s">
+      <c r="A198" s="34" t="s">
         <v>918</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C198" s="30" t="s">
+      <c r="C198" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D198" s="32"/>
     </row>
     <row r="199">
-      <c r="A199" s="32" t="s">
+      <c r="A199" s="34" t="s">
         <v>919</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C199" s="30" t="s">
+      <c r="C199" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D199" s="32"/>
     </row>
     <row r="200">
-      <c r="A200" s="32" t="s">
+      <c r="A200" s="34" t="s">
         <v>920</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C200" s="30" t="s">
+      <c r="C200" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D200" s="32"/>
     </row>
     <row r="201">
-      <c r="A201" s="32" t="s">
+      <c r="A201" s="34" t="s">
         <v>921</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C201" s="30" t="s">
+      <c r="C201" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D201" s="32"/>
     </row>
     <row r="202">
-      <c r="A202" s="32" t="s">
+      <c r="A202" s="34" t="s">
         <v>922</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="31" t="s">
         <v>923</v>
       </c>
-      <c r="C202" s="30" t="s">
+      <c r="C202" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D202" s="32"/>
     </row>
     <row r="203">
-      <c r="A203" s="32" t="s">
+      <c r="A203" s="34" t="s">
         <v>924</v>
       </c>
-      <c r="B203" s="30" t="s">
+      <c r="B203" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="C203" s="30" t="s">
+      <c r="C203" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D203" s="32"/>
     </row>
     <row r="204">
-      <c r="A204" s="32" t="s">
+      <c r="A204" s="34" t="s">
         <v>926</v>
       </c>
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="C204" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D204" s="32"/>
     </row>
     <row r="205">
-      <c r="A205" s="32" t="s">
+      <c r="A205" s="34" t="s">
         <v>927</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="C205" s="30" t="s">
+      <c r="C205" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D205" s="32"/>
     </row>
     <row r="206">
-      <c r="A206" s="32" t="s">
+      <c r="A206" s="34" t="s">
         <v>928</v>
       </c>
-      <c r="B206" s="30" t="s">
+      <c r="B206" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="C206" s="30" t="s">
+      <c r="C206" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D206" s="32"/>
     </row>
     <row r="207">
-      <c r="A207" s="32" t="s">
+      <c r="A207" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="C207" s="30" t="s">
+      <c r="C207" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D207" s="32"/>
     </row>
     <row r="208">
-      <c r="A208" s="32" t="s">
+      <c r="A208" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="C208" s="30" t="s">
+      <c r="C208" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D208" s="32"/>
     </row>
     <row r="209">
-      <c r="A209" s="32" t="s">
+      <c r="A209" s="34" t="s">
         <v>931</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="C209" s="30" t="s">
+      <c r="C209" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D209" s="32"/>
     </row>
     <row r="210">
-      <c r="A210" s="32" t="s">
+      <c r="A210" s="34" t="s">
         <v>933</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="C210" s="30" t="s">
+      <c r="C210" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D210" s="32"/>
     </row>
     <row r="211">
-      <c r="A211" s="32" t="s">
+      <c r="A211" s="34" t="s">
         <v>934</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="C211" s="30" t="s">
+      <c r="C211" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D211" s="32"/>
     </row>
     <row r="212">
-      <c r="A212" s="32" t="s">
+      <c r="A212" s="34" t="s">
         <v>935</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="C212" s="30" t="s">
+      <c r="C212" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D212" s="32"/>
     </row>
     <row r="213">
-      <c r="A213" s="32" t="s">
+      <c r="A213" s="34" t="s">
         <v>936</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B213" s="31" t="s">
         <v>937</v>
       </c>
-      <c r="C213" s="30" t="s">
+      <c r="C213" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D213" s="32"/>
     </row>
     <row r="214">
-      <c r="A214" s="32" t="s">
+      <c r="A214" s="34" t="s">
         <v>938</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="31" t="s">
         <v>937</v>
       </c>
-      <c r="C214" s="30" t="s">
+      <c r="C214" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D214" s="32"/>
     </row>
     <row r="215">
-      <c r="A215" s="32" t="s">
+      <c r="A215" s="34" t="s">
         <v>939</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="31" t="s">
         <v>937</v>
       </c>
-      <c r="C215" s="30" t="s">
+      <c r="C215" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D215" s="32"/>
     </row>
     <row r="216">
-      <c r="A216" s="32" t="s">
+      <c r="A216" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="B216" s="30" t="s">
+      <c r="B216" s="31" t="s">
         <v>937</v>
       </c>
-      <c r="C216" s="30" t="s">
+      <c r="C216" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D216" s="32"/>
     </row>
     <row r="217">
-      <c r="A217" s="32" t="s">
+      <c r="A217" s="34" t="s">
         <v>941</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="31" t="s">
         <v>942</v>
       </c>
-      <c r="C217" s="30" t="s">
+      <c r="C217" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D217" s="32"/>
     </row>
     <row r="218">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="34" t="s">
         <v>943</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="31" t="s">
         <v>942</v>
       </c>
-      <c r="C218" s="30" t="s">
+      <c r="C218" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D218" s="32"/>
     </row>
     <row r="219">
-      <c r="A219" s="32" t="s">
+      <c r="A219" s="34" t="s">
         <v>944</v>
       </c>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="31" t="s">
         <v>942</v>
       </c>
-      <c r="C219" s="30" t="s">
+      <c r="C219" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D219" s="32"/>
     </row>
     <row r="220">
-      <c r="A220" s="32" t="s">
+      <c r="A220" s="34" t="s">
         <v>945</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="31" t="s">
         <v>946</v>
       </c>
-      <c r="C220" s="30" t="s">
+      <c r="C220" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D220" s="32"/>
     </row>
     <row r="221">
-      <c r="A221" s="32" t="s">
+      <c r="A221" s="34" t="s">
         <v>947</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="C221" s="30" t="s">
+      <c r="C221" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D221" s="32"/>
     </row>
     <row r="222">
-      <c r="A222" s="32" t="s">
+      <c r="A222" s="34" t="s">
         <v>949</v>
       </c>
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="C222" s="30" t="s">
+      <c r="C222" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D222" s="32"/>
     </row>
     <row r="223">
-      <c r="A223" s="32" t="s">
+      <c r="A223" s="34" t="s">
         <v>950</v>
       </c>
-      <c r="B223" s="30" t="s">
+      <c r="B223" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="C223" s="30" t="s">
+      <c r="C223" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D223" s="32"/>
     </row>
     <row r="224">
-      <c r="A224" s="32" t="s">
+      <c r="A224" s="34" t="s">
         <v>951</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="C224" s="30" t="s">
+      <c r="C224" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D224" s="32"/>
     </row>
     <row r="225">
-      <c r="A225" s="32" t="s">
+      <c r="A225" s="34" t="s">
         <v>952</v>
       </c>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="C225" s="30" t="s">
+      <c r="C225" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D225" s="32"/>
     </row>
     <row r="226">
-      <c r="A226" s="32" t="s">
+      <c r="A226" s="34" t="s">
         <v>953</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="C226" s="30" t="s">
+      <c r="C226" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D226" s="32"/>
     </row>
     <row r="227">
-      <c r="A227" s="32" t="s">
+      <c r="A227" s="34" t="s">
         <v>954</v>
       </c>
-      <c r="B227" s="30" t="s">
+      <c r="B227" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="C227" s="30" t="s">
+      <c r="C227" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D227" s="32"/>
     </row>
     <row r="228">
-      <c r="A228" s="32" t="s">
+      <c r="A228" s="34" t="s">
         <v>955</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C228" s="30" t="s">
+      <c r="C228" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D228" s="32"/>
     </row>
     <row r="229">
-      <c r="A229" s="32" t="s">
+      <c r="A229" s="34" t="s">
         <v>957</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C229" s="30" t="s">
+      <c r="C229" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D229" s="32"/>
     </row>
     <row r="230">
-      <c r="A230" s="32" t="s">
+      <c r="A230" s="34" t="s">
         <v>958</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C230" s="30" t="s">
+      <c r="C230" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D230" s="32"/>
     </row>
     <row r="231">
-      <c r="A231" s="32" t="s">
+      <c r="A231" s="34" t="s">
         <v>959</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C231" s="30" t="s">
+      <c r="C231" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D231" s="32"/>
     </row>
     <row r="232">
-      <c r="A232" s="32" t="s">
+      <c r="A232" s="34" t="s">
         <v>960</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C232" s="30" t="s">
+      <c r="C232" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D232" s="32"/>
     </row>
     <row r="233">
-      <c r="A233" s="32" t="s">
+      <c r="A233" s="34" t="s">
         <v>961</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C233" s="30" t="s">
+      <c r="C233" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D233" s="32"/>
     </row>
     <row r="234">
-      <c r="A234" s="32" t="s">
+      <c r="A234" s="34" t="s">
         <v>962</v>
       </c>
-      <c r="B234" s="30" t="s">
+      <c r="B234" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C234" s="30" t="s">
+      <c r="C234" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D234" s="32"/>
     </row>
     <row r="235">
-      <c r="A235" s="32" t="s">
+      <c r="A235" s="34" t="s">
         <v>963</v>
       </c>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C235" s="30" t="s">
+      <c r="C235" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D235" s="32"/>
     </row>
     <row r="236">
-      <c r="A236" s="32" t="s">
+      <c r="A236" s="34" t="s">
         <v>964</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C236" s="30" t="s">
+      <c r="C236" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D236" s="32"/>
     </row>
     <row r="237">
-      <c r="A237" s="32" t="s">
+      <c r="A237" s="34" t="s">
         <v>965</v>
       </c>
-      <c r="B237" s="30" t="s">
+      <c r="B237" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C237" s="30" t="s">
+      <c r="C237" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D237" s="32"/>
     </row>
     <row r="238">
-      <c r="A238" s="32" t="s">
+      <c r="A238" s="34" t="s">
         <v>966</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B238" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C238" s="30" t="s">
+      <c r="C238" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D238" s="32"/>
     </row>
     <row r="239">
-      <c r="A239" s="32" t="s">
+      <c r="A239" s="34" t="s">
         <v>967</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C239" s="30" t="s">
+      <c r="C239" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D239" s="32"/>
     </row>
     <row r="240">
-      <c r="A240" s="32" t="s">
+      <c r="A240" s="34" t="s">
         <v>968</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C240" s="30" t="s">
+      <c r="C240" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D240" s="32"/>
     </row>
     <row r="241">
-      <c r="A241" s="32" t="s">
+      <c r="A241" s="34" t="s">
         <v>969</v>
       </c>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C241" s="30" t="s">
+      <c r="C241" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D241" s="32"/>
     </row>
     <row r="242">
-      <c r="A242" s="32" t="s">
+      <c r="A242" s="34" t="s">
         <v>970</v>
       </c>
-      <c r="B242" s="30" t="s">
+      <c r="B242" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C242" s="30" t="s">
+      <c r="C242" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D242" s="32"/>
     </row>
     <row r="243">
-      <c r="A243" s="32" t="s">
+      <c r="A243" s="34" t="s">
         <v>971</v>
       </c>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="31" t="s">
         <v>956</v>
       </c>
-      <c r="C243" s="30" t="s">
+      <c r="C243" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D243" s="32"/>
     </row>
     <row r="244">
-      <c r="A244" s="32" t="s">
+      <c r="A244" s="34" t="s">
         <v>972</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="31" t="s">
         <v>973</v>
       </c>
-      <c r="C244" s="30" t="s">
+      <c r="C244" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D244" s="32"/>
     </row>
     <row r="245">
-      <c r="A245" s="32" t="s">
+      <c r="A245" s="34" t="s">
         <v>974</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C245" s="30" t="s">
+      <c r="C245" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D245" s="32"/>
     </row>
     <row r="246">
-      <c r="A246" s="32" t="s">
+      <c r="A246" s="34" t="s">
         <v>976</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C246" s="30" t="s">
+      <c r="C246" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D246" s="32"/>
     </row>
     <row r="247">
-      <c r="A247" s="32" t="s">
+      <c r="A247" s="34" t="s">
         <v>977</v>
       </c>
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C247" s="30" t="s">
+      <c r="C247" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D247" s="32"/>
     </row>
     <row r="248">
-      <c r="A248" s="32" t="s">
+      <c r="A248" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C248" s="30" t="s">
+      <c r="C248" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D248" s="32"/>
     </row>
     <row r="249">
-      <c r="A249" s="32" t="s">
+      <c r="A249" s="34" t="s">
         <v>979</v>
       </c>
-      <c r="B249" s="30" t="s">
+      <c r="B249" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C249" s="30" t="s">
+      <c r="C249" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D249" s="32"/>
     </row>
     <row r="250">
-      <c r="A250" s="32" t="s">
+      <c r="A250" s="34" t="s">
         <v>980</v>
       </c>
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C250" s="30" t="s">
+      <c r="C250" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D250" s="32"/>
     </row>
     <row r="251">
-      <c r="A251" s="32" t="s">
+      <c r="A251" s="34" t="s">
         <v>981</v>
       </c>
-      <c r="B251" s="30" t="s">
+      <c r="B251" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C251" s="30" t="s">
+      <c r="C251" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D251" s="32"/>
     </row>
     <row r="252">
-      <c r="A252" s="32" t="s">
+      <c r="A252" s="34" t="s">
         <v>982</v>
       </c>
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C252" s="30" t="s">
+      <c r="C252" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D252" s="32"/>
     </row>
     <row r="253">
-      <c r="A253" s="32" t="s">
+      <c r="A253" s="34" t="s">
         <v>983</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C253" s="30" t="s">
+      <c r="C253" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D253" s="32"/>
     </row>
     <row r="254">
-      <c r="A254" s="32" t="s">
+      <c r="A254" s="34" t="s">
         <v>984</v>
       </c>
-      <c r="B254" s="30" t="s">
+      <c r="B254" s="31" t="s">
         <v>975</v>
       </c>
-      <c r="C254" s="30" t="s">
+      <c r="C254" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D254" s="32"/>
     </row>
     <row r="255">
-      <c r="A255" s="32" t="s">
+      <c r="A255" s="34" t="s">
         <v>985</v>
       </c>
-      <c r="B255" s="30" t="s">
+      <c r="B255" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C255" s="30" t="s">
+      <c r="C255" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D255" s="32"/>
     </row>
     <row r="256">
-      <c r="A256" s="32" t="s">
+      <c r="A256" s="34" t="s">
         <v>987</v>
       </c>
-      <c r="B256" s="30" t="s">
+      <c r="B256" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C256" s="30" t="s">
+      <c r="C256" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D256" s="32"/>
     </row>
     <row r="257">
-      <c r="A257" s="32" t="s">
+      <c r="A257" s="34" t="s">
         <v>988</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C257" s="30" t="s">
+      <c r="C257" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D257" s="32"/>
     </row>
     <row r="258">
-      <c r="A258" s="32" t="s">
+      <c r="A258" s="34" t="s">
         <v>989</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C258" s="30" t="s">
+      <c r="C258" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D258" s="32"/>
     </row>
     <row r="259">
-      <c r="A259" s="32" t="s">
+      <c r="A259" s="34" t="s">
         <v>990</v>
       </c>
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C259" s="30" t="s">
+      <c r="C259" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D259" s="32"/>
     </row>
     <row r="260">
-      <c r="A260" s="32" t="s">
+      <c r="A260" s="34" t="s">
         <v>991</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C260" s="30" t="s">
+      <c r="C260" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D260" s="32"/>
     </row>
     <row r="261">
-      <c r="A261" s="32" t="s">
+      <c r="A261" s="34" t="s">
         <v>992</v>
       </c>
-      <c r="B261" s="30" t="s">
+      <c r="B261" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C261" s="30" t="s">
+      <c r="C261" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D261" s="32"/>
     </row>
     <row r="262">
-      <c r="A262" s="32" t="s">
+      <c r="A262" s="34" t="s">
         <v>993</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C262" s="30" t="s">
+      <c r="C262" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D262" s="32"/>
     </row>
     <row r="263">
-      <c r="A263" s="32" t="s">
+      <c r="A263" s="34" t="s">
         <v>994</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="31" t="s">
         <v>986</v>
       </c>
-      <c r="C263" s="30" t="s">
+      <c r="C263" s="31" t="s">
         <v>868</v>
       </c>
+      <c r="D263" s="32"/>
     </row>
     <row r="264">
-      <c r="A264" s="32" t="s">
+      <c r="A264" s="34" t="s">
         <v>995</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="C264" s="30" t="s">
+      <c r="C264" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D264" s="32"/>
     </row>
     <row r="265">
-      <c r="A265" s="32" t="s">
+      <c r="A265" s="34" t="s">
         <v>998</v>
       </c>
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="C265" s="30" t="s">
+      <c r="C265" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D265" s="32"/>
     </row>
     <row r="266">
-      <c r="A266" s="32" t="s">
+      <c r="A266" s="34" t="s">
         <v>999</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="C266" s="30" t="s">
+      <c r="C266" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D266" s="32"/>
     </row>
     <row r="267">
-      <c r="A267" s="32" t="s">
+      <c r="A267" s="34" t="s">
         <v>1000</v>
       </c>
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="C267" s="30" t="s">
+      <c r="C267" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D267" s="32"/>
     </row>
     <row r="268">
-      <c r="A268" s="32" t="s">
+      <c r="A268" s="34" t="s">
         <v>1001</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="C268" s="30" t="s">
+      <c r="C268" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D268" s="32"/>
     </row>
     <row r="269">
-      <c r="A269" s="32" t="s">
+      <c r="A269" s="34" t="s">
         <v>1002</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="C269" s="30" t="s">
+      <c r="C269" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D269" s="32"/>
     </row>
     <row r="270">
-      <c r="A270" s="32" t="s">
+      <c r="A270" s="34" t="s">
         <v>1003</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="31" t="s">
         <v>996</v>
       </c>
-      <c r="C270" s="30" t="s">
+      <c r="C270" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D270" s="32"/>
     </row>
     <row r="271">
-      <c r="A271" s="32" t="s">
+      <c r="A271" s="34" t="s">
         <v>1004</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="31" t="s">
         <v>1005</v>
       </c>
-      <c r="C271" s="30" t="s">
+      <c r="C271" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D271" s="32"/>
     </row>
     <row r="272">
-      <c r="A272" s="32" t="s">
+      <c r="A272" s="34" t="s">
         <v>1006</v>
       </c>
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C272" s="30" t="s">
+      <c r="C272" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D272" s="32"/>
     </row>
     <row r="273">
-      <c r="A273" s="32" t="s">
+      <c r="A273" s="34" t="s">
         <v>1008</v>
       </c>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C273" s="30" t="s">
+      <c r="C273" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D273" s="32"/>
     </row>
     <row r="274">
-      <c r="A274" s="32" t="s">
+      <c r="A274" s="34" t="s">
         <v>1009</v>
       </c>
-      <c r="B274" s="30" t="s">
+      <c r="B274" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C274" s="30" t="s">
+      <c r="C274" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D274" s="32"/>
     </row>
     <row r="275">
-      <c r="A275" s="32" t="s">
+      <c r="A275" s="34" t="s">
         <v>1010</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C275" s="30" t="s">
+      <c r="C275" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D275" s="32"/>
     </row>
     <row r="276">
-      <c r="A276" s="32" t="s">
+      <c r="A276" s="34" t="s">
         <v>1011</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C276" s="30" t="s">
+      <c r="C276" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D276" s="32"/>
     </row>
     <row r="277">
-      <c r="A277" s="32" t="s">
+      <c r="A277" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="B277" s="30" t="s">
+      <c r="B277" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C277" s="30" t="s">
+      <c r="C277" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D277" s="32"/>
     </row>
     <row r="278">
-      <c r="A278" s="32" t="s">
+      <c r="A278" s="34" t="s">
         <v>1013</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C278" s="30" t="s">
+      <c r="C278" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D278" s="32"/>
     </row>
     <row r="279">
-      <c r="A279" s="32" t="s">
+      <c r="A279" s="34" t="s">
         <v>1014</v>
       </c>
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C279" s="30" t="s">
+      <c r="C279" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D279" s="32"/>
     </row>
     <row r="280">
-      <c r="A280" s="32" t="s">
+      <c r="A280" s="34" t="s">
         <v>1015</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="31" t="s">
         <v>1007</v>
       </c>
-      <c r="C280" s="30" t="s">
+      <c r="C280" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D280" s="32"/>
     </row>
     <row r="281">
-      <c r="A281" s="32" t="s">
+      <c r="A281" s="34" t="s">
         <v>1016</v>
       </c>
-      <c r="B281" s="30" t="s">
+      <c r="B281" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C281" s="30" t="s">
+      <c r="C281" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D281" s="32"/>
     </row>
     <row r="282">
-      <c r="A282" s="32" t="s">
+      <c r="A282" s="34" t="s">
         <v>1018</v>
       </c>
-      <c r="B282" s="30" t="s">
+      <c r="B282" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C282" s="30" t="s">
+      <c r="C282" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D282" s="32"/>
     </row>
     <row r="283">
-      <c r="A283" s="32" t="s">
+      <c r="A283" s="34" t="s">
         <v>1019</v>
       </c>
-      <c r="B283" s="30" t="s">
+      <c r="B283" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C283" s="30" t="s">
+      <c r="C283" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D283" s="32"/>
     </row>
     <row r="284">
-      <c r="A284" s="32" t="s">
+      <c r="A284" s="34" t="s">
         <v>1020</v>
       </c>
-      <c r="B284" s="30" t="s">
+      <c r="B284" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C284" s="30" t="s">
+      <c r="C284" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D284" s="32"/>
     </row>
     <row r="285">
-      <c r="A285" s="32" t="s">
+      <c r="A285" s="34" t="s">
         <v>1021</v>
       </c>
-      <c r="B285" s="30" t="s">
+      <c r="B285" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C285" s="30" t="s">
+      <c r="C285" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D285" s="32"/>
     </row>
     <row r="286">
-      <c r="A286" s="32" t="s">
+      <c r="A286" s="34" t="s">
         <v>1022</v>
       </c>
-      <c r="B286" s="30" t="s">
+      <c r="B286" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C286" s="30" t="s">
+      <c r="C286" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D286" s="32"/>
     </row>
     <row r="287">
-      <c r="A287" s="32" t="s">
+      <c r="A287" s="34" t="s">
         <v>1023</v>
       </c>
-      <c r="B287" s="30" t="s">
+      <c r="B287" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C287" s="30" t="s">
+      <c r="C287" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D287" s="32"/>
     </row>
     <row r="288">
-      <c r="A288" s="32" t="s">
+      <c r="A288" s="34" t="s">
         <v>1024</v>
       </c>
-      <c r="B288" s="30" t="s">
+      <c r="B288" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C288" s="30" t="s">
+      <c r="C288" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D288" s="32"/>
     </row>
     <row r="289">
-      <c r="A289" s="32" t="s">
+      <c r="A289" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="B289" s="30" t="s">
+      <c r="B289" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="C289" s="30" t="s">
+      <c r="C289" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D289" s="32"/>
     </row>
     <row r="290">
-      <c r="A290" s="32" t="s">
+      <c r="A290" s="34" t="s">
         <v>1026</v>
       </c>
-      <c r="B290" s="30" t="s">
+      <c r="B290" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C290" s="30" t="s">
+      <c r="C290" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D290" s="32"/>
     </row>
     <row r="291">
-      <c r="A291" s="32" t="s">
+      <c r="A291" s="34" t="s">
         <v>1028</v>
       </c>
-      <c r="B291" s="30" t="s">
+      <c r="B291" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C291" s="30" t="s">
+      <c r="C291" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D291" s="32"/>
     </row>
     <row r="292">
-      <c r="A292" s="32" t="s">
+      <c r="A292" s="34" t="s">
         <v>1029</v>
       </c>
-      <c r="B292" s="30" t="s">
+      <c r="B292" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C292" s="30" t="s">
+      <c r="C292" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D292" s="32"/>
     </row>
     <row r="293">
-      <c r="A293" s="32" t="s">
+      <c r="A293" s="34" t="s">
         <v>1030</v>
       </c>
-      <c r="B293" s="30" t="s">
+      <c r="B293" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C293" s="30" t="s">
+      <c r="C293" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D293" s="32"/>
     </row>
     <row r="294">
-      <c r="A294" s="32" t="s">
+      <c r="A294" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="B294" s="30" t="s">
+      <c r="B294" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C294" s="30" t="s">
+      <c r="C294" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D294" s="32"/>
     </row>
     <row r="295">
-      <c r="A295" s="32" t="s">
+      <c r="A295" s="34" t="s">
         <v>1032</v>
       </c>
-      <c r="B295" s="30" t="s">
+      <c r="B295" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C295" s="30" t="s">
+      <c r="C295" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D295" s="32"/>
     </row>
     <row r="296">
-      <c r="A296" s="32" t="s">
+      <c r="A296" s="34" t="s">
         <v>1033</v>
       </c>
-      <c r="B296" s="30" t="s">
+      <c r="B296" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C296" s="30" t="s">
+      <c r="C296" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D296" s="32"/>
     </row>
     <row r="297">
-      <c r="A297" s="32" t="s">
+      <c r="A297" s="34" t="s">
         <v>1034</v>
       </c>
-      <c r="B297" s="30" t="s">
+      <c r="B297" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C297" s="30" t="s">
+      <c r="C297" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D297" s="32"/>
     </row>
     <row r="298">
-      <c r="A298" s="32" t="s">
+      <c r="A298" s="34" t="s">
         <v>1033</v>
       </c>
-      <c r="B298" s="30" t="s">
+      <c r="B298" s="31" t="s">
         <v>1027</v>
       </c>
-      <c r="C298" s="30" t="s">
+      <c r="C298" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D298" s="32"/>
     </row>
     <row r="299">
-      <c r="A299" s="32" t="s">
+      <c r="A299" s="34" t="s">
         <v>1035</v>
       </c>
-      <c r="B299" s="30" t="s">
+      <c r="B299" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C299" s="30" t="s">
+      <c r="C299" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D299" s="32"/>
     </row>
     <row r="300">
-      <c r="A300" s="32" t="s">
+      <c r="A300" s="34" t="s">
         <v>1037</v>
       </c>
-      <c r="B300" s="30" t="s">
+      <c r="B300" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C300" s="30" t="s">
+      <c r="C300" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D300" s="32"/>
     </row>
     <row r="301">
-      <c r="A301" s="32" t="s">
+      <c r="A301" s="34" t="s">
         <v>1038</v>
       </c>
-      <c r="B301" s="30" t="s">
+      <c r="B301" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C301" s="30" t="s">
+      <c r="C301" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D301" s="32"/>
     </row>
     <row r="302">
-      <c r="A302" s="32" t="s">
+      <c r="A302" s="34" t="s">
         <v>1039</v>
       </c>
-      <c r="B302" s="30" t="s">
+      <c r="B302" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C302" s="30" t="s">
+      <c r="C302" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D302" s="32"/>
     </row>
     <row r="303">
-      <c r="A303" s="32" t="s">
+      <c r="A303" s="34" t="s">
         <v>1040</v>
       </c>
-      <c r="B303" s="30" t="s">
+      <c r="B303" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C303" s="30" t="s">
+      <c r="C303" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D303" s="32"/>
     </row>
     <row r="304">
-      <c r="A304" s="32" t="s">
+      <c r="A304" s="34" t="s">
         <v>1041</v>
       </c>
-      <c r="B304" s="30" t="s">
+      <c r="B304" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C304" s="30" t="s">
+      <c r="C304" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D304" s="32"/>
     </row>
     <row r="305">
-      <c r="A305" s="32" t="s">
+      <c r="A305" s="34" t="s">
         <v>1042</v>
       </c>
-      <c r="B305" s="30" t="s">
+      <c r="B305" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C305" s="30" t="s">
+      <c r="C305" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D305" s="32"/>
     </row>
     <row r="306">
-      <c r="A306" s="32" t="s">
+      <c r="A306" s="34" t="s">
         <v>1043</v>
       </c>
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C306" s="30" t="s">
+      <c r="C306" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D306" s="32"/>
     </row>
     <row r="307">
-      <c r="A307" s="32" t="s">
+      <c r="A307" s="34" t="s">
         <v>1044</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B307" s="31" t="s">
         <v>1036</v>
       </c>
-      <c r="C307" s="30" t="s">
+      <c r="C307" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D307" s="32"/>
     </row>
     <row r="308">
-      <c r="A308" s="32" t="s">
+      <c r="A308" s="34" t="s">
         <v>1045</v>
       </c>
-      <c r="B308" s="30" t="s">
+      <c r="B308" s="31" t="s">
         <v>1046</v>
       </c>
-      <c r="C308" s="30" t="s">
+      <c r="C308" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D308" s="32"/>
     </row>
     <row r="309">
-      <c r="A309" s="32" t="s">
+      <c r="A309" s="34" t="s">
         <v>1047</v>
       </c>
-      <c r="B309" s="30" t="s">
+      <c r="B309" s="31" t="s">
         <v>1046</v>
       </c>
-      <c r="C309" s="30" t="s">
+      <c r="C309" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D309" s="32"/>
     </row>
     <row r="310">
-      <c r="A310" s="32" t="s">
+      <c r="A310" s="34" t="s">
         <v>1048</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="31" t="s">
         <v>1046</v>
       </c>
-      <c r="C310" s="30" t="s">
+      <c r="C310" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D310" s="32"/>
     </row>
     <row r="311">
-      <c r="A311" s="32" t="s">
+      <c r="A311" s="34" t="s">
         <v>1049</v>
       </c>
-      <c r="B311" s="30" t="s">
+      <c r="B311" s="31" t="s">
         <v>1046</v>
       </c>
-      <c r="C311" s="30" t="s">
+      <c r="C311" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D311" s="32"/>
     </row>
     <row r="312">
-      <c r="A312" s="32" t="s">
+      <c r="A312" s="34" t="s">
         <v>1050</v>
       </c>
-      <c r="B312" s="30" t="s">
+      <c r="B312" s="31" t="s">
         <v>1046</v>
       </c>
-      <c r="C312" s="30" t="s">
+      <c r="C312" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D312" s="32"/>
     </row>
     <row r="313">
-      <c r="A313" s="32" t="s">
+      <c r="A313" s="34" t="s">
         <v>1051</v>
       </c>
-      <c r="B313" s="30" t="s">
+      <c r="B313" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C313" s="30" t="s">
+      <c r="C313" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D313" s="32"/>
     </row>
     <row r="314">
-      <c r="A314" s="32" t="s">
+      <c r="A314" s="34" t="s">
         <v>1053</v>
       </c>
-      <c r="B314" s="30" t="s">
+      <c r="B314" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C314" s="30" t="s">
+      <c r="C314" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D314" s="32"/>
     </row>
     <row r="315">
-      <c r="A315" s="32" t="s">
+      <c r="A315" s="34" t="s">
         <v>1054</v>
       </c>
-      <c r="B315" s="30" t="s">
+      <c r="B315" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C315" s="30" t="s">
+      <c r="C315" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D315" s="32"/>
     </row>
     <row r="316">
-      <c r="A316" s="32" t="s">
+      <c r="A316" s="34" t="s">
         <v>1055</v>
       </c>
-      <c r="B316" s="30" t="s">
+      <c r="B316" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C316" s="30" t="s">
+      <c r="C316" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D316" s="32"/>
     </row>
     <row r="317">
-      <c r="A317" s="32" t="s">
+      <c r="A317" s="34" t="s">
         <v>1056</v>
       </c>
-      <c r="B317" s="30" t="s">
+      <c r="B317" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C317" s="30" t="s">
+      <c r="C317" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D317" s="32"/>
     </row>
     <row r="318">
-      <c r="A318" s="32" t="s">
+      <c r="A318" s="34" t="s">
         <v>1057</v>
       </c>
-      <c r="B318" s="30" t="s">
+      <c r="B318" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C318" s="30" t="s">
+      <c r="C318" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D318" s="32"/>
     </row>
     <row r="319">
-      <c r="A319" s="32" t="s">
+      <c r="A319" s="34" t="s">
         <v>1058</v>
       </c>
-      <c r="B319" s="30" t="s">
+      <c r="B319" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C319" s="30" t="s">
+      <c r="C319" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D319" s="32"/>
     </row>
     <row r="320">
-      <c r="A320" s="32" t="s">
+      <c r="A320" s="34" t="s">
         <v>1059</v>
       </c>
-      <c r="B320" s="30" t="s">
+      <c r="B320" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C320" s="30" t="s">
+      <c r="C320" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D320" s="32"/>
     </row>
     <row r="321">
-      <c r="A321" s="32" t="s">
+      <c r="A321" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="B321" s="30" t="s">
+      <c r="B321" s="31" t="s">
         <v>1052</v>
       </c>
-      <c r="C321" s="30" t="s">
+      <c r="C321" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D321" s="32"/>
     </row>
     <row r="322">
-      <c r="A322" s="32" t="s">
+      <c r="A322" s="34" t="s">
         <v>1061</v>
       </c>
-      <c r="B322" s="30" t="s">
+      <c r="B322" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="C322" s="30" t="s">
+      <c r="C322" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D322" s="32"/>
     </row>
     <row r="323">
-      <c r="A323" s="32" t="s">
+      <c r="A323" s="34" t="s">
         <v>1063</v>
       </c>
-      <c r="B323" s="30" t="s">
+      <c r="B323" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="C323" s="30" t="s">
+      <c r="C323" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D323" s="32"/>
     </row>
     <row r="324">
-      <c r="A324" s="32" t="s">
+      <c r="A324" s="34" t="s">
         <v>1064</v>
       </c>
-      <c r="B324" s="30" t="s">
+      <c r="B324" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="C324" s="30" t="s">
+      <c r="C324" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D324" s="32"/>
     </row>
     <row r="325">
-      <c r="A325" s="32" t="s">
+      <c r="A325" s="34" t="s">
         <v>1065</v>
       </c>
-      <c r="B325" s="30" t="s">
+      <c r="B325" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="C325" s="30" t="s">
+      <c r="C325" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D325" s="32"/>
     </row>
     <row r="326">
-      <c r="A326" s="32" t="s">
+      <c r="A326" s="34" t="s">
         <v>1066</v>
       </c>
-      <c r="B326" s="30" t="s">
+      <c r="B326" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="C326" s="30" t="s">
+      <c r="C326" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D326" s="32"/>
     </row>
     <row r="327">
-      <c r="A327" s="32" t="s">
+      <c r="A327" s="34" t="s">
         <v>1067</v>
       </c>
-      <c r="B327" s="30" t="s">
+      <c r="B327" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="C327" s="30" t="s">
+      <c r="C327" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D327" s="32"/>
     </row>
     <row r="328">
-      <c r="A328" s="32" t="s">
+      <c r="A328" s="34" t="s">
         <v>1068</v>
       </c>
-      <c r="B328" s="30" t="s">
+      <c r="B328" s="31" t="s">
         <v>1062</v>
       </c>
-      <c r="C328" s="30" t="s">
+      <c r="C328" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D328" s="32"/>
     </row>
     <row r="329">
-      <c r="A329" s="32" t="s">
+      <c r="A329" s="34" t="s">
         <v>1069</v>
       </c>
-      <c r="B329" s="30" t="s">
+      <c r="B329" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C329" s="30" t="s">
+      <c r="C329" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D329" s="32"/>
     </row>
     <row r="330">
-      <c r="A330" s="32" t="s">
+      <c r="A330" s="34" t="s">
         <v>1071</v>
       </c>
-      <c r="B330" s="30" t="s">
+      <c r="B330" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C330" s="30" t="s">
+      <c r="C330" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D330" s="32"/>
     </row>
     <row r="331">
-      <c r="A331" s="32" t="s">
+      <c r="A331" s="34" t="s">
         <v>1072</v>
       </c>
-      <c r="B331" s="30" t="s">
+      <c r="B331" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C331" s="30" t="s">
+      <c r="C331" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D331" s="32"/>
     </row>
     <row r="332">
-      <c r="A332" s="32" t="s">
+      <c r="A332" s="34" t="s">
         <v>1073</v>
       </c>
-      <c r="B332" s="30" t="s">
+      <c r="B332" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C332" s="30" t="s">
+      <c r="C332" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D332" s="32"/>
     </row>
     <row r="333">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="34" t="s">
         <v>1074</v>
       </c>
-      <c r="B333" s="30" t="s">
+      <c r="B333" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C333" s="30" t="s">
+      <c r="C333" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D333" s="32"/>
     </row>
     <row r="334">
-      <c r="A334" s="32" t="s">
+      <c r="A334" s="34" t="s">
         <v>1075</v>
       </c>
-      <c r="B334" s="30" t="s">
+      <c r="B334" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C334" s="30" t="s">
+      <c r="C334" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D334" s="32"/>
     </row>
     <row r="335">
-      <c r="A335" s="32" t="s">
+      <c r="A335" s="34" t="s">
         <v>1076</v>
       </c>
-      <c r="B335" s="30" t="s">
+      <c r="B335" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C335" s="30" t="s">
+      <c r="C335" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D335" s="32"/>
     </row>
     <row r="336">
-      <c r="A336" s="32" t="s">
+      <c r="A336" s="34" t="s">
         <v>1077</v>
       </c>
-      <c r="B336" s="30" t="s">
+      <c r="B336" s="31" t="s">
         <v>1070</v>
       </c>
-      <c r="C336" s="30" t="s">
+      <c r="C336" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D336" s="32"/>
     </row>
     <row r="337">
-      <c r="A337" s="32" t="s">
+      <c r="A337" s="34" t="s">
         <v>1078</v>
       </c>
-      <c r="B337" s="30" t="s">
+      <c r="B337" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C337" s="30" t="s">
+      <c r="C337" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D337" s="32"/>
     </row>
     <row r="338">
-      <c r="A338" s="32" t="s">
+      <c r="A338" s="34" t="s">
         <v>1080</v>
       </c>
-      <c r="B338" s="30" t="s">
+      <c r="B338" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C338" s="30" t="s">
+      <c r="C338" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D338" s="32"/>
     </row>
     <row r="339">
-      <c r="A339" s="32" t="s">
+      <c r="A339" s="34" t="s">
         <v>1081</v>
       </c>
-      <c r="B339" s="30" t="s">
+      <c r="B339" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C339" s="30" t="s">
+      <c r="C339" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D339" s="32"/>
     </row>
     <row r="340">
-      <c r="A340" s="32" t="s">
+      <c r="A340" s="34" t="s">
         <v>1082</v>
       </c>
-      <c r="B340" s="30" t="s">
+      <c r="B340" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C340" s="30" t="s">
+      <c r="C340" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D340" s="32"/>
     </row>
     <row r="341">
-      <c r="A341" s="32" t="s">
+      <c r="A341" s="34" t="s">
         <v>1083</v>
       </c>
-      <c r="B341" s="30" t="s">
+      <c r="B341" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C341" s="30" t="s">
+      <c r="C341" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D341" s="32"/>
     </row>
     <row r="342">
-      <c r="A342" s="32" t="s">
+      <c r="A342" s="34" t="s">
         <v>1084</v>
       </c>
-      <c r="B342" s="30" t="s">
+      <c r="B342" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C342" s="30" t="s">
+      <c r="C342" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D342" s="32"/>
     </row>
     <row r="343">
-      <c r="A343" s="32" t="s">
+      <c r="A343" s="34" t="s">
         <v>1085</v>
       </c>
-      <c r="B343" s="30" t="s">
+      <c r="B343" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C343" s="30" t="s">
+      <c r="C343" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D343" s="32"/>
     </row>
     <row r="344">
-      <c r="A344" s="32" t="s">
+      <c r="A344" s="34" t="s">
         <v>1086</v>
       </c>
-      <c r="B344" s="30" t="s">
+      <c r="B344" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C344" s="30" t="s">
+      <c r="C344" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D344" s="32"/>
     </row>
     <row r="345">
-      <c r="A345" s="32" t="s">
+      <c r="A345" s="34" t="s">
         <v>1087</v>
       </c>
-      <c r="B345" s="30" t="s">
+      <c r="B345" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C345" s="30" t="s">
+      <c r="C345" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D345" s="32"/>
     </row>
     <row r="346">
-      <c r="A346" s="32" t="s">
+      <c r="A346" s="34" t="s">
         <v>1088</v>
       </c>
-      <c r="B346" s="30" t="s">
+      <c r="B346" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C346" s="30" t="s">
+      <c r="C346" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D346" s="32"/>
     </row>
     <row r="347">
-      <c r="A347" s="32" t="s">
+      <c r="A347" s="34" t="s">
         <v>1089</v>
       </c>
-      <c r="B347" s="30" t="s">
+      <c r="B347" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C347" s="30" t="s">
+      <c r="C347" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D347" s="32"/>
     </row>
     <row r="348">
-      <c r="A348" s="32" t="s">
+      <c r="A348" s="34" t="s">
         <v>1090</v>
       </c>
-      <c r="B348" s="30" t="s">
+      <c r="B348" s="31" t="s">
         <v>1079</v>
       </c>
-      <c r="C348" s="30" t="s">
+      <c r="C348" s="31" t="s">
         <v>997</v>
       </c>
+      <c r="D348" s="32"/>
     </row>
     <row r="349">
-      <c r="A349" s="32" t="s">
+      <c r="A349" s="34" t="s">
         <v>1091</v>
       </c>
-      <c r="B349" s="30"/>
-      <c r="C349" s="30" t="s">
+      <c r="B349" s="31"/>
+      <c r="C349" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D349" s="32"/>
     </row>
     <row r="350">
-      <c r="A350" s="32" t="s">
+      <c r="A350" s="34" t="s">
         <v>1093</v>
       </c>
-      <c r="B350" s="29"/>
-      <c r="C350" s="30" t="s">
+      <c r="B350" s="32"/>
+      <c r="C350" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D350" s="32"/>
     </row>
     <row r="351">
-      <c r="A351" s="32" t="s">
+      <c r="A351" s="34" t="s">
         <v>1094</v>
       </c>
-      <c r="B351" s="29"/>
-      <c r="C351" s="30" t="s">
+      <c r="B351" s="32"/>
+      <c r="C351" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D351" s="32"/>
     </row>
     <row r="352">
-      <c r="A352" s="32" t="s">
+      <c r="A352" s="34" t="s">
         <v>1095</v>
       </c>
-      <c r="B352" s="29"/>
-      <c r="C352" s="30" t="s">
+      <c r="B352" s="32"/>
+      <c r="C352" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D352" s="32"/>
     </row>
     <row r="353">
-      <c r="A353" s="32" t="s">
+      <c r="A353" s="34" t="s">
         <v>1096</v>
       </c>
-      <c r="B353" s="29"/>
-      <c r="C353" s="30" t="s">
+      <c r="B353" s="32"/>
+      <c r="C353" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D353" s="32"/>
     </row>
     <row r="354">
-      <c r="A354" s="32" t="s">
+      <c r="A354" s="34" t="s">
         <v>1097</v>
       </c>
-      <c r="B354" s="29"/>
-      <c r="C354" s="30" t="s">
+      <c r="B354" s="32"/>
+      <c r="C354" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D354" s="32"/>
     </row>
     <row r="355">
-      <c r="A355" s="32" t="s">
+      <c r="A355" s="34" t="s">
         <v>1098</v>
       </c>
-      <c r="B355" s="29"/>
-      <c r="C355" s="30" t="s">
+      <c r="B355" s="32"/>
+      <c r="C355" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D355" s="32"/>
     </row>
     <row r="356">
-      <c r="A356" s="32" t="s">
+      <c r="A356" s="34" t="s">
         <v>1099</v>
       </c>
-      <c r="B356" s="29"/>
-      <c r="C356" s="30" t="s">
+      <c r="B356" s="32"/>
+      <c r="C356" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D356" s="32"/>
     </row>
     <row r="357">
-      <c r="A357" s="32" t="s">
+      <c r="A357" s="34" t="s">
         <v>1100</v>
       </c>
-      <c r="C357" s="30" t="s">
+      <c r="B357" s="32"/>
+      <c r="C357" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D357" s="32"/>
     </row>
     <row r="358">
-      <c r="A358" s="32" t="s">
+      <c r="A358" s="34" t="s">
         <v>1101</v>
       </c>
-      <c r="C358" s="30" t="s">
+      <c r="B358" s="32"/>
+      <c r="C358" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D358" s="32"/>
     </row>
     <row r="359">
-      <c r="A359" s="32" t="s">
+      <c r="A359" s="34" t="s">
         <v>1102</v>
       </c>
-      <c r="C359" s="30" t="s">
+      <c r="B359" s="32"/>
+      <c r="C359" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D359" s="32"/>
     </row>
     <row r="360">
-      <c r="A360" s="32" t="s">
+      <c r="A360" s="34" t="s">
         <v>1103</v>
       </c>
-      <c r="B360" s="29"/>
-      <c r="C360" s="30" t="s">
+      <c r="B360" s="32"/>
+      <c r="C360" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D360" s="32"/>
     </row>
     <row r="361">
-      <c r="A361" s="32" t="s">
+      <c r="A361" s="34" t="s">
         <v>1104</v>
       </c>
-      <c r="C361" s="30" t="s">
+      <c r="B361" s="32"/>
+      <c r="C361" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D361" s="32"/>
     </row>
     <row r="362">
-      <c r="A362" s="32" t="s">
+      <c r="A362" s="34" t="s">
         <v>1105</v>
       </c>
-      <c r="C362" s="30" t="s">
+      <c r="B362" s="32"/>
+      <c r="C362" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D362" s="32"/>
     </row>
     <row r="363">
-      <c r="A363" s="32" t="s">
+      <c r="A363" s="34" t="s">
         <v>1106</v>
       </c>
-      <c r="C363" s="30" t="s">
+      <c r="B363" s="32"/>
+      <c r="C363" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D363" s="32"/>
     </row>
     <row r="364">
-      <c r="A364" s="32" t="s">
+      <c r="A364" s="34" t="s">
         <v>1107</v>
       </c>
-      <c r="C364" s="30" t="s">
+      <c r="B364" s="32"/>
+      <c r="C364" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D364" s="32"/>
     </row>
     <row r="365">
-      <c r="A365" s="32" t="s">
+      <c r="A365" s="34" t="s">
         <v>1108</v>
       </c>
-      <c r="C365" s="30" t="s">
+      <c r="B365" s="32"/>
+      <c r="C365" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D365" s="32"/>
     </row>
     <row r="366">
-      <c r="A366" s="32" t="s">
+      <c r="A366" s="34" t="s">
         <v>1109</v>
       </c>
-      <c r="C366" s="30" t="s">
+      <c r="B366" s="32"/>
+      <c r="C366" s="31" t="s">
         <v>1092</v>
       </c>
+      <c r="D366" s="32"/>
     </row>
     <row r="367">
-      <c r="A367" s="32" t="s">
+      <c r="A367" s="34" t="s">
         <v>1110</v>
       </c>
-      <c r="C367" s="29"/>
+      <c r="B367" s="32"/>
+      <c r="C367" s="32"/>
+      <c r="D367" s="32"/>
     </row>
     <row r="368" ht="12.75">
       <c r="C368" s="29"/>
